--- a/reference/multifam/book2.xlsx
+++ b/reference/multifam/book2.xlsx
@@ -1,35 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/5150east/landscape/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/5150east/landscape/reference/multifam/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F06C59A-24F8-1648-B51E-ADAF1FCCD1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D73C94-9B70-E747-B799-55AFD7944A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36860" yWindow="8660" windowWidth="21080" windowHeight="19860" xr2:uid="{48663933-9FC3-4DAF-A137-55C3184A040B}"/>
+    <workbookView xWindow="13280" yWindow="5940" windowWidth="21080" windowHeight="19860" activeTab="1" xr2:uid="{48663933-9FC3-4DAF-A137-55C3184A040B}"/>
   </bookViews>
   <sheets>
     <sheet name="MF" sheetId="3" r:id="rId1"/>
+    <sheet name="iProperty" sheetId="4" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <definedNames>
+    <definedName name="headr_projDescr" localSheetId="1">[1]ADMIN!$D$13</definedName>
     <definedName name="headr_projDescr">#REF!</definedName>
+    <definedName name="headr_projectName" localSheetId="1">IF([1]ADMIN!XEX1&gt;0,"Q"&amp;ROUNDUP(MONTH([1]ADMIN!XEV1)/3,0)&amp;"-"&amp;YEAR([1]ADMIN!XEV1)-2000,"")</definedName>
     <definedName name="headr_projectName">IF(#REF!&gt;0,"Q"&amp;ROUNDUP(MONTH(#REF!)/3,0)&amp;"-"&amp;YEAR(#REF!)-2000,"")</definedName>
+    <definedName name="i_dateStart" localSheetId="1">[1]ADMIN!$D$16</definedName>
     <definedName name="i_dateStart">#REF!</definedName>
+    <definedName name="i_durationMax" localSheetId="1">[1]ADMIN!$D$17</definedName>
     <definedName name="i_durationMax">#REF!</definedName>
+    <definedName name="i_projectDescr" localSheetId="1">[1]ADMIN!$D$8</definedName>
     <definedName name="i_projectDescr">#REF!</definedName>
     <definedName name="i_projectLocation">#REF!</definedName>
+    <definedName name="i_projectName" localSheetId="1">[1]ADMIN!$D$7</definedName>
     <definedName name="i_projectName">#REF!</definedName>
+    <definedName name="list_datesMo" localSheetId="1">EDATE(iProperty!i_dateStart,_xlfn.SEQUENCE(iProperty!i_durationMax,1,0))</definedName>
     <definedName name="list_datesMo">EDATE(i_dateStart,_xlfn.SEQUENCE(i_durationMax,1,0))</definedName>
+    <definedName name="list_datesQtr" localSheetId="1">IF(_xlfn.ANCHORARRAY([1]ADMIN!XFB1)&gt;0,"Q"&amp;ROUNDUP(MONTH(_xlfn.ANCHORARRAY([1]ADMIN!XFD1))/3,0)&amp;"-"&amp;YEAR(_xlfn.ANCHORARRAY([1]ADMIN!XFD1))-2000,0)</definedName>
     <definedName name="list_datesQtr">IF(_xlfn.ANCHORARRAY(#REF!)&gt;0,"Q"&amp;ROUNDUP(MONTH(_xlfn.ANCHORARRAY(#REF!))/3,0)&amp;"-"&amp;YEAR(_xlfn.ANCHORARRAY(#REF!))-2000,0)</definedName>
+    <definedName name="list_datesYr" localSheetId="1">YEAR(EDATE(iProperty!i_dateStart,_xlfn.SEQUENCE(iProperty!i_durationMax,1,0)))</definedName>
     <definedName name="list_datesYr">YEAR(EDATE(i_dateStart,_xlfn.SEQUENCE(i_durationMax,1,0)))</definedName>
     <definedName name="list_MonthNames">TEXT(_xlfn.SEQUENCE(12,,1,1)&amp;"/1", "MMM")</definedName>
+    <definedName name="list_periodsMo" localSheetId="1">_xlfn.SEQUENCE(iProperty!i_durationMax)</definedName>
     <definedName name="list_periodsMo">_xlfn.SEQUENCE(i_durationMax)</definedName>
+    <definedName name="list_periodsQtr" localSheetId="1">ROUNDUP(_xlfn.SEQUENCE(MAX(iProperty!list_periodsMo),,1,1)/3,0)</definedName>
     <definedName name="list_periodsQtr">ROUNDUP(_xlfn.SEQUENCE(MAX(list_periodsMo),,1,1)/3,0)</definedName>
+    <definedName name="list_periodsYr" localSheetId="1">_xlfn._xlws.FILTER([1]ADMIN!$H$9:$H$374,[1]ADMIN!$H$9:$H$374&lt;&gt;0)</definedName>
     <definedName name="list_periodsYr">_xlfn._xlws.FILTER(#REF!,#REF!&lt;&gt;0)</definedName>
+    <definedName name="list_years" localSheetId="1">_xlfn.UNIQUE(iProperty!list_datesYr)</definedName>
     <definedName name="list_years">_xlfn.UNIQUE(list_datesYr)</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -52,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>Rental Rates</t>
   </si>
@@ -146,24 +163,59 @@
   <si>
     <t>Net Income</t>
   </si>
+  <si>
+    <t>** the premium should be applied to the pre-reno market rent for each unit type.</t>
+  </si>
+  <si>
+    <t>Post-Renovation</t>
+  </si>
+  <si>
+    <t>Relet Months</t>
+  </si>
+  <si>
+    <t>Renovation Rent Premium</t>
+  </si>
+  <si>
+    <t>Relocation Incentive / Unit</t>
+  </si>
+  <si>
+    <t>SF / Unit</t>
+  </si>
+  <si>
+    <t>Renovation Cost</t>
+  </si>
+  <si>
+    <t>Mos to Complete</t>
+  </si>
+  <si>
+    <t>Reno Starts / Mo</t>
+  </si>
+  <si>
+    <t>Renovation Start Mo</t>
+  </si>
+  <si>
+    <t>assume 50 units, 50,000 rentable SF</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
+  <numFmts count="12">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(#,##0_);\(#,##0\);_(&quot;-&quot;_)"/>
-    <numFmt numFmtId="166" formatCode="0%;;&quot;-&quot;"/>
-    <numFmt numFmtId="167" formatCode="m/d/yy_;;&quot;-&quot;"/>
-    <numFmt numFmtId="169" formatCode="mmm\-yy_;"/>
-    <numFmt numFmtId="170" formatCode="###0_);\(###0\);&quot;-&quot;"/>
-    <numFmt numFmtId="171" formatCode="_(&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\);_(&quot;-&quot;_)"/>
-    <numFmt numFmtId="172" formatCode="0.0%"/>
-    <numFmt numFmtId="173" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0%;;&quot;-&quot;"/>
+    <numFmt numFmtId="166" formatCode="m/d/yy_;;&quot;-&quot;"/>
+    <numFmt numFmtId="167" formatCode="mmm\-yy_;"/>
+    <numFmt numFmtId="168" formatCode="###0_);\(###0\);&quot;-&quot;"/>
+    <numFmt numFmtId="169" formatCode="_(&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\);_(&quot;-&quot;_)"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
+    <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="172" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="173" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,8 +351,25 @@
       <color rgb="FF000000"/>
       <name val="Aptos Display"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Univers"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF0000FF"/>
+      <name val="Univers"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Univers"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -368,8 +437,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -459,6 +534,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -473,7 +563,7 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="3" fillId="11" borderId="0">
+    <xf numFmtId="165" fontId="3" fillId="11" borderId="0">
       <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
@@ -482,21 +572,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="3" fillId="11" borderId="1" applyProtection="0">
+    <xf numFmtId="169" fontId="3" fillId="11" borderId="1" applyProtection="0">
       <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="11" borderId="1">
+    <xf numFmtId="168" fontId="3" fillId="11" borderId="1">
       <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="11" borderId="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="167" fontId="3" fillId="11" borderId="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="11" borderId="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -509,9 +599,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -554,8 +641,8 @@
     </xf>
     <xf numFmtId="6" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="6" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="6" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -566,18 +653,42 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="173" fontId="19" fillId="12" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="19" fillId="12" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="173" fontId="20" fillId="12" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="20" fillId="12" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="173" fontId="21" fillId="12" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="21" fillId="12" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="173" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="23" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="Bad" xfId="4" builtinId="27" hidden="1"/>
@@ -624,6 +735,1951 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>185614</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>68384</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>97692</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>87923</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rounded Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCD295EB-CD36-A944-B956-2ACEC1F00A90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13825414" y="1312984"/>
+          <a:ext cx="2401278" cy="2330939"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Value</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>-Add Renovations</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+          </a:br>
+          <a:endParaRPr lang="en-US" sz="1100" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>show line item cost calcs</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="ADMIN"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>VTS</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8" t="str">
+            <v>Mezz Loan</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="H9">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="H10">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="H11">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="H12">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="D13" t="str">
+            <v>Mezz Loan</v>
+          </cell>
+          <cell r="H13">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="H14">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="H15">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="D16">
+            <v>45748</v>
+          </cell>
+          <cell r="H16">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="D17">
+            <v>360</v>
+          </cell>
+          <cell r="H17">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="H18">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="H19">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="H20">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="H21">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="H22">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="H23">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="H24">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="H25">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="H26">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="H27">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="H28">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="H29">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="H30">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="H31">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="H32">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="H33">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="H34">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="H35">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="H36">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="H37">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="H38">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="H39">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="H40">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="H41">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="H42">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="H43">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="H44">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="H45">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="H46">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="H47">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="H48">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="H49">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="H50">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="H51">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="H52">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="H53">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="H54">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="H55">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="H56">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="H57">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="H58">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="H59">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="H60">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="H61">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="H62">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="H63">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="H64">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="H65">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="H66">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="H67">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="H68">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="H69">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="H70">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="H71">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="H72">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="H73">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="H74">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="H75">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="H76">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="H77">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="H78">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="H79">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="H80">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="H81">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="H82">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="H83">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="H84">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="H85">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="H86">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="H87">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="H88">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="H89">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="H90">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="H91">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="H92">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="H93">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="H94">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="H95">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="H96">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="H97">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="H98">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="H99">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="H100">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="H101">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="H102">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="H103">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="H104">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="H105">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="H106">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="H107">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="H108">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="H109">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="H110">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="H111">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="H112">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="H113">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="H114">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="H115">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="H116">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="H117">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="H118">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="H119">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="H120">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="H121">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="H122">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="H123">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="H124">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="H125">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="H126">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="H127">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="H128">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="H129">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="H130">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="H131">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="H132">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="H133">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="H134">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="H135">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="H136">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="H137">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="H138">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="H139">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="H140">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="H141">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="H142">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="H143">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="H144">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="H145">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="H146">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="H147">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="H148">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="H149">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="H150">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="H151">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="H152">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="H153">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="H154">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="H155">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="H156">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="H157">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="H158">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="H159">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="H160">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="H161">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="H162">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="H163">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="H164">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="H165">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="H166">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="H167">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="H168">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="H169">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="H170">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="H171">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="172">
+          <cell r="H172">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="H173">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="174">
+          <cell r="H174">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="175">
+          <cell r="H175">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="176">
+          <cell r="H176">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="177">
+          <cell r="H177">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="H178">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="H179">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="180">
+          <cell r="H180">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="181">
+          <cell r="H181">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="H182">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="183">
+          <cell r="H183">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="184">
+          <cell r="H184">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="185">
+          <cell r="H185">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="H186">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="187">
+          <cell r="H187">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="H188">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="189">
+          <cell r="H189">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="190">
+          <cell r="H190">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="191">
+          <cell r="H191">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="192">
+          <cell r="H192">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="193">
+          <cell r="H193">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="194">
+          <cell r="H194">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="195">
+          <cell r="H195">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="196">
+          <cell r="H196">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="197">
+          <cell r="H197">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="198">
+          <cell r="H198">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="199">
+          <cell r="H199">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="200">
+          <cell r="H200">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="201">
+          <cell r="H201">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="202">
+          <cell r="H202">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="203">
+          <cell r="H203">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="204">
+          <cell r="H204">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="205">
+          <cell r="H205">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="206">
+          <cell r="H206">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="207">
+          <cell r="H207">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="208">
+          <cell r="H208">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="209">
+          <cell r="H209">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="210">
+          <cell r="H210">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="211">
+          <cell r="H211">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="212">
+          <cell r="H212">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="213">
+          <cell r="H213">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="214">
+          <cell r="H214">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="215">
+          <cell r="H215">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="216">
+          <cell r="H216">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="217">
+          <cell r="H217">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="218">
+          <cell r="H218">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="219">
+          <cell r="H219">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="220">
+          <cell r="H220">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="221">
+          <cell r="H221">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="222">
+          <cell r="H222">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="223">
+          <cell r="H223">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="224">
+          <cell r="H224">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="225">
+          <cell r="H225">
+            <v>19</v>
+          </cell>
+        </row>
+        <row r="226">
+          <cell r="H226">
+            <v>19</v>
+          </cell>
+        </row>
+        <row r="227">
+          <cell r="H227">
+            <v>19</v>
+          </cell>
+        </row>
+        <row r="228">
+          <cell r="H228">
+            <v>19</v>
+          </cell>
+        </row>
+        <row r="229">
+          <cell r="H229">
+            <v>19</v>
+          </cell>
+        </row>
+        <row r="230">
+          <cell r="H230">
+            <v>19</v>
+          </cell>
+        </row>
+        <row r="231">
+          <cell r="H231">
+            <v>19</v>
+          </cell>
+        </row>
+        <row r="232">
+          <cell r="H232">
+            <v>19</v>
+          </cell>
+        </row>
+        <row r="233">
+          <cell r="H233">
+            <v>19</v>
+          </cell>
+        </row>
+        <row r="234">
+          <cell r="H234">
+            <v>19</v>
+          </cell>
+        </row>
+        <row r="235">
+          <cell r="H235">
+            <v>19</v>
+          </cell>
+        </row>
+        <row r="236">
+          <cell r="H236">
+            <v>19</v>
+          </cell>
+        </row>
+        <row r="237">
+          <cell r="H237">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="238">
+          <cell r="H238">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="239">
+          <cell r="H239">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="240">
+          <cell r="H240">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="241">
+          <cell r="H241">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="242">
+          <cell r="H242">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="243">
+          <cell r="H243">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="244">
+          <cell r="H244">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="245">
+          <cell r="H245">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="246">
+          <cell r="H246">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="247">
+          <cell r="H247">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="248">
+          <cell r="H248">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="249">
+          <cell r="H249">
+            <v>21</v>
+          </cell>
+        </row>
+        <row r="250">
+          <cell r="H250">
+            <v>21</v>
+          </cell>
+        </row>
+        <row r="251">
+          <cell r="H251">
+            <v>21</v>
+          </cell>
+        </row>
+        <row r="252">
+          <cell r="H252">
+            <v>21</v>
+          </cell>
+        </row>
+        <row r="253">
+          <cell r="H253">
+            <v>21</v>
+          </cell>
+        </row>
+        <row r="254">
+          <cell r="H254">
+            <v>21</v>
+          </cell>
+        </row>
+        <row r="255">
+          <cell r="H255">
+            <v>21</v>
+          </cell>
+        </row>
+        <row r="256">
+          <cell r="H256">
+            <v>21</v>
+          </cell>
+        </row>
+        <row r="257">
+          <cell r="H257">
+            <v>21</v>
+          </cell>
+        </row>
+        <row r="258">
+          <cell r="H258">
+            <v>21</v>
+          </cell>
+        </row>
+        <row r="259">
+          <cell r="H259">
+            <v>21</v>
+          </cell>
+        </row>
+        <row r="260">
+          <cell r="H260">
+            <v>21</v>
+          </cell>
+        </row>
+        <row r="261">
+          <cell r="H261">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="262">
+          <cell r="H262">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="263">
+          <cell r="H263">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="264">
+          <cell r="H264">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="265">
+          <cell r="H265">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="266">
+          <cell r="H266">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="267">
+          <cell r="H267">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="268">
+          <cell r="H268">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="269">
+          <cell r="H269">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="270">
+          <cell r="H270">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="271">
+          <cell r="H271">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="272">
+          <cell r="H272">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="273">
+          <cell r="H273">
+            <v>23</v>
+          </cell>
+        </row>
+        <row r="274">
+          <cell r="H274">
+            <v>23</v>
+          </cell>
+        </row>
+        <row r="275">
+          <cell r="H275">
+            <v>23</v>
+          </cell>
+        </row>
+        <row r="276">
+          <cell r="H276">
+            <v>23</v>
+          </cell>
+        </row>
+        <row r="277">
+          <cell r="H277">
+            <v>23</v>
+          </cell>
+        </row>
+        <row r="278">
+          <cell r="H278">
+            <v>23</v>
+          </cell>
+        </row>
+        <row r="279">
+          <cell r="H279">
+            <v>23</v>
+          </cell>
+        </row>
+        <row r="280">
+          <cell r="H280">
+            <v>23</v>
+          </cell>
+        </row>
+        <row r="281">
+          <cell r="H281">
+            <v>23</v>
+          </cell>
+        </row>
+        <row r="282">
+          <cell r="H282">
+            <v>23</v>
+          </cell>
+        </row>
+        <row r="283">
+          <cell r="H283">
+            <v>23</v>
+          </cell>
+        </row>
+        <row r="284">
+          <cell r="H284">
+            <v>23</v>
+          </cell>
+        </row>
+        <row r="285">
+          <cell r="H285">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="286">
+          <cell r="H286">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="287">
+          <cell r="H287">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="288">
+          <cell r="H288">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="289">
+          <cell r="H289">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="290">
+          <cell r="H290">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="291">
+          <cell r="H291">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="292">
+          <cell r="H292">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="293">
+          <cell r="H293">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="294">
+          <cell r="H294">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="295">
+          <cell r="H295">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="296">
+          <cell r="H296">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="297">
+          <cell r="H297">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="298">
+          <cell r="H298">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="299">
+          <cell r="H299">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="300">
+          <cell r="H300">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="301">
+          <cell r="H301">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="302">
+          <cell r="H302">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="303">
+          <cell r="H303">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="304">
+          <cell r="H304">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="305">
+          <cell r="H305">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="306">
+          <cell r="H306">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="307">
+          <cell r="H307">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="308">
+          <cell r="H308">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="309">
+          <cell r="H309">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="310">
+          <cell r="H310">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="311">
+          <cell r="H311">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="312">
+          <cell r="H312">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="313">
+          <cell r="H313">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="314">
+          <cell r="H314">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="315">
+          <cell r="H315">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="316">
+          <cell r="H316">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="317">
+          <cell r="H317">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="318">
+          <cell r="H318">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="319">
+          <cell r="H319">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="320">
+          <cell r="H320">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="321">
+          <cell r="H321">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="322">
+          <cell r="H322">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="323">
+          <cell r="H323">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="324">
+          <cell r="H324">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="325">
+          <cell r="H325">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="326">
+          <cell r="H326">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="327">
+          <cell r="H327">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="328">
+          <cell r="H328">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="329">
+          <cell r="H329">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="330">
+          <cell r="H330">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="331">
+          <cell r="H331">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="332">
+          <cell r="H332">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="333">
+          <cell r="H333">
+            <v>28</v>
+          </cell>
+        </row>
+        <row r="334">
+          <cell r="H334">
+            <v>28</v>
+          </cell>
+        </row>
+        <row r="335">
+          <cell r="H335">
+            <v>28</v>
+          </cell>
+        </row>
+        <row r="336">
+          <cell r="H336">
+            <v>28</v>
+          </cell>
+        </row>
+        <row r="337">
+          <cell r="H337">
+            <v>28</v>
+          </cell>
+        </row>
+        <row r="338">
+          <cell r="H338">
+            <v>28</v>
+          </cell>
+        </row>
+        <row r="339">
+          <cell r="H339">
+            <v>28</v>
+          </cell>
+        </row>
+        <row r="340">
+          <cell r="H340">
+            <v>28</v>
+          </cell>
+        </row>
+        <row r="341">
+          <cell r="H341">
+            <v>28</v>
+          </cell>
+        </row>
+        <row r="342">
+          <cell r="H342">
+            <v>28</v>
+          </cell>
+        </row>
+        <row r="343">
+          <cell r="H343">
+            <v>28</v>
+          </cell>
+        </row>
+        <row r="344">
+          <cell r="H344">
+            <v>28</v>
+          </cell>
+        </row>
+        <row r="345">
+          <cell r="H345">
+            <v>29</v>
+          </cell>
+        </row>
+        <row r="346">
+          <cell r="H346">
+            <v>29</v>
+          </cell>
+        </row>
+        <row r="347">
+          <cell r="H347">
+            <v>29</v>
+          </cell>
+        </row>
+        <row r="348">
+          <cell r="H348">
+            <v>29</v>
+          </cell>
+        </row>
+        <row r="349">
+          <cell r="H349">
+            <v>29</v>
+          </cell>
+        </row>
+        <row r="350">
+          <cell r="H350">
+            <v>29</v>
+          </cell>
+        </row>
+        <row r="351">
+          <cell r="H351">
+            <v>29</v>
+          </cell>
+        </row>
+        <row r="352">
+          <cell r="H352">
+            <v>29</v>
+          </cell>
+        </row>
+        <row r="353">
+          <cell r="H353">
+            <v>29</v>
+          </cell>
+        </row>
+        <row r="354">
+          <cell r="H354">
+            <v>29</v>
+          </cell>
+        </row>
+        <row r="355">
+          <cell r="H355">
+            <v>29</v>
+          </cell>
+        </row>
+        <row r="356">
+          <cell r="H356">
+            <v>29</v>
+          </cell>
+        </row>
+        <row r="357">
+          <cell r="H357">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="358">
+          <cell r="H358">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="359">
+          <cell r="H359">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="360">
+          <cell r="H360">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="361">
+          <cell r="H361">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="362">
+          <cell r="H362">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="363">
+          <cell r="H363">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="364">
+          <cell r="H364">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="365">
+          <cell r="H365">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="366">
+          <cell r="H366">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="367">
+          <cell r="H367">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="368">
+          <cell r="H368">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="369">
+          <cell r="H369">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="370">
+          <cell r="H370">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="371">
+          <cell r="H371">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="372">
+          <cell r="H372">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="373">
+          <cell r="H373">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="374">
+          <cell r="H374">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -928,7 +2984,7 @@
   </sheetPr>
   <dimension ref="A1:DZ505"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B2" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -945,7 +3001,7 @@
     <col min="13" max="13" width="17.5" customWidth="1"/>
     <col min="14" max="20" width="9" customWidth="1"/>
     <col min="21" max="125" width="1.5" customWidth="1"/>
-    <col min="126" max="126" width="0" hidden="1" customWidth="1"/>
+    <col min="126" max="130" width="0" hidden="1" customWidth="1"/>
     <col min="131" max="16384" width="9" hidden="1"/>
   </cols>
   <sheetData>
@@ -1695,162 +3751,162 @@
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9" t="s">
+      <c r="G8" s="34"/>
+      <c r="H8" s="8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:125" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:125" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="13">
         <v>1071</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="14">
         <v>17</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="15">
         <v>2975</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="16">
         <v>3000</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="15">
         <f>G10*E10*12</f>
         <v>612000</v>
       </c>
     </row>
     <row r="11" spans="1:125" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="14">
         <v>813</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="14">
         <v>34</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="15">
         <v>2800</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="16">
         <v>2850</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="15">
         <f t="shared" ref="H11:H15" si="2">G11*E11*12</f>
         <v>1162800</v>
       </c>
     </row>
     <row r="12" spans="1:125" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="13">
         <v>1010</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="14">
         <v>9</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="15">
         <v>2925</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="16">
         <v>3000</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="15">
         <f t="shared" si="2"/>
         <v>324000</v>
       </c>
     </row>
     <row r="13" spans="1:125" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="13">
         <v>1137</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="14">
         <v>22</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="15">
         <v>3100</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="16">
         <v>3150</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="15">
         <f t="shared" si="2"/>
         <v>831600</v>
       </c>
     </row>
     <row r="14" spans="1:125" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="14">
         <v>926</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="14">
         <v>1</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="15">
         <v>2900</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="16">
         <v>3000</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="15">
         <f t="shared" si="2"/>
         <v>36000</v>
       </c>
     </row>
     <row r="15" spans="1:125" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="18">
         <v>496</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="18">
         <v>6</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="19">
         <v>2100</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="20">
         <v>2250</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="19">
         <f t="shared" si="2"/>
         <v>162000</v>
       </c>
     </row>
     <row r="16" spans="1:125" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="21" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="7"/>
@@ -1858,15 +3914,15 @@
         <f>SUM(E10:E15)</f>
         <v>89</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="22">
         <f>SUMPRODUCT($Z10:$Z15,F10:F15)</f>
         <v>0</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="22">
         <f>SUMPRODUCT($Z10:$Z15,G10:G15)</f>
         <v>0</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H16" s="23">
         <f>SUM(H10:H15)</f>
         <v>3128400</v>
       </c>
@@ -1880,257 +3936,257 @@
       <c r="H17" s="7"/>
     </row>
     <row r="18" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="7"/>
-      <c r="F18" s="25">
+      <c r="F18" s="24">
         <v>0.03</v>
       </c>
-      <c r="G18" s="26">
+      <c r="G18" s="25">
         <v>0.03</v>
       </c>
-      <c r="H18" s="27">
+      <c r="H18" s="26">
         <f>-G18*$AC$49</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="7"/>
-      <c r="F19" s="25">
+      <c r="F19" s="24">
         <v>1.4E-2</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="25">
         <v>1.4E-2</v>
       </c>
-      <c r="H19" s="27">
+      <c r="H19" s="26">
         <f>-G19*$AC$49</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="20">
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="21" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="24">
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="23">
         <f>SUM(H16:H20)</f>
         <v>3128400</v>
       </c>
     </row>
     <row r="22" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G23" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="H23" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="15">
         <v>0</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="15">
         <v>144539</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="15">
         <f>E24/89</f>
         <v>1624.0337078651685</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="16">
         <v>150</v>
       </c>
-      <c r="H24" s="16">
+      <c r="H24" s="15">
         <f>G24*12*89</f>
         <v>160200</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="31">
+      <c r="D25" s="30">
         <v>16608</v>
       </c>
-      <c r="E25" s="31">
+      <c r="E25" s="30">
         <v>23158</v>
       </c>
-      <c r="F25" s="31">
+      <c r="F25" s="30">
         <f t="shared" ref="F25:F26" si="3">E25/89</f>
         <v>260.20224719101122</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="16">
         <v>260</v>
       </c>
-      <c r="H25" s="16">
+      <c r="H25" s="15">
         <f t="shared" ref="H25:H26" si="4">G25*12*89</f>
         <v>277680</v>
       </c>
     </row>
     <row r="26" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="31">
+      <c r="D26" s="30">
         <v>0</v>
       </c>
-      <c r="E26" s="31">
+      <c r="E26" s="30">
         <v>800</v>
       </c>
-      <c r="F26" s="31">
+      <c r="F26" s="30">
         <f t="shared" si="3"/>
         <v>8.9887640449438209</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G26" s="16">
         <v>10</v>
       </c>
-      <c r="H26" s="16">
+      <c r="H26" s="15">
         <f t="shared" si="4"/>
         <v>10680</v>
       </c>
     </row>
     <row r="27" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="20">
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="21" t="s">
         <v>23</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="24">
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="23">
         <f>H21-SUM(H24:H27)</f>
         <v>2679840</v>
       </c>
     </row>
     <row r="29" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="30" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="F30" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G30" s="12" t="s">
+      <c r="G30" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H30" s="11" t="s">
+      <c r="H30" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31" s="15">
         <v>75000</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="15">
         <v>77000</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F31" s="15">
         <f>E31/50</f>
         <v>1540</v>
       </c>
-      <c r="G31" s="17">
+      <c r="G31" s="16">
         <v>1550</v>
       </c>
-      <c r="H31" s="16">
+      <c r="H31" s="15">
         <f>G31*50</f>
         <v>77500</v>
       </c>
     </row>
     <row r="32" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="31">
+      <c r="D32" s="30">
         <v>200000</v>
       </c>
-      <c r="E32" s="31">
+      <c r="E32" s="30">
         <v>185000</v>
       </c>
-      <c r="F32" s="31">
+      <c r="F32" s="30">
         <f>E32/50</f>
         <v>3700</v>
       </c>
-      <c r="G32" s="17">
+      <c r="G32" s="16">
         <v>3500</v>
       </c>
-      <c r="H32" s="33">
+      <c r="H32" s="32">
         <f>G32*50</f>
         <v>175000</v>
       </c>
     </row>
     <row r="33" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="31">
+      <c r="D33" s="30">
         <v>150000</v>
       </c>
-      <c r="E33" s="31">
+      <c r="E33" s="30">
         <v>155000</v>
       </c>
-      <c r="F33" s="31">
+      <c r="F33" s="30">
         <f>E33/50</f>
         <v>3100</v>
       </c>
-      <c r="G33" s="17">
+      <c r="G33" s="16">
         <v>3250</v>
       </c>
-      <c r="H33" s="16">
+      <c r="H33" s="15">
         <f>G33*50</f>
         <v>162500</v>
       </c>
@@ -2139,17 +4195,17 @@
     <row r="35" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="36" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="37" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="20"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="19"/>
     </row>
     <row r="38" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="21" t="s">
         <v>29</v>
       </c>
       <c r="D38" s="7">
@@ -2160,47 +4216,47 @@
         <f>SUM(E31:E33)</f>
         <v>417000</v>
       </c>
-      <c r="F38" s="23">
+      <c r="F38" s="22">
         <f>SUM(F31:F33)</f>
         <v>8340</v>
       </c>
-      <c r="G38" s="23">
+      <c r="G38" s="22">
         <f>SUM(G31:G33)</f>
         <v>8300</v>
       </c>
-      <c r="H38" s="24">
+      <c r="H38" s="23">
         <f>G38*50</f>
         <v>415000</v>
       </c>
     </row>
     <row r="39" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
     </row>
     <row r="40" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C40" s="32" t="s">
+      <c r="C40" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="31" t="e">
+      <c r="D40" s="30" t="e">
         <f>#REF!-D38</f>
         <v>#REF!</v>
       </c>
-      <c r="E40" s="31" t="e">
+      <c r="E40" s="30" t="e">
         <f>#REF!-E38</f>
         <v>#REF!</v>
       </c>
-      <c r="F40" s="31" t="e">
+      <c r="F40" s="30" t="e">
         <f>#REF!-F38</f>
         <v>#REF!</v>
       </c>
-      <c r="G40" s="31" t="e">
+      <c r="G40" s="30" t="e">
         <f>#REF!-G38</f>
         <v>#REF!</v>
       </c>
-      <c r="H40" s="34" t="e">
+      <c r="H40" s="33" t="e">
         <f>#REF!-H38</f>
         <v>#REF!</v>
       </c>
@@ -7248,4 +9304,4958 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF2BB69-11E5-B649-9119-DAAEAA33A535}">
+  <sheetPr>
+    <tabColor rgb="FF7CE38B"/>
+  </sheetPr>
+  <dimension ref="A1:DZ511"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A6" sqref="A1:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" customWidth="1"/>
+    <col min="4" max="4" width="4" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" customWidth="1"/>
+    <col min="7" max="7" width="1.83203125" customWidth="1"/>
+    <col min="8" max="8" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5" customWidth="1"/>
+    <col min="10" max="16" width="9" customWidth="1"/>
+    <col min="17" max="121" width="1.5" customWidth="1"/>
+    <col min="122" max="122" width="0" hidden="1" customWidth="1"/>
+    <col min="131" max="16384" width="9" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="37"/>
+      <c r="B3" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="E3" s="39">
+        <v>3</v>
+      </c>
+      <c r="F3" s="37"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="37"/>
+    </row>
+    <row r="4" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+    </row>
+    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="37"/>
+      <c r="B5" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="39">
+        <v>2</v>
+      </c>
+      <c r="F5" s="37"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="37"/>
+    </row>
+    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="37"/>
+      <c r="E6" s="35"/>
+      <c r="H6" s="37"/>
+    </row>
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="37"/>
+      <c r="B7" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="E7" s="39">
+        <v>3</v>
+      </c>
+      <c r="F7" s="37"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="37"/>
+    </row>
+    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="37"/>
+      <c r="H8" s="37"/>
+    </row>
+    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="37"/>
+      <c r="B9" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="42">
+        <v>25</v>
+      </c>
+      <c r="F9" s="37"/>
+      <c r="H9" s="37"/>
+    </row>
+    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="40"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="37"/>
+    </row>
+    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="42">
+        <v>3500</v>
+      </c>
+      <c r="F11" s="37"/>
+    </row>
+    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="40"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+    </row>
+    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="37"/>
+      <c r="E13" s="41">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="40"/>
+    </row>
+    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="39">
+        <v>2</v>
+      </c>
+      <c r="F15" s="37"/>
+      <c r="G15" s="38"/>
+    </row>
+    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="40"/>
+    </row>
+    <row r="17" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G20" s="38">
+        <f>E9*50000</f>
+        <v>1250000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G21" s="37"/>
+    </row>
+    <row r="22" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G22" s="38">
+        <f>E11*50</f>
+        <v>175000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G23" s="37"/>
+    </row>
+    <row r="24" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G24" s="36">
+        <f>C13*1+E13</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" x14ac:dyDescent="0.2"/>
+    <row r="38" x14ac:dyDescent="0.2"/>
+    <row r="39" x14ac:dyDescent="0.2"/>
+    <row r="40" x14ac:dyDescent="0.2"/>
+    <row r="41" x14ac:dyDescent="0.2"/>
+    <row r="42" x14ac:dyDescent="0.2"/>
+    <row r="43" x14ac:dyDescent="0.2"/>
+    <row r="44" x14ac:dyDescent="0.2"/>
+    <row r="45" x14ac:dyDescent="0.2"/>
+    <row r="46" x14ac:dyDescent="0.2"/>
+    <row r="47" x14ac:dyDescent="0.2"/>
+    <row r="48" x14ac:dyDescent="0.2"/>
+    <row r="49" x14ac:dyDescent="0.2"/>
+    <row r="50" x14ac:dyDescent="0.2"/>
+    <row r="51" x14ac:dyDescent="0.2"/>
+    <row r="52" x14ac:dyDescent="0.2"/>
+    <row r="53" x14ac:dyDescent="0.2"/>
+    <row r="54" x14ac:dyDescent="0.2"/>
+    <row r="55" x14ac:dyDescent="0.2"/>
+    <row r="56" x14ac:dyDescent="0.2"/>
+    <row r="57" x14ac:dyDescent="0.2"/>
+    <row r="58" x14ac:dyDescent="0.2"/>
+    <row r="59" x14ac:dyDescent="0.2"/>
+    <row r="60" x14ac:dyDescent="0.2"/>
+    <row r="61" x14ac:dyDescent="0.2"/>
+    <row r="62" x14ac:dyDescent="0.2"/>
+    <row r="63" x14ac:dyDescent="0.2"/>
+    <row r="64" x14ac:dyDescent="0.2"/>
+    <row r="65" x14ac:dyDescent="0.2"/>
+    <row r="66" x14ac:dyDescent="0.2"/>
+    <row r="67" x14ac:dyDescent="0.2"/>
+    <row r="68" x14ac:dyDescent="0.2"/>
+    <row r="69" x14ac:dyDescent="0.2"/>
+    <row r="70" x14ac:dyDescent="0.2"/>
+    <row r="71" x14ac:dyDescent="0.2"/>
+    <row r="72" x14ac:dyDescent="0.2"/>
+    <row r="73" x14ac:dyDescent="0.2"/>
+    <row r="74" x14ac:dyDescent="0.2"/>
+    <row r="75" x14ac:dyDescent="0.2"/>
+    <row r="76" x14ac:dyDescent="0.2"/>
+    <row r="77" x14ac:dyDescent="0.2"/>
+    <row r="78" x14ac:dyDescent="0.2"/>
+    <row r="79" x14ac:dyDescent="0.2"/>
+    <row r="80" x14ac:dyDescent="0.2"/>
+    <row r="81" x14ac:dyDescent="0.2"/>
+    <row r="82" x14ac:dyDescent="0.2"/>
+    <row r="83" x14ac:dyDescent="0.2"/>
+    <row r="84" x14ac:dyDescent="0.2"/>
+    <row r="85" x14ac:dyDescent="0.2"/>
+    <row r="86" x14ac:dyDescent="0.2"/>
+    <row r="87" x14ac:dyDescent="0.2"/>
+    <row r="88" x14ac:dyDescent="0.2"/>
+    <row r="89" x14ac:dyDescent="0.2"/>
+    <row r="90" x14ac:dyDescent="0.2"/>
+    <row r="91" x14ac:dyDescent="0.2"/>
+    <row r="92" x14ac:dyDescent="0.2"/>
+    <row r="93" x14ac:dyDescent="0.2"/>
+    <row r="94" x14ac:dyDescent="0.2"/>
+    <row r="95" x14ac:dyDescent="0.2"/>
+    <row r="96" x14ac:dyDescent="0.2"/>
+    <row r="97" x14ac:dyDescent="0.2"/>
+    <row r="98" x14ac:dyDescent="0.2"/>
+    <row r="99" x14ac:dyDescent="0.2"/>
+    <row r="100" x14ac:dyDescent="0.2"/>
+    <row r="101" x14ac:dyDescent="0.2"/>
+    <row r="102" x14ac:dyDescent="0.2"/>
+    <row r="103" x14ac:dyDescent="0.2"/>
+    <row r="104" x14ac:dyDescent="0.2"/>
+    <row r="105" x14ac:dyDescent="0.2"/>
+    <row r="106" x14ac:dyDescent="0.2"/>
+    <row r="107" x14ac:dyDescent="0.2"/>
+    <row r="108" x14ac:dyDescent="0.2"/>
+    <row r="109" x14ac:dyDescent="0.2"/>
+    <row r="110" x14ac:dyDescent="0.2"/>
+    <row r="111" x14ac:dyDescent="0.2"/>
+    <row r="112" x14ac:dyDescent="0.2"/>
+    <row r="113" x14ac:dyDescent="0.2"/>
+    <row r="114" x14ac:dyDescent="0.2"/>
+    <row r="115" x14ac:dyDescent="0.2"/>
+    <row r="116" x14ac:dyDescent="0.2"/>
+    <row r="117" x14ac:dyDescent="0.2"/>
+    <row r="118" x14ac:dyDescent="0.2"/>
+    <row r="119" x14ac:dyDescent="0.2"/>
+    <row r="120" x14ac:dyDescent="0.2"/>
+    <row r="121" x14ac:dyDescent="0.2"/>
+    <row r="122" x14ac:dyDescent="0.2"/>
+    <row r="123" x14ac:dyDescent="0.2"/>
+    <row r="124" x14ac:dyDescent="0.2"/>
+    <row r="125" x14ac:dyDescent="0.2"/>
+    <row r="126" x14ac:dyDescent="0.2"/>
+    <row r="127" x14ac:dyDescent="0.2"/>
+    <row r="128" x14ac:dyDescent="0.2"/>
+    <row r="129" x14ac:dyDescent="0.2"/>
+    <row r="130" x14ac:dyDescent="0.2"/>
+    <row r="131" x14ac:dyDescent="0.2"/>
+    <row r="132" x14ac:dyDescent="0.2"/>
+    <row r="133" x14ac:dyDescent="0.2"/>
+    <row r="134" x14ac:dyDescent="0.2"/>
+    <row r="135" x14ac:dyDescent="0.2"/>
+    <row r="136" x14ac:dyDescent="0.2"/>
+    <row r="137" x14ac:dyDescent="0.2"/>
+    <row r="138" x14ac:dyDescent="0.2"/>
+    <row r="139" x14ac:dyDescent="0.2"/>
+    <row r="140" x14ac:dyDescent="0.2"/>
+    <row r="141" x14ac:dyDescent="0.2"/>
+    <row r="142" x14ac:dyDescent="0.2"/>
+    <row r="143" x14ac:dyDescent="0.2"/>
+    <row r="144" x14ac:dyDescent="0.2"/>
+    <row r="145" x14ac:dyDescent="0.2"/>
+    <row r="146" x14ac:dyDescent="0.2"/>
+    <row r="147" x14ac:dyDescent="0.2"/>
+    <row r="148" x14ac:dyDescent="0.2"/>
+    <row r="149" x14ac:dyDescent="0.2"/>
+    <row r="150" x14ac:dyDescent="0.2"/>
+    <row r="151" x14ac:dyDescent="0.2"/>
+    <row r="152" x14ac:dyDescent="0.2"/>
+    <row r="153" x14ac:dyDescent="0.2"/>
+    <row r="154" x14ac:dyDescent="0.2"/>
+    <row r="155" x14ac:dyDescent="0.2"/>
+    <row r="156" x14ac:dyDescent="0.2"/>
+    <row r="157" x14ac:dyDescent="0.2"/>
+    <row r="158" x14ac:dyDescent="0.2"/>
+    <row r="159" x14ac:dyDescent="0.2"/>
+    <row r="160" x14ac:dyDescent="0.2"/>
+    <row r="161" x14ac:dyDescent="0.2"/>
+    <row r="162" x14ac:dyDescent="0.2"/>
+    <row r="163" x14ac:dyDescent="0.2"/>
+    <row r="164" x14ac:dyDescent="0.2"/>
+    <row r="165" x14ac:dyDescent="0.2"/>
+    <row r="166" x14ac:dyDescent="0.2"/>
+    <row r="167" x14ac:dyDescent="0.2"/>
+    <row r="168" x14ac:dyDescent="0.2"/>
+    <row r="169" x14ac:dyDescent="0.2"/>
+    <row r="170" x14ac:dyDescent="0.2"/>
+    <row r="171" x14ac:dyDescent="0.2"/>
+    <row r="172" x14ac:dyDescent="0.2"/>
+    <row r="173" x14ac:dyDescent="0.2"/>
+    <row r="174" x14ac:dyDescent="0.2"/>
+    <row r="175" x14ac:dyDescent="0.2"/>
+    <row r="176" x14ac:dyDescent="0.2"/>
+    <row r="177" x14ac:dyDescent="0.2"/>
+    <row r="178" x14ac:dyDescent="0.2"/>
+    <row r="179" x14ac:dyDescent="0.2"/>
+    <row r="180" x14ac:dyDescent="0.2"/>
+    <row r="181" x14ac:dyDescent="0.2"/>
+    <row r="182" x14ac:dyDescent="0.2"/>
+    <row r="183" x14ac:dyDescent="0.2"/>
+    <row r="184" x14ac:dyDescent="0.2"/>
+    <row r="185" x14ac:dyDescent="0.2"/>
+    <row r="186" x14ac:dyDescent="0.2"/>
+    <row r="187" x14ac:dyDescent="0.2"/>
+    <row r="188" x14ac:dyDescent="0.2"/>
+    <row r="189" x14ac:dyDescent="0.2"/>
+    <row r="190" x14ac:dyDescent="0.2"/>
+    <row r="191" x14ac:dyDescent="0.2"/>
+    <row r="192" x14ac:dyDescent="0.2"/>
+    <row r="193" x14ac:dyDescent="0.2"/>
+    <row r="194" x14ac:dyDescent="0.2"/>
+    <row r="195" x14ac:dyDescent="0.2"/>
+    <row r="196" x14ac:dyDescent="0.2"/>
+    <row r="197" x14ac:dyDescent="0.2"/>
+    <row r="198" x14ac:dyDescent="0.2"/>
+    <row r="199" x14ac:dyDescent="0.2"/>
+    <row r="200" x14ac:dyDescent="0.2"/>
+    <row r="201" x14ac:dyDescent="0.2"/>
+    <row r="202" x14ac:dyDescent="0.2"/>
+    <row r="203" x14ac:dyDescent="0.2"/>
+    <row r="204" x14ac:dyDescent="0.2"/>
+    <row r="205" x14ac:dyDescent="0.2"/>
+    <row r="206" x14ac:dyDescent="0.2"/>
+    <row r="207" x14ac:dyDescent="0.2"/>
+    <row r="208" x14ac:dyDescent="0.2"/>
+    <row r="209" x14ac:dyDescent="0.2"/>
+    <row r="210" x14ac:dyDescent="0.2"/>
+    <row r="211" x14ac:dyDescent="0.2"/>
+    <row r="212" x14ac:dyDescent="0.2"/>
+    <row r="213" x14ac:dyDescent="0.2"/>
+    <row r="214" x14ac:dyDescent="0.2"/>
+    <row r="215" x14ac:dyDescent="0.2"/>
+    <row r="216" x14ac:dyDescent="0.2"/>
+    <row r="217" x14ac:dyDescent="0.2"/>
+    <row r="218" x14ac:dyDescent="0.2"/>
+    <row r="219" x14ac:dyDescent="0.2"/>
+    <row r="220" x14ac:dyDescent="0.2"/>
+    <row r="221" x14ac:dyDescent="0.2"/>
+    <row r="222" x14ac:dyDescent="0.2"/>
+    <row r="223" x14ac:dyDescent="0.2"/>
+    <row r="224" x14ac:dyDescent="0.2"/>
+    <row r="225" x14ac:dyDescent="0.2"/>
+    <row r="226" x14ac:dyDescent="0.2"/>
+    <row r="227" x14ac:dyDescent="0.2"/>
+    <row r="228" x14ac:dyDescent="0.2"/>
+    <row r="229" x14ac:dyDescent="0.2"/>
+    <row r="230" x14ac:dyDescent="0.2"/>
+    <row r="231" x14ac:dyDescent="0.2"/>
+    <row r="232" x14ac:dyDescent="0.2"/>
+    <row r="233" x14ac:dyDescent="0.2"/>
+    <row r="234" x14ac:dyDescent="0.2"/>
+    <row r="235" x14ac:dyDescent="0.2"/>
+    <row r="236" x14ac:dyDescent="0.2"/>
+    <row r="237" x14ac:dyDescent="0.2"/>
+    <row r="238" x14ac:dyDescent="0.2"/>
+    <row r="239" x14ac:dyDescent="0.2"/>
+    <row r="240" x14ac:dyDescent="0.2"/>
+    <row r="241" x14ac:dyDescent="0.2"/>
+    <row r="242" x14ac:dyDescent="0.2"/>
+    <row r="243" x14ac:dyDescent="0.2"/>
+    <row r="244" x14ac:dyDescent="0.2"/>
+    <row r="245" x14ac:dyDescent="0.2"/>
+    <row r="246" x14ac:dyDescent="0.2"/>
+    <row r="247" x14ac:dyDescent="0.2"/>
+    <row r="248" x14ac:dyDescent="0.2"/>
+    <row r="249" x14ac:dyDescent="0.2"/>
+    <row r="250" x14ac:dyDescent="0.2"/>
+    <row r="251" x14ac:dyDescent="0.2"/>
+    <row r="252" x14ac:dyDescent="0.2"/>
+    <row r="253" x14ac:dyDescent="0.2"/>
+    <row r="254" x14ac:dyDescent="0.2"/>
+    <row r="255" x14ac:dyDescent="0.2"/>
+    <row r="256" x14ac:dyDescent="0.2"/>
+    <row r="257" x14ac:dyDescent="0.2"/>
+    <row r="258" x14ac:dyDescent="0.2"/>
+    <row r="259" x14ac:dyDescent="0.2"/>
+    <row r="260" x14ac:dyDescent="0.2"/>
+    <row r="261" x14ac:dyDescent="0.2"/>
+    <row r="262" x14ac:dyDescent="0.2"/>
+    <row r="263" x14ac:dyDescent="0.2"/>
+    <row r="264" x14ac:dyDescent="0.2"/>
+    <row r="265" x14ac:dyDescent="0.2"/>
+    <row r="266" x14ac:dyDescent="0.2"/>
+    <row r="267" x14ac:dyDescent="0.2"/>
+    <row r="268" x14ac:dyDescent="0.2"/>
+    <row r="269" x14ac:dyDescent="0.2"/>
+    <row r="270" x14ac:dyDescent="0.2"/>
+    <row r="271" x14ac:dyDescent="0.2"/>
+    <row r="272" x14ac:dyDescent="0.2"/>
+    <row r="273" x14ac:dyDescent="0.2"/>
+    <row r="274" x14ac:dyDescent="0.2"/>
+    <row r="275" x14ac:dyDescent="0.2"/>
+    <row r="276" x14ac:dyDescent="0.2"/>
+    <row r="277" x14ac:dyDescent="0.2"/>
+    <row r="278" x14ac:dyDescent="0.2"/>
+    <row r="279" x14ac:dyDescent="0.2"/>
+    <row r="280" x14ac:dyDescent="0.2"/>
+    <row r="281" x14ac:dyDescent="0.2"/>
+    <row r="282" x14ac:dyDescent="0.2"/>
+    <row r="283" x14ac:dyDescent="0.2"/>
+    <row r="284" x14ac:dyDescent="0.2"/>
+    <row r="285" x14ac:dyDescent="0.2"/>
+    <row r="286" x14ac:dyDescent="0.2"/>
+    <row r="287" x14ac:dyDescent="0.2"/>
+    <row r="288" x14ac:dyDescent="0.2"/>
+    <row r="289" x14ac:dyDescent="0.2"/>
+    <row r="290" x14ac:dyDescent="0.2"/>
+    <row r="291" x14ac:dyDescent="0.2"/>
+    <row r="292" x14ac:dyDescent="0.2"/>
+    <row r="293" x14ac:dyDescent="0.2"/>
+    <row r="294" x14ac:dyDescent="0.2"/>
+    <row r="295" x14ac:dyDescent="0.2"/>
+    <row r="296" x14ac:dyDescent="0.2"/>
+    <row r="297" x14ac:dyDescent="0.2"/>
+    <row r="298" x14ac:dyDescent="0.2"/>
+    <row r="299" x14ac:dyDescent="0.2"/>
+    <row r="300" x14ac:dyDescent="0.2"/>
+    <row r="301" x14ac:dyDescent="0.2"/>
+    <row r="302" x14ac:dyDescent="0.2"/>
+    <row r="303" x14ac:dyDescent="0.2"/>
+    <row r="304" x14ac:dyDescent="0.2"/>
+    <row r="305" x14ac:dyDescent="0.2"/>
+    <row r="306" x14ac:dyDescent="0.2"/>
+    <row r="307" x14ac:dyDescent="0.2"/>
+    <row r="308" x14ac:dyDescent="0.2"/>
+    <row r="309" x14ac:dyDescent="0.2"/>
+    <row r="310" x14ac:dyDescent="0.2"/>
+    <row r="311" x14ac:dyDescent="0.2"/>
+    <row r="312" x14ac:dyDescent="0.2"/>
+    <row r="313" x14ac:dyDescent="0.2"/>
+    <row r="314" x14ac:dyDescent="0.2"/>
+    <row r="315" x14ac:dyDescent="0.2"/>
+    <row r="316" x14ac:dyDescent="0.2"/>
+    <row r="317" x14ac:dyDescent="0.2"/>
+    <row r="318" x14ac:dyDescent="0.2"/>
+    <row r="319" x14ac:dyDescent="0.2"/>
+    <row r="320" x14ac:dyDescent="0.2"/>
+    <row r="321" x14ac:dyDescent="0.2"/>
+    <row r="322" x14ac:dyDescent="0.2"/>
+    <row r="323" x14ac:dyDescent="0.2"/>
+    <row r="324" x14ac:dyDescent="0.2"/>
+    <row r="325" x14ac:dyDescent="0.2"/>
+    <row r="326" x14ac:dyDescent="0.2"/>
+    <row r="327" x14ac:dyDescent="0.2"/>
+    <row r="328" x14ac:dyDescent="0.2"/>
+    <row r="329" x14ac:dyDescent="0.2"/>
+    <row r="330" x14ac:dyDescent="0.2"/>
+    <row r="331" x14ac:dyDescent="0.2"/>
+    <row r="332" x14ac:dyDescent="0.2"/>
+    <row r="333" x14ac:dyDescent="0.2"/>
+    <row r="334" x14ac:dyDescent="0.2"/>
+    <row r="335" x14ac:dyDescent="0.2"/>
+    <row r="336" x14ac:dyDescent="0.2"/>
+    <row r="337" x14ac:dyDescent="0.2"/>
+    <row r="338" x14ac:dyDescent="0.2"/>
+    <row r="339" x14ac:dyDescent="0.2"/>
+    <row r="340" x14ac:dyDescent="0.2"/>
+    <row r="341" x14ac:dyDescent="0.2"/>
+    <row r="342" x14ac:dyDescent="0.2"/>
+    <row r="343" x14ac:dyDescent="0.2"/>
+    <row r="344" x14ac:dyDescent="0.2"/>
+    <row r="345" x14ac:dyDescent="0.2"/>
+    <row r="346" x14ac:dyDescent="0.2"/>
+    <row r="347" x14ac:dyDescent="0.2"/>
+    <row r="348" x14ac:dyDescent="0.2"/>
+    <row r="349" x14ac:dyDescent="0.2"/>
+    <row r="350" x14ac:dyDescent="0.2"/>
+    <row r="351" x14ac:dyDescent="0.2"/>
+    <row r="352" x14ac:dyDescent="0.2"/>
+    <row r="353" x14ac:dyDescent="0.2"/>
+    <row r="354" x14ac:dyDescent="0.2"/>
+    <row r="355" x14ac:dyDescent="0.2"/>
+    <row r="356" x14ac:dyDescent="0.2"/>
+    <row r="357" x14ac:dyDescent="0.2"/>
+    <row r="358" x14ac:dyDescent="0.2"/>
+    <row r="359" x14ac:dyDescent="0.2"/>
+    <row r="360" x14ac:dyDescent="0.2"/>
+    <row r="361" x14ac:dyDescent="0.2"/>
+    <row r="362" x14ac:dyDescent="0.2"/>
+    <row r="363" x14ac:dyDescent="0.2"/>
+    <row r="364" x14ac:dyDescent="0.2"/>
+    <row r="365" x14ac:dyDescent="0.2"/>
+    <row r="366" x14ac:dyDescent="0.2"/>
+    <row r="367" x14ac:dyDescent="0.2"/>
+    <row r="368" x14ac:dyDescent="0.2"/>
+    <row r="369" x14ac:dyDescent="0.2"/>
+    <row r="370" x14ac:dyDescent="0.2"/>
+    <row r="371" x14ac:dyDescent="0.2"/>
+    <row r="372" x14ac:dyDescent="0.2"/>
+    <row r="373" x14ac:dyDescent="0.2"/>
+    <row r="374" x14ac:dyDescent="0.2"/>
+    <row r="375" x14ac:dyDescent="0.2"/>
+    <row r="376" x14ac:dyDescent="0.2"/>
+    <row r="377" x14ac:dyDescent="0.2"/>
+    <row r="378" x14ac:dyDescent="0.2"/>
+    <row r="379" x14ac:dyDescent="0.2"/>
+    <row r="380" x14ac:dyDescent="0.2"/>
+    <row r="381" x14ac:dyDescent="0.2"/>
+    <row r="382" x14ac:dyDescent="0.2"/>
+    <row r="383" x14ac:dyDescent="0.2"/>
+    <row r="384" x14ac:dyDescent="0.2"/>
+    <row r="385" spans="1:42" x14ac:dyDescent="0.2"/>
+    <row r="386" spans="1:42" x14ac:dyDescent="0.2"/>
+    <row r="387" spans="1:42" x14ac:dyDescent="0.2"/>
+    <row r="388" spans="1:42" x14ac:dyDescent="0.2"/>
+    <row r="389" spans="1:42" x14ac:dyDescent="0.2"/>
+    <row r="390" spans="1:42" x14ac:dyDescent="0.2"/>
+    <row r="391" spans="1:42" x14ac:dyDescent="0.2"/>
+    <row r="392" spans="1:42" x14ac:dyDescent="0.2"/>
+    <row r="393" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A393" s="5"/>
+      <c r="B393" s="6"/>
+      <c r="C393" s="6"/>
+      <c r="D393" s="6"/>
+      <c r="E393" s="6"/>
+      <c r="F393" s="6"/>
+      <c r="G393" s="6"/>
+      <c r="H393" s="6"/>
+      <c r="I393" s="6"/>
+      <c r="J393" s="6"/>
+      <c r="K393" s="6"/>
+      <c r="L393" s="6"/>
+      <c r="M393" s="6"/>
+      <c r="N393" s="6"/>
+      <c r="O393" s="6"/>
+      <c r="P393" s="6"/>
+      <c r="Q393" s="6"/>
+      <c r="R393" s="6"/>
+      <c r="S393" s="6"/>
+      <c r="T393" s="6"/>
+      <c r="U393" s="6"/>
+      <c r="V393" s="6"/>
+      <c r="W393" s="6"/>
+      <c r="X393" s="6"/>
+      <c r="Y393" s="6"/>
+      <c r="Z393" s="6"/>
+      <c r="AA393" s="6"/>
+      <c r="AB393" s="6"/>
+      <c r="AC393" s="6"/>
+      <c r="AD393" s="6"/>
+      <c r="AE393" s="6"/>
+      <c r="AF393" s="6"/>
+      <c r="AG393" s="6"/>
+      <c r="AH393" s="6"/>
+      <c r="AI393" s="6"/>
+      <c r="AJ393" s="6"/>
+      <c r="AK393" s="6"/>
+      <c r="AL393" s="6"/>
+      <c r="AM393" s="6"/>
+      <c r="AN393" s="6"/>
+      <c r="AO393" s="6"/>
+      <c r="AP393" s="6"/>
+    </row>
+    <row r="394" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A394" s="5"/>
+      <c r="B394" s="5"/>
+      <c r="C394" s="5"/>
+      <c r="D394" s="5"/>
+      <c r="E394" s="5"/>
+      <c r="F394" s="5"/>
+      <c r="G394" s="5"/>
+      <c r="H394" s="5"/>
+      <c r="I394" s="5"/>
+      <c r="J394" s="5"/>
+      <c r="K394" s="5"/>
+      <c r="L394" s="5"/>
+      <c r="M394" s="5"/>
+      <c r="N394" s="5"/>
+      <c r="O394" s="5"/>
+      <c r="P394" s="5"/>
+      <c r="Q394" s="5"/>
+      <c r="R394" s="5"/>
+      <c r="S394" s="5"/>
+      <c r="T394" s="5"/>
+      <c r="U394" s="5"/>
+      <c r="V394" s="5"/>
+      <c r="W394" s="5"/>
+      <c r="X394" s="5"/>
+      <c r="Y394" s="5"/>
+      <c r="Z394" s="5"/>
+      <c r="AA394" s="5"/>
+      <c r="AB394" s="5"/>
+      <c r="AC394" s="5"/>
+      <c r="AD394" s="5"/>
+      <c r="AE394" s="5"/>
+      <c r="AF394" s="5"/>
+      <c r="AG394" s="5"/>
+      <c r="AH394" s="5"/>
+      <c r="AI394" s="5"/>
+      <c r="AJ394" s="5"/>
+      <c r="AK394" s="5"/>
+      <c r="AL394" s="5"/>
+      <c r="AM394" s="5"/>
+      <c r="AN394" s="5"/>
+      <c r="AO394" s="5"/>
+      <c r="AP394" s="5"/>
+    </row>
+    <row r="395" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A395" s="5"/>
+      <c r="B395" s="5"/>
+      <c r="C395" s="5"/>
+      <c r="D395" s="5"/>
+      <c r="E395" s="5"/>
+      <c r="F395" s="5"/>
+      <c r="G395" s="5"/>
+      <c r="H395" s="5"/>
+      <c r="I395" s="5"/>
+      <c r="J395" s="5"/>
+      <c r="K395" s="5"/>
+      <c r="L395" s="5"/>
+      <c r="M395" s="5"/>
+      <c r="N395" s="5"/>
+      <c r="O395" s="5"/>
+      <c r="P395" s="5"/>
+      <c r="Q395" s="5"/>
+      <c r="R395" s="5"/>
+      <c r="S395" s="5"/>
+      <c r="T395" s="5"/>
+      <c r="U395" s="5"/>
+      <c r="V395" s="5"/>
+      <c r="W395" s="5"/>
+      <c r="X395" s="5"/>
+      <c r="Y395" s="5"/>
+      <c r="Z395" s="5"/>
+      <c r="AA395" s="5"/>
+      <c r="AB395" s="5"/>
+      <c r="AC395" s="5"/>
+      <c r="AD395" s="5"/>
+      <c r="AE395" s="5"/>
+      <c r="AF395" s="5"/>
+      <c r="AG395" s="5"/>
+      <c r="AH395" s="5"/>
+      <c r="AI395" s="5"/>
+      <c r="AJ395" s="5"/>
+      <c r="AK395" s="5"/>
+      <c r="AL395" s="5"/>
+      <c r="AM395" s="5"/>
+      <c r="AN395" s="5"/>
+      <c r="AO395" s="5"/>
+      <c r="AP395" s="5"/>
+    </row>
+    <row r="396" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A396" s="5"/>
+      <c r="B396" s="5"/>
+      <c r="C396" s="5"/>
+      <c r="D396" s="5"/>
+      <c r="E396" s="5"/>
+      <c r="F396" s="5"/>
+      <c r="G396" s="5"/>
+      <c r="H396" s="5"/>
+      <c r="I396" s="5"/>
+      <c r="J396" s="5"/>
+      <c r="K396" s="5"/>
+      <c r="L396" s="5"/>
+      <c r="M396" s="5"/>
+      <c r="N396" s="5"/>
+      <c r="O396" s="5"/>
+      <c r="P396" s="5"/>
+      <c r="Q396" s="5"/>
+      <c r="R396" s="5"/>
+      <c r="S396" s="5"/>
+      <c r="T396" s="5"/>
+      <c r="U396" s="5"/>
+      <c r="V396" s="5"/>
+      <c r="W396" s="5"/>
+      <c r="X396" s="5"/>
+      <c r="Y396" s="5"/>
+      <c r="Z396" s="5"/>
+      <c r="AA396" s="5"/>
+      <c r="AB396" s="5"/>
+      <c r="AC396" s="5"/>
+      <c r="AD396" s="5"/>
+      <c r="AE396" s="5"/>
+      <c r="AF396" s="5"/>
+      <c r="AG396" s="5"/>
+      <c r="AH396" s="5"/>
+      <c r="AI396" s="5"/>
+      <c r="AJ396" s="5"/>
+      <c r="AK396" s="5"/>
+      <c r="AL396" s="5"/>
+      <c r="AM396" s="5"/>
+      <c r="AN396" s="5"/>
+      <c r="AO396" s="5"/>
+      <c r="AP396" s="5"/>
+    </row>
+    <row r="397" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A397" s="5"/>
+      <c r="B397" s="5"/>
+      <c r="C397" s="5"/>
+      <c r="D397" s="5"/>
+      <c r="E397" s="5"/>
+      <c r="F397" s="5"/>
+      <c r="G397" s="5"/>
+      <c r="H397" s="5"/>
+      <c r="I397" s="5"/>
+      <c r="J397" s="5"/>
+      <c r="K397" s="5"/>
+      <c r="L397" s="5"/>
+      <c r="M397" s="5"/>
+      <c r="N397" s="5"/>
+      <c r="O397" s="5"/>
+      <c r="P397" s="5"/>
+      <c r="Q397" s="5"/>
+      <c r="R397" s="5"/>
+      <c r="S397" s="5"/>
+      <c r="T397" s="5"/>
+      <c r="U397" s="5"/>
+      <c r="V397" s="5"/>
+      <c r="W397" s="5"/>
+      <c r="X397" s="5"/>
+      <c r="Y397" s="5"/>
+      <c r="Z397" s="5"/>
+      <c r="AA397" s="5"/>
+      <c r="AB397" s="5"/>
+      <c r="AC397" s="5"/>
+      <c r="AD397" s="5"/>
+      <c r="AE397" s="5"/>
+      <c r="AF397" s="5"/>
+      <c r="AG397" s="5"/>
+      <c r="AH397" s="5"/>
+      <c r="AI397" s="5"/>
+      <c r="AJ397" s="5"/>
+      <c r="AK397" s="5"/>
+      <c r="AL397" s="5"/>
+      <c r="AM397" s="5"/>
+      <c r="AN397" s="5"/>
+      <c r="AO397" s="5"/>
+      <c r="AP397" s="5"/>
+    </row>
+    <row r="398" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A398" s="5"/>
+      <c r="B398" s="5"/>
+      <c r="C398" s="5"/>
+      <c r="D398" s="5"/>
+      <c r="E398" s="5"/>
+      <c r="F398" s="5"/>
+      <c r="G398" s="5"/>
+      <c r="H398" s="5"/>
+      <c r="I398" s="5"/>
+      <c r="J398" s="5"/>
+      <c r="K398" s="5"/>
+      <c r="L398" s="5"/>
+      <c r="M398" s="5"/>
+      <c r="N398" s="5"/>
+      <c r="O398" s="5"/>
+      <c r="P398" s="5"/>
+      <c r="Q398" s="5"/>
+      <c r="R398" s="5"/>
+      <c r="S398" s="5"/>
+      <c r="T398" s="5"/>
+      <c r="U398" s="5"/>
+      <c r="V398" s="5"/>
+      <c r="W398" s="5"/>
+      <c r="X398" s="5"/>
+      <c r="Y398" s="5"/>
+      <c r="Z398" s="5"/>
+      <c r="AA398" s="5"/>
+      <c r="AB398" s="5"/>
+      <c r="AC398" s="5"/>
+      <c r="AD398" s="5"/>
+      <c r="AE398" s="5"/>
+      <c r="AF398" s="5"/>
+      <c r="AG398" s="5"/>
+      <c r="AH398" s="5"/>
+      <c r="AI398" s="5"/>
+      <c r="AJ398" s="5"/>
+      <c r="AK398" s="5"/>
+      <c r="AL398" s="5"/>
+      <c r="AM398" s="5"/>
+      <c r="AN398" s="5"/>
+      <c r="AO398" s="5"/>
+      <c r="AP398" s="5"/>
+    </row>
+    <row r="399" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A399" s="6"/>
+      <c r="B399" s="5"/>
+      <c r="C399" s="5"/>
+      <c r="D399" s="5"/>
+      <c r="E399" s="5"/>
+      <c r="F399" s="5"/>
+      <c r="G399" s="5"/>
+      <c r="H399" s="5"/>
+      <c r="I399" s="5"/>
+      <c r="J399" s="5"/>
+      <c r="K399" s="5"/>
+      <c r="L399" s="5"/>
+      <c r="M399" s="5"/>
+      <c r="N399" s="5"/>
+      <c r="O399" s="5"/>
+      <c r="P399" s="5"/>
+      <c r="Q399" s="5"/>
+      <c r="R399" s="5"/>
+      <c r="S399" s="5"/>
+      <c r="T399" s="5"/>
+      <c r="U399" s="5"/>
+      <c r="V399" s="5"/>
+      <c r="W399" s="5"/>
+      <c r="X399" s="5"/>
+      <c r="Y399" s="5"/>
+      <c r="Z399" s="5"/>
+      <c r="AA399" s="5"/>
+      <c r="AB399" s="5"/>
+      <c r="AC399" s="5"/>
+      <c r="AD399" s="5"/>
+      <c r="AE399" s="5"/>
+      <c r="AF399" s="5"/>
+      <c r="AG399" s="5"/>
+      <c r="AH399" s="5"/>
+      <c r="AI399" s="5"/>
+      <c r="AJ399" s="5"/>
+      <c r="AK399" s="5"/>
+      <c r="AL399" s="5"/>
+      <c r="AM399" s="5"/>
+      <c r="AN399" s="5"/>
+      <c r="AO399" s="5"/>
+      <c r="AP399" s="5"/>
+    </row>
+    <row r="400" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A400" s="5"/>
+      <c r="B400" s="5"/>
+      <c r="C400" s="5"/>
+      <c r="D400" s="5"/>
+      <c r="E400" s="5"/>
+      <c r="F400" s="5"/>
+      <c r="G400" s="5"/>
+      <c r="H400" s="5"/>
+      <c r="I400" s="5"/>
+      <c r="J400" s="5"/>
+      <c r="K400" s="5"/>
+      <c r="L400" s="5"/>
+      <c r="M400" s="5"/>
+      <c r="N400" s="5"/>
+      <c r="O400" s="5"/>
+      <c r="P400" s="5"/>
+      <c r="Q400" s="5"/>
+      <c r="R400" s="5"/>
+      <c r="S400" s="5"/>
+      <c r="T400" s="5"/>
+      <c r="U400" s="5"/>
+      <c r="V400" s="5"/>
+      <c r="W400" s="5"/>
+      <c r="X400" s="5"/>
+      <c r="Y400" s="5"/>
+      <c r="Z400" s="5"/>
+      <c r="AA400" s="5"/>
+      <c r="AB400" s="5"/>
+      <c r="AC400" s="5"/>
+      <c r="AD400" s="5"/>
+      <c r="AE400" s="5"/>
+      <c r="AF400" s="5"/>
+      <c r="AG400" s="5"/>
+      <c r="AH400" s="5"/>
+      <c r="AI400" s="5"/>
+      <c r="AJ400" s="5"/>
+      <c r="AK400" s="5"/>
+      <c r="AL400" s="5"/>
+      <c r="AM400" s="5"/>
+      <c r="AN400" s="5"/>
+      <c r="AO400" s="5"/>
+      <c r="AP400" s="5"/>
+    </row>
+    <row r="401" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A401" s="5"/>
+      <c r="B401" s="5"/>
+      <c r="C401" s="5"/>
+      <c r="D401" s="5"/>
+      <c r="E401" s="5"/>
+      <c r="F401" s="5"/>
+      <c r="G401" s="5"/>
+      <c r="H401" s="5"/>
+      <c r="I401" s="5"/>
+      <c r="J401" s="5"/>
+      <c r="K401" s="5"/>
+      <c r="L401" s="5"/>
+      <c r="M401" s="5"/>
+      <c r="N401" s="5"/>
+      <c r="O401" s="5"/>
+      <c r="P401" s="5"/>
+      <c r="Q401" s="5"/>
+      <c r="R401" s="5"/>
+      <c r="S401" s="5"/>
+      <c r="T401" s="5"/>
+      <c r="U401" s="5"/>
+      <c r="V401" s="5"/>
+      <c r="W401" s="5"/>
+      <c r="X401" s="5"/>
+      <c r="Y401" s="5"/>
+      <c r="Z401" s="5"/>
+      <c r="AA401" s="5"/>
+      <c r="AB401" s="5"/>
+      <c r="AC401" s="5"/>
+      <c r="AD401" s="5"/>
+      <c r="AE401" s="5"/>
+      <c r="AF401" s="5"/>
+      <c r="AG401" s="5"/>
+      <c r="AH401" s="5"/>
+      <c r="AI401" s="5"/>
+      <c r="AJ401" s="5"/>
+      <c r="AK401" s="5"/>
+      <c r="AL401" s="5"/>
+      <c r="AM401" s="5"/>
+      <c r="AN401" s="5"/>
+      <c r="AO401" s="5"/>
+      <c r="AP401" s="5"/>
+    </row>
+    <row r="402" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A402" s="5"/>
+      <c r="B402" s="5"/>
+      <c r="C402" s="5"/>
+      <c r="D402" s="5"/>
+      <c r="E402" s="5"/>
+      <c r="F402" s="5"/>
+      <c r="G402" s="5"/>
+      <c r="H402" s="5"/>
+      <c r="I402" s="5"/>
+      <c r="J402" s="5"/>
+      <c r="K402" s="5"/>
+      <c r="L402" s="5"/>
+      <c r="M402" s="5"/>
+      <c r="N402" s="5"/>
+      <c r="O402" s="5"/>
+      <c r="P402" s="5"/>
+      <c r="Q402" s="5"/>
+      <c r="R402" s="5"/>
+      <c r="S402" s="5"/>
+      <c r="T402" s="5"/>
+      <c r="U402" s="5"/>
+      <c r="V402" s="5"/>
+      <c r="W402" s="5"/>
+      <c r="X402" s="5"/>
+      <c r="Y402" s="5"/>
+      <c r="Z402" s="5"/>
+      <c r="AA402" s="5"/>
+      <c r="AB402" s="5"/>
+      <c r="AC402" s="5"/>
+      <c r="AD402" s="5"/>
+      <c r="AE402" s="5"/>
+      <c r="AF402" s="5"/>
+      <c r="AG402" s="5"/>
+      <c r="AH402" s="5"/>
+      <c r="AI402" s="5"/>
+      <c r="AJ402" s="5"/>
+      <c r="AK402" s="5"/>
+      <c r="AL402" s="5"/>
+      <c r="AM402" s="5"/>
+      <c r="AN402" s="5"/>
+      <c r="AO402" s="5"/>
+      <c r="AP402" s="5"/>
+    </row>
+    <row r="403" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A403" s="5"/>
+      <c r="B403" s="5"/>
+      <c r="C403" s="5"/>
+      <c r="D403" s="5"/>
+      <c r="E403" s="5"/>
+      <c r="F403" s="5"/>
+      <c r="G403" s="5"/>
+      <c r="H403" s="5"/>
+      <c r="I403" s="5"/>
+      <c r="J403" s="5"/>
+      <c r="K403" s="5"/>
+      <c r="L403" s="5"/>
+      <c r="M403" s="5"/>
+      <c r="N403" s="5"/>
+      <c r="O403" s="5"/>
+      <c r="P403" s="5"/>
+      <c r="Q403" s="5"/>
+      <c r="R403" s="5"/>
+      <c r="S403" s="5"/>
+      <c r="T403" s="5"/>
+      <c r="U403" s="5"/>
+      <c r="V403" s="5"/>
+      <c r="W403" s="5"/>
+      <c r="X403" s="5"/>
+      <c r="Y403" s="5"/>
+      <c r="Z403" s="5"/>
+      <c r="AA403" s="5"/>
+      <c r="AB403" s="5"/>
+      <c r="AC403" s="5"/>
+      <c r="AD403" s="5"/>
+      <c r="AE403" s="5"/>
+      <c r="AF403" s="5"/>
+      <c r="AG403" s="5"/>
+      <c r="AH403" s="5"/>
+      <c r="AI403" s="5"/>
+      <c r="AJ403" s="5"/>
+      <c r="AK403" s="5"/>
+      <c r="AL403" s="5"/>
+      <c r="AM403" s="5"/>
+      <c r="AN403" s="5"/>
+      <c r="AO403" s="5"/>
+      <c r="AP403" s="5"/>
+    </row>
+    <row r="404" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A404" s="5"/>
+      <c r="B404" s="5"/>
+      <c r="C404" s="5"/>
+      <c r="D404" s="5"/>
+      <c r="E404" s="5"/>
+      <c r="F404" s="5"/>
+      <c r="G404" s="5"/>
+      <c r="H404" s="5"/>
+      <c r="I404" s="5"/>
+      <c r="J404" s="5"/>
+      <c r="K404" s="5"/>
+      <c r="L404" s="5"/>
+      <c r="M404" s="5"/>
+      <c r="N404" s="5"/>
+      <c r="O404" s="5"/>
+      <c r="P404" s="5"/>
+      <c r="Q404" s="5"/>
+      <c r="R404" s="5"/>
+      <c r="S404" s="5"/>
+      <c r="T404" s="5"/>
+      <c r="U404" s="5"/>
+      <c r="V404" s="5"/>
+      <c r="W404" s="5"/>
+      <c r="X404" s="5"/>
+      <c r="Y404" s="5"/>
+      <c r="Z404" s="5"/>
+      <c r="AA404" s="5"/>
+      <c r="AB404" s="5"/>
+      <c r="AC404" s="5"/>
+      <c r="AD404" s="5"/>
+      <c r="AE404" s="5"/>
+      <c r="AF404" s="5"/>
+      <c r="AG404" s="5"/>
+      <c r="AH404" s="5"/>
+      <c r="AI404" s="5"/>
+      <c r="AJ404" s="5"/>
+      <c r="AK404" s="5"/>
+      <c r="AL404" s="5"/>
+      <c r="AM404" s="5"/>
+      <c r="AN404" s="5"/>
+      <c r="AO404" s="5"/>
+      <c r="AP404" s="5"/>
+    </row>
+    <row r="405" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A405" s="5"/>
+      <c r="B405" s="5"/>
+      <c r="C405" s="5"/>
+      <c r="D405" s="5"/>
+      <c r="E405" s="5"/>
+      <c r="F405" s="5"/>
+      <c r="G405" s="5"/>
+      <c r="H405" s="5"/>
+      <c r="I405" s="5"/>
+      <c r="J405" s="5"/>
+      <c r="K405" s="5"/>
+      <c r="L405" s="5"/>
+      <c r="M405" s="5"/>
+      <c r="N405" s="5"/>
+      <c r="O405" s="5"/>
+      <c r="P405" s="5"/>
+      <c r="Q405" s="5"/>
+      <c r="R405" s="5"/>
+      <c r="S405" s="5"/>
+      <c r="T405" s="5"/>
+      <c r="U405" s="5"/>
+      <c r="V405" s="5"/>
+      <c r="W405" s="5"/>
+      <c r="X405" s="5"/>
+      <c r="Y405" s="5"/>
+      <c r="Z405" s="5"/>
+      <c r="AA405" s="5"/>
+      <c r="AB405" s="5"/>
+      <c r="AC405" s="5"/>
+      <c r="AD405" s="5"/>
+      <c r="AE405" s="5"/>
+      <c r="AF405" s="5"/>
+      <c r="AG405" s="5"/>
+      <c r="AH405" s="5"/>
+      <c r="AI405" s="5"/>
+      <c r="AJ405" s="5"/>
+      <c r="AK405" s="5"/>
+      <c r="AL405" s="5"/>
+      <c r="AM405" s="5"/>
+      <c r="AN405" s="5"/>
+      <c r="AO405" s="5"/>
+      <c r="AP405" s="5"/>
+    </row>
+    <row r="406" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A406" s="5"/>
+      <c r="B406" s="5"/>
+      <c r="C406" s="5"/>
+      <c r="D406" s="5"/>
+      <c r="E406" s="5"/>
+      <c r="F406" s="5"/>
+      <c r="G406" s="5"/>
+      <c r="H406" s="5"/>
+      <c r="I406" s="5"/>
+      <c r="J406" s="5"/>
+      <c r="K406" s="5"/>
+      <c r="L406" s="5"/>
+      <c r="M406" s="5"/>
+      <c r="N406" s="5"/>
+      <c r="O406" s="5"/>
+      <c r="P406" s="5"/>
+      <c r="Q406" s="5"/>
+      <c r="R406" s="5"/>
+      <c r="S406" s="5"/>
+      <c r="T406" s="5"/>
+      <c r="U406" s="5"/>
+      <c r="V406" s="5"/>
+      <c r="W406" s="5"/>
+      <c r="X406" s="5"/>
+      <c r="Y406" s="5"/>
+      <c r="Z406" s="5"/>
+      <c r="AA406" s="5"/>
+      <c r="AB406" s="5"/>
+      <c r="AC406" s="5"/>
+      <c r="AD406" s="5"/>
+      <c r="AE406" s="5"/>
+      <c r="AF406" s="5"/>
+      <c r="AG406" s="5"/>
+      <c r="AH406" s="5"/>
+      <c r="AI406" s="5"/>
+      <c r="AJ406" s="5"/>
+      <c r="AK406" s="5"/>
+      <c r="AL406" s="5"/>
+      <c r="AM406" s="5"/>
+      <c r="AN406" s="5"/>
+      <c r="AO406" s="5"/>
+      <c r="AP406" s="5"/>
+    </row>
+    <row r="407" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A407" s="5"/>
+      <c r="B407" s="5"/>
+      <c r="C407" s="5"/>
+      <c r="D407" s="5"/>
+      <c r="E407" s="5"/>
+      <c r="F407" s="5"/>
+      <c r="G407" s="5"/>
+      <c r="H407" s="5"/>
+      <c r="I407" s="5"/>
+      <c r="J407" s="5"/>
+      <c r="K407" s="5"/>
+      <c r="L407" s="5"/>
+      <c r="M407" s="5"/>
+      <c r="N407" s="5"/>
+      <c r="O407" s="5"/>
+      <c r="P407" s="5"/>
+      <c r="Q407" s="5"/>
+      <c r="R407" s="5"/>
+      <c r="S407" s="5"/>
+      <c r="T407" s="5"/>
+      <c r="U407" s="5"/>
+      <c r="V407" s="5"/>
+      <c r="W407" s="5"/>
+      <c r="X407" s="5"/>
+      <c r="Y407" s="5"/>
+      <c r="Z407" s="5"/>
+      <c r="AA407" s="5"/>
+      <c r="AB407" s="5"/>
+      <c r="AC407" s="5"/>
+      <c r="AD407" s="5"/>
+      <c r="AE407" s="5"/>
+      <c r="AF407" s="5"/>
+      <c r="AG407" s="5"/>
+      <c r="AH407" s="5"/>
+      <c r="AI407" s="5"/>
+      <c r="AJ407" s="5"/>
+      <c r="AK407" s="5"/>
+      <c r="AL407" s="5"/>
+      <c r="AM407" s="5"/>
+      <c r="AN407" s="5"/>
+      <c r="AO407" s="5"/>
+      <c r="AP407" s="5"/>
+    </row>
+    <row r="408" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A408" s="5"/>
+      <c r="B408" s="5"/>
+      <c r="C408" s="5"/>
+      <c r="D408" s="5"/>
+      <c r="E408" s="5"/>
+      <c r="F408" s="5"/>
+      <c r="G408" s="5"/>
+      <c r="H408" s="5"/>
+      <c r="I408" s="5"/>
+      <c r="J408" s="5"/>
+      <c r="K408" s="5"/>
+      <c r="L408" s="5"/>
+      <c r="M408" s="5"/>
+      <c r="N408" s="5"/>
+      <c r="O408" s="5"/>
+      <c r="P408" s="5"/>
+      <c r="Q408" s="5"/>
+      <c r="R408" s="5"/>
+      <c r="S408" s="5"/>
+      <c r="T408" s="5"/>
+      <c r="U408" s="5"/>
+      <c r="V408" s="5"/>
+      <c r="W408" s="5"/>
+      <c r="X408" s="5"/>
+      <c r="Y408" s="5"/>
+      <c r="Z408" s="5"/>
+      <c r="AA408" s="5"/>
+      <c r="AB408" s="5"/>
+      <c r="AC408" s="5"/>
+      <c r="AD408" s="5"/>
+      <c r="AE408" s="5"/>
+      <c r="AF408" s="5"/>
+      <c r="AG408" s="5"/>
+      <c r="AH408" s="5"/>
+      <c r="AI408" s="5"/>
+      <c r="AJ408" s="5"/>
+      <c r="AK408" s="5"/>
+      <c r="AL408" s="5"/>
+      <c r="AM408" s="5"/>
+      <c r="AN408" s="5"/>
+      <c r="AO408" s="5"/>
+      <c r="AP408" s="5"/>
+    </row>
+    <row r="409" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A409" s="5"/>
+      <c r="B409" s="5"/>
+      <c r="C409" s="5"/>
+      <c r="D409" s="5"/>
+      <c r="E409" s="5"/>
+      <c r="F409" s="5"/>
+      <c r="G409" s="5"/>
+      <c r="H409" s="5"/>
+      <c r="I409" s="5"/>
+      <c r="J409" s="5"/>
+      <c r="K409" s="5"/>
+      <c r="L409" s="5"/>
+      <c r="M409" s="5"/>
+      <c r="N409" s="5"/>
+      <c r="O409" s="5"/>
+      <c r="P409" s="5"/>
+      <c r="Q409" s="5"/>
+      <c r="R409" s="5"/>
+      <c r="S409" s="5"/>
+      <c r="T409" s="5"/>
+      <c r="U409" s="5"/>
+      <c r="V409" s="5"/>
+      <c r="W409" s="5"/>
+      <c r="X409" s="5"/>
+      <c r="Y409" s="5"/>
+      <c r="Z409" s="5"/>
+      <c r="AA409" s="5"/>
+      <c r="AB409" s="5"/>
+      <c r="AC409" s="5"/>
+      <c r="AD409" s="5"/>
+      <c r="AE409" s="5"/>
+      <c r="AF409" s="5"/>
+      <c r="AG409" s="5"/>
+      <c r="AH409" s="5"/>
+      <c r="AI409" s="5"/>
+      <c r="AJ409" s="5"/>
+      <c r="AK409" s="5"/>
+      <c r="AL409" s="5"/>
+      <c r="AM409" s="5"/>
+      <c r="AN409" s="5"/>
+      <c r="AO409" s="5"/>
+      <c r="AP409" s="5"/>
+    </row>
+    <row r="410" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A410" s="5"/>
+      <c r="B410" s="5"/>
+      <c r="C410" s="5"/>
+      <c r="D410" s="5"/>
+      <c r="E410" s="5"/>
+      <c r="F410" s="5"/>
+      <c r="G410" s="5"/>
+      <c r="H410" s="5"/>
+      <c r="I410" s="5"/>
+      <c r="J410" s="5"/>
+      <c r="K410" s="5"/>
+      <c r="L410" s="5"/>
+      <c r="M410" s="5"/>
+      <c r="N410" s="5"/>
+      <c r="O410" s="5"/>
+      <c r="P410" s="5"/>
+      <c r="Q410" s="5"/>
+      <c r="R410" s="5"/>
+      <c r="S410" s="5"/>
+      <c r="T410" s="5"/>
+      <c r="U410" s="5"/>
+      <c r="V410" s="5"/>
+      <c r="W410" s="5"/>
+      <c r="X410" s="5"/>
+      <c r="Y410" s="5"/>
+      <c r="Z410" s="5"/>
+      <c r="AA410" s="5"/>
+      <c r="AB410" s="5"/>
+      <c r="AC410" s="5"/>
+      <c r="AD410" s="5"/>
+      <c r="AE410" s="5"/>
+      <c r="AF410" s="5"/>
+      <c r="AG410" s="5"/>
+      <c r="AH410" s="5"/>
+      <c r="AI410" s="5"/>
+      <c r="AJ410" s="5"/>
+      <c r="AK410" s="5"/>
+      <c r="AL410" s="5"/>
+      <c r="AM410" s="5"/>
+      <c r="AN410" s="5"/>
+      <c r="AO410" s="5"/>
+      <c r="AP410" s="5"/>
+    </row>
+    <row r="411" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A411" s="5"/>
+      <c r="B411" s="5"/>
+      <c r="C411" s="5"/>
+      <c r="D411" s="5"/>
+      <c r="E411" s="5"/>
+      <c r="F411" s="5"/>
+      <c r="G411" s="5"/>
+      <c r="H411" s="5"/>
+      <c r="I411" s="5"/>
+      <c r="J411" s="5"/>
+      <c r="K411" s="5"/>
+      <c r="L411" s="5"/>
+      <c r="M411" s="5"/>
+      <c r="N411" s="5"/>
+      <c r="O411" s="5"/>
+      <c r="P411" s="5"/>
+      <c r="Q411" s="5"/>
+      <c r="R411" s="5"/>
+      <c r="S411" s="5"/>
+      <c r="T411" s="5"/>
+      <c r="U411" s="5"/>
+      <c r="V411" s="5"/>
+      <c r="W411" s="5"/>
+      <c r="X411" s="5"/>
+      <c r="Y411" s="5"/>
+      <c r="Z411" s="5"/>
+      <c r="AA411" s="5"/>
+      <c r="AB411" s="5"/>
+      <c r="AC411" s="5"/>
+      <c r="AD411" s="5"/>
+      <c r="AE411" s="5"/>
+      <c r="AF411" s="5"/>
+      <c r="AG411" s="5"/>
+      <c r="AH411" s="5"/>
+      <c r="AI411" s="5"/>
+      <c r="AJ411" s="5"/>
+      <c r="AK411" s="5"/>
+      <c r="AL411" s="5"/>
+      <c r="AM411" s="5"/>
+      <c r="AN411" s="5"/>
+      <c r="AO411" s="5"/>
+      <c r="AP411" s="5"/>
+    </row>
+    <row r="412" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A412" s="5"/>
+      <c r="B412" s="5"/>
+      <c r="C412" s="5"/>
+      <c r="D412" s="5"/>
+      <c r="E412" s="5"/>
+      <c r="F412" s="5"/>
+      <c r="G412" s="5"/>
+      <c r="H412" s="5"/>
+      <c r="I412" s="5"/>
+      <c r="J412" s="5"/>
+      <c r="K412" s="5"/>
+      <c r="L412" s="5"/>
+      <c r="M412" s="5"/>
+      <c r="N412" s="5"/>
+      <c r="O412" s="5"/>
+      <c r="P412" s="5"/>
+      <c r="Q412" s="5"/>
+      <c r="R412" s="5"/>
+      <c r="S412" s="5"/>
+      <c r="T412" s="5"/>
+      <c r="U412" s="5"/>
+      <c r="V412" s="5"/>
+      <c r="W412" s="5"/>
+      <c r="X412" s="5"/>
+      <c r="Y412" s="5"/>
+      <c r="Z412" s="5"/>
+      <c r="AA412" s="5"/>
+      <c r="AB412" s="5"/>
+      <c r="AC412" s="5"/>
+      <c r="AD412" s="5"/>
+      <c r="AE412" s="5"/>
+      <c r="AF412" s="5"/>
+      <c r="AG412" s="5"/>
+      <c r="AH412" s="5"/>
+      <c r="AI412" s="5"/>
+      <c r="AJ412" s="5"/>
+      <c r="AK412" s="5"/>
+      <c r="AL412" s="5"/>
+      <c r="AM412" s="5"/>
+      <c r="AN412" s="5"/>
+      <c r="AO412" s="5"/>
+      <c r="AP412" s="5"/>
+    </row>
+    <row r="413" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A413" s="5"/>
+      <c r="B413" s="5"/>
+      <c r="C413" s="5"/>
+      <c r="D413" s="5"/>
+      <c r="E413" s="5"/>
+      <c r="F413" s="5"/>
+      <c r="G413" s="5"/>
+      <c r="H413" s="5"/>
+      <c r="I413" s="5"/>
+      <c r="J413" s="5"/>
+      <c r="K413" s="5"/>
+      <c r="L413" s="5"/>
+      <c r="M413" s="5"/>
+      <c r="N413" s="5"/>
+      <c r="O413" s="5"/>
+      <c r="P413" s="5"/>
+      <c r="Q413" s="5"/>
+      <c r="R413" s="5"/>
+      <c r="S413" s="5"/>
+      <c r="T413" s="5"/>
+      <c r="U413" s="5"/>
+      <c r="V413" s="5"/>
+      <c r="W413" s="5"/>
+      <c r="X413" s="5"/>
+      <c r="Y413" s="5"/>
+      <c r="Z413" s="5"/>
+      <c r="AA413" s="5"/>
+      <c r="AB413" s="5"/>
+      <c r="AC413" s="5"/>
+      <c r="AD413" s="5"/>
+      <c r="AE413" s="5"/>
+      <c r="AF413" s="5"/>
+      <c r="AG413" s="5"/>
+      <c r="AH413" s="5"/>
+      <c r="AI413" s="5"/>
+      <c r="AJ413" s="5"/>
+      <c r="AK413" s="5"/>
+      <c r="AL413" s="5"/>
+      <c r="AM413" s="5"/>
+      <c r="AN413" s="5"/>
+      <c r="AO413" s="5"/>
+      <c r="AP413" s="5"/>
+    </row>
+    <row r="414" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A414" s="5"/>
+      <c r="B414" s="5"/>
+      <c r="C414" s="5"/>
+      <c r="D414" s="5"/>
+      <c r="E414" s="5"/>
+      <c r="F414" s="5"/>
+      <c r="G414" s="5"/>
+      <c r="H414" s="5"/>
+      <c r="I414" s="5"/>
+      <c r="J414" s="5"/>
+      <c r="K414" s="5"/>
+      <c r="L414" s="5"/>
+      <c r="M414" s="5"/>
+      <c r="N414" s="5"/>
+      <c r="O414" s="5"/>
+      <c r="P414" s="5"/>
+      <c r="Q414" s="5"/>
+      <c r="R414" s="5"/>
+      <c r="S414" s="5"/>
+      <c r="T414" s="5"/>
+      <c r="U414" s="5"/>
+      <c r="V414" s="5"/>
+      <c r="W414" s="5"/>
+      <c r="X414" s="5"/>
+      <c r="Y414" s="5"/>
+      <c r="Z414" s="5"/>
+      <c r="AA414" s="5"/>
+      <c r="AB414" s="5"/>
+      <c r="AC414" s="5"/>
+      <c r="AD414" s="5"/>
+      <c r="AE414" s="5"/>
+      <c r="AF414" s="5"/>
+      <c r="AG414" s="5"/>
+      <c r="AH414" s="5"/>
+      <c r="AI414" s="5"/>
+      <c r="AJ414" s="5"/>
+      <c r="AK414" s="5"/>
+      <c r="AL414" s="5"/>
+      <c r="AM414" s="5"/>
+      <c r="AN414" s="5"/>
+      <c r="AO414" s="5"/>
+      <c r="AP414" s="5"/>
+    </row>
+    <row r="415" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A415" s="5"/>
+      <c r="B415" s="5"/>
+      <c r="C415" s="5"/>
+      <c r="D415" s="5"/>
+      <c r="E415" s="5"/>
+      <c r="F415" s="5"/>
+      <c r="G415" s="5"/>
+      <c r="H415" s="5"/>
+      <c r="I415" s="5"/>
+      <c r="J415" s="5"/>
+      <c r="K415" s="5"/>
+      <c r="L415" s="5"/>
+      <c r="M415" s="5"/>
+      <c r="N415" s="5"/>
+      <c r="O415" s="5"/>
+      <c r="P415" s="5"/>
+      <c r="Q415" s="5"/>
+      <c r="R415" s="5"/>
+      <c r="S415" s="5"/>
+      <c r="T415" s="5"/>
+      <c r="U415" s="5"/>
+      <c r="V415" s="5"/>
+      <c r="W415" s="5"/>
+      <c r="X415" s="5"/>
+      <c r="Y415" s="5"/>
+      <c r="Z415" s="5"/>
+      <c r="AA415" s="5"/>
+      <c r="AB415" s="5"/>
+      <c r="AC415" s="5"/>
+      <c r="AD415" s="5"/>
+      <c r="AE415" s="5"/>
+      <c r="AF415" s="5"/>
+      <c r="AG415" s="5"/>
+      <c r="AH415" s="5"/>
+      <c r="AI415" s="5"/>
+      <c r="AJ415" s="5"/>
+      <c r="AK415" s="5"/>
+      <c r="AL415" s="5"/>
+      <c r="AM415" s="5"/>
+      <c r="AN415" s="5"/>
+      <c r="AO415" s="5"/>
+      <c r="AP415" s="5"/>
+    </row>
+    <row r="416" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A416" s="5"/>
+      <c r="B416" s="5"/>
+      <c r="C416" s="5"/>
+      <c r="D416" s="5"/>
+      <c r="E416" s="5"/>
+      <c r="F416" s="5"/>
+      <c r="G416" s="5"/>
+      <c r="H416" s="5"/>
+      <c r="I416" s="5"/>
+      <c r="J416" s="5"/>
+      <c r="K416" s="5"/>
+      <c r="L416" s="5"/>
+      <c r="M416" s="5"/>
+      <c r="N416" s="5"/>
+      <c r="O416" s="5"/>
+      <c r="P416" s="5"/>
+      <c r="Q416" s="5"/>
+      <c r="R416" s="5"/>
+      <c r="S416" s="5"/>
+      <c r="T416" s="5"/>
+      <c r="U416" s="5"/>
+      <c r="V416" s="5"/>
+      <c r="W416" s="5"/>
+      <c r="X416" s="5"/>
+      <c r="Y416" s="5"/>
+      <c r="Z416" s="5"/>
+      <c r="AA416" s="5"/>
+      <c r="AB416" s="5"/>
+      <c r="AC416" s="5"/>
+      <c r="AD416" s="5"/>
+      <c r="AE416" s="5"/>
+      <c r="AF416" s="5"/>
+      <c r="AG416" s="5"/>
+      <c r="AH416" s="5"/>
+      <c r="AI416" s="5"/>
+      <c r="AJ416" s="5"/>
+      <c r="AK416" s="5"/>
+      <c r="AL416" s="5"/>
+      <c r="AM416" s="5"/>
+      <c r="AN416" s="5"/>
+      <c r="AO416" s="5"/>
+      <c r="AP416" s="5"/>
+    </row>
+    <row r="417" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A417" s="5"/>
+      <c r="B417" s="5"/>
+      <c r="C417" s="5"/>
+      <c r="D417" s="5"/>
+      <c r="E417" s="5"/>
+      <c r="F417" s="5"/>
+      <c r="G417" s="5"/>
+      <c r="H417" s="5"/>
+      <c r="I417" s="5"/>
+      <c r="J417" s="5"/>
+      <c r="K417" s="5"/>
+      <c r="L417" s="5"/>
+      <c r="M417" s="5"/>
+      <c r="N417" s="5"/>
+      <c r="O417" s="5"/>
+      <c r="P417" s="5"/>
+      <c r="Q417" s="5"/>
+      <c r="R417" s="5"/>
+      <c r="S417" s="5"/>
+      <c r="T417" s="5"/>
+      <c r="U417" s="5"/>
+      <c r="V417" s="5"/>
+      <c r="W417" s="5"/>
+      <c r="X417" s="5"/>
+      <c r="Y417" s="5"/>
+      <c r="Z417" s="5"/>
+      <c r="AA417" s="5"/>
+      <c r="AB417" s="5"/>
+      <c r="AC417" s="5"/>
+      <c r="AD417" s="5"/>
+      <c r="AE417" s="5"/>
+      <c r="AF417" s="5"/>
+      <c r="AG417" s="5"/>
+      <c r="AH417" s="5"/>
+      <c r="AI417" s="5"/>
+      <c r="AJ417" s="5"/>
+      <c r="AK417" s="5"/>
+      <c r="AL417" s="5"/>
+      <c r="AM417" s="5"/>
+      <c r="AN417" s="5"/>
+      <c r="AO417" s="5"/>
+      <c r="AP417" s="5"/>
+    </row>
+    <row r="418" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A418" s="5"/>
+      <c r="B418" s="5"/>
+      <c r="C418" s="5"/>
+      <c r="D418" s="5"/>
+      <c r="E418" s="5"/>
+      <c r="F418" s="5"/>
+      <c r="G418" s="5"/>
+      <c r="H418" s="5"/>
+      <c r="I418" s="5"/>
+      <c r="J418" s="5"/>
+      <c r="K418" s="5"/>
+      <c r="L418" s="5"/>
+      <c r="M418" s="5"/>
+      <c r="N418" s="5"/>
+      <c r="O418" s="5"/>
+      <c r="P418" s="5"/>
+      <c r="Q418" s="5"/>
+      <c r="R418" s="5"/>
+      <c r="S418" s="5"/>
+      <c r="T418" s="5"/>
+      <c r="U418" s="5"/>
+      <c r="V418" s="5"/>
+      <c r="W418" s="5"/>
+      <c r="X418" s="5"/>
+      <c r="Y418" s="5"/>
+      <c r="Z418" s="5"/>
+      <c r="AA418" s="5"/>
+      <c r="AB418" s="5"/>
+      <c r="AC418" s="5"/>
+      <c r="AD418" s="5"/>
+      <c r="AE418" s="5"/>
+      <c r="AF418" s="5"/>
+      <c r="AG418" s="5"/>
+      <c r="AH418" s="5"/>
+      <c r="AI418" s="5"/>
+      <c r="AJ418" s="5"/>
+      <c r="AK418" s="5"/>
+      <c r="AL418" s="5"/>
+      <c r="AM418" s="5"/>
+      <c r="AN418" s="5"/>
+      <c r="AO418" s="5"/>
+      <c r="AP418" s="5"/>
+    </row>
+    <row r="419" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A419" s="5"/>
+      <c r="B419" s="5"/>
+      <c r="C419" s="5"/>
+      <c r="D419" s="5"/>
+      <c r="E419" s="5"/>
+      <c r="F419" s="5"/>
+      <c r="G419" s="5"/>
+      <c r="H419" s="5"/>
+      <c r="I419" s="5"/>
+      <c r="J419" s="5"/>
+      <c r="K419" s="5"/>
+      <c r="L419" s="5"/>
+      <c r="M419" s="5"/>
+      <c r="N419" s="5"/>
+      <c r="O419" s="5"/>
+      <c r="P419" s="5"/>
+      <c r="Q419" s="5"/>
+      <c r="R419" s="5"/>
+      <c r="S419" s="5"/>
+      <c r="T419" s="5"/>
+      <c r="U419" s="5"/>
+      <c r="V419" s="5"/>
+      <c r="W419" s="5"/>
+      <c r="X419" s="5"/>
+      <c r="Y419" s="5"/>
+      <c r="Z419" s="5"/>
+      <c r="AA419" s="5"/>
+      <c r="AB419" s="5"/>
+      <c r="AC419" s="5"/>
+      <c r="AD419" s="5"/>
+      <c r="AE419" s="5"/>
+      <c r="AF419" s="5"/>
+      <c r="AG419" s="5"/>
+      <c r="AH419" s="5"/>
+      <c r="AI419" s="5"/>
+      <c r="AJ419" s="5"/>
+      <c r="AK419" s="5"/>
+      <c r="AL419" s="5"/>
+      <c r="AM419" s="5"/>
+      <c r="AN419" s="5"/>
+      <c r="AO419" s="5"/>
+      <c r="AP419" s="5"/>
+    </row>
+    <row r="420" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A420" s="5"/>
+      <c r="B420" s="5"/>
+      <c r="C420" s="5"/>
+      <c r="D420" s="5"/>
+      <c r="E420" s="5"/>
+      <c r="F420" s="5"/>
+      <c r="G420" s="5"/>
+      <c r="H420" s="5"/>
+      <c r="I420" s="5"/>
+      <c r="J420" s="5"/>
+      <c r="K420" s="5"/>
+      <c r="L420" s="5"/>
+      <c r="M420" s="5"/>
+      <c r="N420" s="5"/>
+      <c r="O420" s="5"/>
+      <c r="P420" s="5"/>
+      <c r="Q420" s="5"/>
+      <c r="R420" s="5"/>
+      <c r="S420" s="5"/>
+      <c r="T420" s="5"/>
+      <c r="U420" s="5"/>
+      <c r="V420" s="5"/>
+      <c r="W420" s="5"/>
+      <c r="X420" s="5"/>
+      <c r="Y420" s="5"/>
+      <c r="Z420" s="5"/>
+      <c r="AA420" s="5"/>
+      <c r="AB420" s="5"/>
+      <c r="AC420" s="5"/>
+      <c r="AD420" s="5"/>
+      <c r="AE420" s="5"/>
+      <c r="AF420" s="5"/>
+      <c r="AG420" s="5"/>
+      <c r="AH420" s="5"/>
+      <c r="AI420" s="5"/>
+      <c r="AJ420" s="5"/>
+      <c r="AK420" s="5"/>
+      <c r="AL420" s="5"/>
+      <c r="AM420" s="5"/>
+      <c r="AN420" s="5"/>
+      <c r="AO420" s="5"/>
+      <c r="AP420" s="5"/>
+    </row>
+    <row r="421" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A421" s="5"/>
+      <c r="B421" s="5"/>
+      <c r="C421" s="5"/>
+      <c r="D421" s="5"/>
+      <c r="E421" s="5"/>
+      <c r="F421" s="5"/>
+      <c r="G421" s="5"/>
+      <c r="H421" s="5"/>
+      <c r="I421" s="5"/>
+      <c r="J421" s="5"/>
+      <c r="K421" s="5"/>
+      <c r="L421" s="5"/>
+      <c r="M421" s="5"/>
+      <c r="N421" s="5"/>
+      <c r="O421" s="5"/>
+      <c r="P421" s="5"/>
+      <c r="Q421" s="5"/>
+      <c r="R421" s="5"/>
+      <c r="S421" s="5"/>
+      <c r="T421" s="5"/>
+      <c r="U421" s="5"/>
+      <c r="V421" s="5"/>
+      <c r="W421" s="5"/>
+      <c r="X421" s="5"/>
+      <c r="Y421" s="5"/>
+      <c r="Z421" s="5"/>
+      <c r="AA421" s="5"/>
+      <c r="AB421" s="5"/>
+      <c r="AC421" s="5"/>
+      <c r="AD421" s="5"/>
+      <c r="AE421" s="5"/>
+      <c r="AF421" s="5"/>
+      <c r="AG421" s="5"/>
+      <c r="AH421" s="5"/>
+      <c r="AI421" s="5"/>
+      <c r="AJ421" s="5"/>
+      <c r="AK421" s="5"/>
+      <c r="AL421" s="5"/>
+      <c r="AM421" s="5"/>
+      <c r="AN421" s="5"/>
+      <c r="AO421" s="5"/>
+      <c r="AP421" s="5"/>
+    </row>
+    <row r="422" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A422" s="5"/>
+      <c r="B422" s="5"/>
+      <c r="C422" s="5"/>
+      <c r="D422" s="5"/>
+      <c r="E422" s="5"/>
+      <c r="F422" s="5"/>
+      <c r="G422" s="5"/>
+      <c r="H422" s="5"/>
+      <c r="I422" s="5"/>
+      <c r="J422" s="5"/>
+      <c r="K422" s="5"/>
+      <c r="L422" s="5"/>
+      <c r="M422" s="5"/>
+      <c r="N422" s="5"/>
+      <c r="O422" s="5"/>
+      <c r="P422" s="5"/>
+      <c r="Q422" s="5"/>
+      <c r="R422" s="5"/>
+      <c r="S422" s="5"/>
+      <c r="T422" s="5"/>
+      <c r="U422" s="5"/>
+      <c r="V422" s="5"/>
+      <c r="W422" s="5"/>
+      <c r="X422" s="5"/>
+      <c r="Y422" s="5"/>
+      <c r="Z422" s="5"/>
+      <c r="AA422" s="5"/>
+      <c r="AB422" s="5"/>
+      <c r="AC422" s="5"/>
+      <c r="AD422" s="5"/>
+      <c r="AE422" s="5"/>
+      <c r="AF422" s="5"/>
+      <c r="AG422" s="5"/>
+      <c r="AH422" s="5"/>
+      <c r="AI422" s="5"/>
+      <c r="AJ422" s="5"/>
+      <c r="AK422" s="5"/>
+      <c r="AL422" s="5"/>
+      <c r="AM422" s="5"/>
+      <c r="AN422" s="5"/>
+      <c r="AO422" s="5"/>
+      <c r="AP422" s="5"/>
+    </row>
+    <row r="423" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A423" s="5"/>
+      <c r="B423" s="5"/>
+      <c r="C423" s="5"/>
+      <c r="D423" s="5"/>
+      <c r="E423" s="5"/>
+      <c r="F423" s="5"/>
+      <c r="G423" s="5"/>
+      <c r="H423" s="5"/>
+      <c r="I423" s="5"/>
+      <c r="J423" s="5"/>
+      <c r="K423" s="5"/>
+      <c r="L423" s="5"/>
+      <c r="M423" s="5"/>
+      <c r="N423" s="5"/>
+      <c r="O423" s="5"/>
+      <c r="P423" s="5"/>
+      <c r="Q423" s="5"/>
+      <c r="R423" s="5"/>
+      <c r="S423" s="5"/>
+      <c r="T423" s="5"/>
+      <c r="U423" s="5"/>
+      <c r="V423" s="5"/>
+      <c r="W423" s="5"/>
+      <c r="X423" s="5"/>
+      <c r="Y423" s="5"/>
+      <c r="Z423" s="5"/>
+      <c r="AA423" s="5"/>
+      <c r="AB423" s="5"/>
+      <c r="AC423" s="5"/>
+      <c r="AD423" s="5"/>
+      <c r="AE423" s="5"/>
+      <c r="AF423" s="5"/>
+      <c r="AG423" s="5"/>
+      <c r="AH423" s="5"/>
+      <c r="AI423" s="5"/>
+      <c r="AJ423" s="5"/>
+      <c r="AK423" s="5"/>
+      <c r="AL423" s="5"/>
+      <c r="AM423" s="5"/>
+      <c r="AN423" s="5"/>
+      <c r="AO423" s="5"/>
+      <c r="AP423" s="5"/>
+    </row>
+    <row r="424" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A424" s="5"/>
+      <c r="B424" s="5"/>
+      <c r="C424" s="5"/>
+      <c r="D424" s="5"/>
+      <c r="E424" s="5"/>
+      <c r="F424" s="5"/>
+      <c r="G424" s="5"/>
+      <c r="H424" s="5"/>
+      <c r="I424" s="5"/>
+      <c r="J424" s="5"/>
+      <c r="K424" s="5"/>
+      <c r="L424" s="5"/>
+      <c r="M424" s="5"/>
+      <c r="N424" s="5"/>
+      <c r="O424" s="5"/>
+      <c r="P424" s="5"/>
+      <c r="Q424" s="5"/>
+      <c r="R424" s="5"/>
+      <c r="S424" s="5"/>
+      <c r="T424" s="5"/>
+      <c r="U424" s="5"/>
+      <c r="V424" s="5"/>
+      <c r="W424" s="5"/>
+      <c r="X424" s="5"/>
+      <c r="Y424" s="5"/>
+      <c r="Z424" s="5"/>
+      <c r="AA424" s="5"/>
+      <c r="AB424" s="5"/>
+      <c r="AC424" s="5"/>
+      <c r="AD424" s="5"/>
+      <c r="AE424" s="5"/>
+      <c r="AF424" s="5"/>
+      <c r="AG424" s="5"/>
+      <c r="AH424" s="5"/>
+      <c r="AI424" s="5"/>
+      <c r="AJ424" s="5"/>
+      <c r="AK424" s="5"/>
+      <c r="AL424" s="5"/>
+      <c r="AM424" s="5"/>
+      <c r="AN424" s="5"/>
+      <c r="AO424" s="5"/>
+      <c r="AP424" s="5"/>
+    </row>
+    <row r="425" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A425" s="5"/>
+      <c r="B425" s="5"/>
+      <c r="C425" s="5"/>
+      <c r="D425" s="5"/>
+      <c r="E425" s="5"/>
+      <c r="F425" s="5"/>
+      <c r="G425" s="5"/>
+      <c r="H425" s="5"/>
+      <c r="I425" s="5"/>
+      <c r="J425" s="5"/>
+      <c r="K425" s="5"/>
+      <c r="L425" s="5"/>
+      <c r="M425" s="5"/>
+      <c r="N425" s="5"/>
+      <c r="O425" s="5"/>
+      <c r="P425" s="5"/>
+      <c r="Q425" s="5"/>
+      <c r="R425" s="5"/>
+      <c r="S425" s="5"/>
+      <c r="T425" s="5"/>
+      <c r="U425" s="5"/>
+      <c r="V425" s="5"/>
+      <c r="W425" s="5"/>
+      <c r="X425" s="5"/>
+      <c r="Y425" s="5"/>
+      <c r="Z425" s="5"/>
+      <c r="AA425" s="5"/>
+      <c r="AB425" s="5"/>
+      <c r="AC425" s="5"/>
+      <c r="AD425" s="5"/>
+      <c r="AE425" s="5"/>
+      <c r="AF425" s="5"/>
+      <c r="AG425" s="5"/>
+      <c r="AH425" s="5"/>
+      <c r="AI425" s="5"/>
+      <c r="AJ425" s="5"/>
+      <c r="AK425" s="5"/>
+      <c r="AL425" s="5"/>
+      <c r="AM425" s="5"/>
+      <c r="AN425" s="5"/>
+      <c r="AO425" s="5"/>
+      <c r="AP425" s="5"/>
+    </row>
+    <row r="426" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A426" s="5"/>
+      <c r="B426" s="5"/>
+      <c r="C426" s="5"/>
+      <c r="D426" s="5"/>
+      <c r="E426" s="5"/>
+      <c r="F426" s="5"/>
+      <c r="G426" s="5"/>
+      <c r="H426" s="5"/>
+      <c r="I426" s="5"/>
+      <c r="J426" s="5"/>
+      <c r="K426" s="5"/>
+      <c r="L426" s="5"/>
+      <c r="M426" s="5"/>
+      <c r="N426" s="5"/>
+      <c r="O426" s="5"/>
+      <c r="P426" s="5"/>
+      <c r="Q426" s="5"/>
+      <c r="R426" s="5"/>
+      <c r="S426" s="5"/>
+      <c r="T426" s="5"/>
+      <c r="U426" s="5"/>
+      <c r="V426" s="5"/>
+      <c r="W426" s="5"/>
+      <c r="X426" s="5"/>
+      <c r="Y426" s="5"/>
+      <c r="Z426" s="5"/>
+      <c r="AA426" s="5"/>
+      <c r="AB426" s="5"/>
+      <c r="AC426" s="5"/>
+      <c r="AD426" s="5"/>
+      <c r="AE426" s="5"/>
+      <c r="AF426" s="5"/>
+      <c r="AG426" s="5"/>
+      <c r="AH426" s="5"/>
+      <c r="AI426" s="5"/>
+      <c r="AJ426" s="5"/>
+      <c r="AK426" s="5"/>
+      <c r="AL426" s="5"/>
+      <c r="AM426" s="5"/>
+      <c r="AN426" s="5"/>
+      <c r="AO426" s="5"/>
+      <c r="AP426" s="5"/>
+    </row>
+    <row r="427" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A427" s="5"/>
+      <c r="B427" s="5"/>
+      <c r="C427" s="5"/>
+      <c r="D427" s="5"/>
+      <c r="E427" s="5"/>
+      <c r="F427" s="5"/>
+      <c r="G427" s="5"/>
+      <c r="H427" s="5"/>
+      <c r="I427" s="5"/>
+      <c r="J427" s="5"/>
+      <c r="K427" s="5"/>
+      <c r="L427" s="5"/>
+      <c r="M427" s="5"/>
+      <c r="N427" s="5"/>
+      <c r="O427" s="5"/>
+      <c r="P427" s="5"/>
+      <c r="Q427" s="5"/>
+      <c r="R427" s="5"/>
+      <c r="S427" s="5"/>
+      <c r="T427" s="5"/>
+      <c r="U427" s="5"/>
+      <c r="V427" s="5"/>
+      <c r="W427" s="5"/>
+      <c r="X427" s="5"/>
+      <c r="Y427" s="5"/>
+      <c r="Z427" s="5"/>
+      <c r="AA427" s="5"/>
+      <c r="AB427" s="5"/>
+      <c r="AC427" s="5"/>
+      <c r="AD427" s="5"/>
+      <c r="AE427" s="5"/>
+      <c r="AF427" s="5"/>
+      <c r="AG427" s="5"/>
+      <c r="AH427" s="5"/>
+      <c r="AI427" s="5"/>
+      <c r="AJ427" s="5"/>
+      <c r="AK427" s="5"/>
+      <c r="AL427" s="5"/>
+      <c r="AM427" s="5"/>
+      <c r="AN427" s="5"/>
+      <c r="AO427" s="5"/>
+      <c r="AP427" s="5"/>
+    </row>
+    <row r="428" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A428" s="5"/>
+      <c r="B428" s="5"/>
+      <c r="C428" s="5"/>
+      <c r="D428" s="5"/>
+      <c r="E428" s="5"/>
+      <c r="F428" s="5"/>
+      <c r="G428" s="5"/>
+      <c r="H428" s="5"/>
+      <c r="I428" s="5"/>
+      <c r="J428" s="5"/>
+      <c r="K428" s="5"/>
+      <c r="L428" s="5"/>
+      <c r="M428" s="5"/>
+      <c r="N428" s="5"/>
+      <c r="O428" s="5"/>
+      <c r="P428" s="5"/>
+      <c r="Q428" s="5"/>
+      <c r="R428" s="5"/>
+      <c r="S428" s="5"/>
+      <c r="T428" s="5"/>
+      <c r="U428" s="5"/>
+      <c r="V428" s="5"/>
+      <c r="W428" s="5"/>
+      <c r="X428" s="5"/>
+      <c r="Y428" s="5"/>
+      <c r="Z428" s="5"/>
+      <c r="AA428" s="5"/>
+      <c r="AB428" s="5"/>
+      <c r="AC428" s="5"/>
+      <c r="AD428" s="5"/>
+      <c r="AE428" s="5"/>
+      <c r="AF428" s="5"/>
+      <c r="AG428" s="5"/>
+      <c r="AH428" s="5"/>
+      <c r="AI428" s="5"/>
+      <c r="AJ428" s="5"/>
+      <c r="AK428" s="5"/>
+      <c r="AL428" s="5"/>
+      <c r="AM428" s="5"/>
+      <c r="AN428" s="5"/>
+      <c r="AO428" s="5"/>
+      <c r="AP428" s="5"/>
+    </row>
+    <row r="429" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A429" s="5"/>
+      <c r="B429" s="5"/>
+      <c r="C429" s="5"/>
+      <c r="D429" s="5"/>
+      <c r="E429" s="5"/>
+      <c r="F429" s="5"/>
+      <c r="G429" s="5"/>
+      <c r="H429" s="5"/>
+      <c r="I429" s="5"/>
+      <c r="J429" s="5"/>
+      <c r="K429" s="5"/>
+      <c r="L429" s="5"/>
+      <c r="M429" s="5"/>
+      <c r="N429" s="5"/>
+      <c r="O429" s="5"/>
+      <c r="P429" s="5"/>
+      <c r="Q429" s="5"/>
+      <c r="R429" s="5"/>
+      <c r="S429" s="5"/>
+      <c r="T429" s="5"/>
+      <c r="U429" s="5"/>
+      <c r="V429" s="5"/>
+      <c r="W429" s="5"/>
+      <c r="X429" s="5"/>
+      <c r="Y429" s="5"/>
+      <c r="Z429" s="5"/>
+      <c r="AA429" s="5"/>
+      <c r="AB429" s="5"/>
+      <c r="AC429" s="5"/>
+      <c r="AD429" s="5"/>
+      <c r="AE429" s="5"/>
+      <c r="AF429" s="5"/>
+      <c r="AG429" s="5"/>
+      <c r="AH429" s="5"/>
+      <c r="AI429" s="5"/>
+      <c r="AJ429" s="5"/>
+      <c r="AK429" s="5"/>
+      <c r="AL429" s="5"/>
+      <c r="AM429" s="5"/>
+      <c r="AN429" s="5"/>
+      <c r="AO429" s="5"/>
+      <c r="AP429" s="5"/>
+    </row>
+    <row r="430" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A430" s="5"/>
+      <c r="B430" s="5"/>
+      <c r="C430" s="5"/>
+      <c r="D430" s="5"/>
+      <c r="E430" s="5"/>
+      <c r="F430" s="5"/>
+      <c r="G430" s="5"/>
+      <c r="H430" s="5"/>
+      <c r="I430" s="5"/>
+      <c r="J430" s="5"/>
+      <c r="K430" s="5"/>
+      <c r="L430" s="5"/>
+      <c r="M430" s="5"/>
+      <c r="N430" s="5"/>
+      <c r="O430" s="5"/>
+      <c r="P430" s="5"/>
+      <c r="Q430" s="5"/>
+      <c r="R430" s="5"/>
+      <c r="S430" s="5"/>
+      <c r="T430" s="5"/>
+      <c r="U430" s="5"/>
+      <c r="V430" s="5"/>
+      <c r="W430" s="5"/>
+      <c r="X430" s="5"/>
+      <c r="Y430" s="5"/>
+      <c r="Z430" s="5"/>
+      <c r="AA430" s="5"/>
+      <c r="AB430" s="5"/>
+      <c r="AC430" s="5"/>
+      <c r="AD430" s="5"/>
+      <c r="AE430" s="5"/>
+      <c r="AF430" s="5"/>
+      <c r="AG430" s="5"/>
+      <c r="AH430" s="5"/>
+      <c r="AI430" s="5"/>
+      <c r="AJ430" s="5"/>
+      <c r="AK430" s="5"/>
+      <c r="AL430" s="5"/>
+      <c r="AM430" s="5"/>
+      <c r="AN430" s="5"/>
+      <c r="AO430" s="5"/>
+      <c r="AP430" s="5"/>
+    </row>
+    <row r="431" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A431" s="5"/>
+      <c r="B431" s="5"/>
+      <c r="C431" s="5"/>
+      <c r="D431" s="5"/>
+      <c r="E431" s="5"/>
+      <c r="F431" s="5"/>
+      <c r="G431" s="5"/>
+      <c r="H431" s="5"/>
+      <c r="I431" s="5"/>
+      <c r="J431" s="5"/>
+      <c r="K431" s="5"/>
+      <c r="L431" s="5"/>
+      <c r="M431" s="5"/>
+      <c r="N431" s="5"/>
+      <c r="O431" s="5"/>
+      <c r="P431" s="5"/>
+      <c r="Q431" s="5"/>
+      <c r="R431" s="5"/>
+      <c r="S431" s="5"/>
+      <c r="T431" s="5"/>
+      <c r="U431" s="5"/>
+      <c r="V431" s="5"/>
+      <c r="W431" s="5"/>
+      <c r="X431" s="5"/>
+      <c r="Y431" s="5"/>
+      <c r="Z431" s="5"/>
+      <c r="AA431" s="5"/>
+      <c r="AB431" s="5"/>
+      <c r="AC431" s="5"/>
+      <c r="AD431" s="5"/>
+      <c r="AE431" s="5"/>
+      <c r="AF431" s="5"/>
+      <c r="AG431" s="5"/>
+      <c r="AH431" s="5"/>
+      <c r="AI431" s="5"/>
+      <c r="AJ431" s="5"/>
+      <c r="AK431" s="5"/>
+      <c r="AL431" s="5"/>
+      <c r="AM431" s="5"/>
+      <c r="AN431" s="5"/>
+      <c r="AO431" s="5"/>
+      <c r="AP431" s="5"/>
+    </row>
+    <row r="432" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A432" s="5"/>
+      <c r="B432" s="5"/>
+      <c r="C432" s="5"/>
+      <c r="D432" s="5"/>
+      <c r="E432" s="5"/>
+      <c r="F432" s="5"/>
+      <c r="G432" s="5"/>
+      <c r="H432" s="5"/>
+      <c r="I432" s="5"/>
+      <c r="J432" s="5"/>
+      <c r="K432" s="5"/>
+      <c r="L432" s="5"/>
+      <c r="M432" s="5"/>
+      <c r="N432" s="5"/>
+      <c r="O432" s="5"/>
+      <c r="P432" s="5"/>
+      <c r="Q432" s="5"/>
+      <c r="R432" s="5"/>
+      <c r="S432" s="5"/>
+      <c r="T432" s="5"/>
+      <c r="U432" s="5"/>
+      <c r="V432" s="5"/>
+      <c r="W432" s="5"/>
+      <c r="X432" s="5"/>
+      <c r="Y432" s="5"/>
+      <c r="Z432" s="5"/>
+      <c r="AA432" s="5"/>
+      <c r="AB432" s="5"/>
+      <c r="AC432" s="5"/>
+      <c r="AD432" s="5"/>
+      <c r="AE432" s="5"/>
+      <c r="AF432" s="5"/>
+      <c r="AG432" s="5"/>
+      <c r="AH432" s="5"/>
+      <c r="AI432" s="5"/>
+      <c r="AJ432" s="5"/>
+      <c r="AK432" s="5"/>
+      <c r="AL432" s="5"/>
+      <c r="AM432" s="5"/>
+      <c r="AN432" s="5"/>
+      <c r="AO432" s="5"/>
+      <c r="AP432" s="5"/>
+    </row>
+    <row r="433" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A433" s="5"/>
+      <c r="B433" s="5"/>
+      <c r="C433" s="5"/>
+      <c r="D433" s="5"/>
+      <c r="E433" s="5"/>
+      <c r="F433" s="5"/>
+      <c r="G433" s="5"/>
+      <c r="H433" s="5"/>
+      <c r="I433" s="5"/>
+      <c r="J433" s="5"/>
+      <c r="K433" s="5"/>
+      <c r="L433" s="5"/>
+      <c r="M433" s="5"/>
+      <c r="N433" s="5"/>
+      <c r="O433" s="5"/>
+      <c r="P433" s="5"/>
+      <c r="Q433" s="5"/>
+      <c r="R433" s="5"/>
+      <c r="S433" s="5"/>
+      <c r="T433" s="5"/>
+      <c r="U433" s="5"/>
+      <c r="V433" s="5"/>
+      <c r="W433" s="5"/>
+      <c r="X433" s="5"/>
+      <c r="Y433" s="5"/>
+      <c r="Z433" s="5"/>
+      <c r="AA433" s="5"/>
+      <c r="AB433" s="5"/>
+      <c r="AC433" s="5"/>
+      <c r="AD433" s="5"/>
+      <c r="AE433" s="5"/>
+      <c r="AF433" s="5"/>
+      <c r="AG433" s="5"/>
+      <c r="AH433" s="5"/>
+      <c r="AI433" s="5"/>
+      <c r="AJ433" s="5"/>
+      <c r="AK433" s="5"/>
+      <c r="AL433" s="5"/>
+      <c r="AM433" s="5"/>
+      <c r="AN433" s="5"/>
+      <c r="AO433" s="5"/>
+      <c r="AP433" s="5"/>
+    </row>
+    <row r="434" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A434" s="5"/>
+      <c r="B434" s="5"/>
+      <c r="C434" s="5"/>
+      <c r="D434" s="5"/>
+      <c r="E434" s="5"/>
+      <c r="F434" s="5"/>
+      <c r="G434" s="5"/>
+      <c r="H434" s="5"/>
+      <c r="I434" s="5"/>
+      <c r="J434" s="5"/>
+      <c r="K434" s="5"/>
+      <c r="L434" s="5"/>
+      <c r="M434" s="5"/>
+      <c r="N434" s="5"/>
+      <c r="O434" s="5"/>
+      <c r="P434" s="5"/>
+      <c r="Q434" s="5"/>
+      <c r="R434" s="5"/>
+      <c r="S434" s="5"/>
+      <c r="T434" s="5"/>
+      <c r="U434" s="5"/>
+      <c r="V434" s="5"/>
+      <c r="W434" s="5"/>
+      <c r="X434" s="5"/>
+      <c r="Y434" s="5"/>
+      <c r="Z434" s="5"/>
+      <c r="AA434" s="5"/>
+      <c r="AB434" s="5"/>
+      <c r="AC434" s="5"/>
+      <c r="AD434" s="5"/>
+      <c r="AE434" s="5"/>
+      <c r="AF434" s="5"/>
+      <c r="AG434" s="5"/>
+      <c r="AH434" s="5"/>
+      <c r="AI434" s="5"/>
+      <c r="AJ434" s="5"/>
+      <c r="AK434" s="5"/>
+      <c r="AL434" s="5"/>
+      <c r="AM434" s="5"/>
+      <c r="AN434" s="5"/>
+      <c r="AO434" s="5"/>
+      <c r="AP434" s="5"/>
+    </row>
+    <row r="435" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A435" s="5"/>
+      <c r="B435" s="5"/>
+      <c r="C435" s="5"/>
+      <c r="D435" s="5"/>
+      <c r="E435" s="5"/>
+      <c r="F435" s="5"/>
+      <c r="G435" s="5"/>
+      <c r="H435" s="5"/>
+      <c r="I435" s="5"/>
+      <c r="J435" s="5"/>
+      <c r="K435" s="5"/>
+      <c r="L435" s="5"/>
+      <c r="M435" s="5"/>
+      <c r="N435" s="5"/>
+      <c r="O435" s="5"/>
+      <c r="P435" s="5"/>
+      <c r="Q435" s="5"/>
+      <c r="R435" s="5"/>
+      <c r="S435" s="5"/>
+      <c r="T435" s="5"/>
+      <c r="U435" s="5"/>
+      <c r="V435" s="5"/>
+      <c r="W435" s="5"/>
+      <c r="X435" s="5"/>
+      <c r="Y435" s="5"/>
+      <c r="Z435" s="5"/>
+      <c r="AA435" s="5"/>
+      <c r="AB435" s="5"/>
+      <c r="AC435" s="5"/>
+      <c r="AD435" s="5"/>
+      <c r="AE435" s="5"/>
+      <c r="AF435" s="5"/>
+      <c r="AG435" s="5"/>
+      <c r="AH435" s="5"/>
+      <c r="AI435" s="5"/>
+      <c r="AJ435" s="5"/>
+      <c r="AK435" s="5"/>
+      <c r="AL435" s="5"/>
+      <c r="AM435" s="5"/>
+      <c r="AN435" s="5"/>
+      <c r="AO435" s="5"/>
+      <c r="AP435" s="5"/>
+    </row>
+    <row r="436" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A436" s="5"/>
+      <c r="B436" s="5"/>
+      <c r="C436" s="5"/>
+      <c r="D436" s="5"/>
+      <c r="E436" s="5"/>
+      <c r="F436" s="5"/>
+      <c r="G436" s="5"/>
+      <c r="H436" s="5"/>
+      <c r="I436" s="5"/>
+      <c r="J436" s="5"/>
+      <c r="K436" s="5"/>
+      <c r="L436" s="5"/>
+      <c r="M436" s="5"/>
+      <c r="N436" s="5"/>
+      <c r="O436" s="5"/>
+      <c r="P436" s="5"/>
+      <c r="Q436" s="5"/>
+      <c r="R436" s="5"/>
+      <c r="S436" s="5"/>
+      <c r="T436" s="5"/>
+      <c r="U436" s="5"/>
+      <c r="V436" s="5"/>
+      <c r="W436" s="5"/>
+      <c r="X436" s="5"/>
+      <c r="Y436" s="5"/>
+      <c r="Z436" s="5"/>
+      <c r="AA436" s="5"/>
+      <c r="AB436" s="5"/>
+      <c r="AC436" s="5"/>
+      <c r="AD436" s="5"/>
+      <c r="AE436" s="5"/>
+      <c r="AF436" s="5"/>
+      <c r="AG436" s="5"/>
+      <c r="AH436" s="5"/>
+      <c r="AI436" s="5"/>
+      <c r="AJ436" s="5"/>
+      <c r="AK436" s="5"/>
+      <c r="AL436" s="5"/>
+      <c r="AM436" s="5"/>
+      <c r="AN436" s="5"/>
+      <c r="AO436" s="5"/>
+      <c r="AP436" s="5"/>
+    </row>
+    <row r="437" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A437" s="5"/>
+      <c r="B437" s="5"/>
+      <c r="C437" s="5"/>
+      <c r="D437" s="5"/>
+      <c r="E437" s="5"/>
+      <c r="F437" s="5"/>
+      <c r="G437" s="5"/>
+      <c r="H437" s="5"/>
+      <c r="I437" s="5"/>
+      <c r="J437" s="5"/>
+      <c r="K437" s="5"/>
+      <c r="L437" s="5"/>
+      <c r="M437" s="5"/>
+      <c r="N437" s="5"/>
+      <c r="O437" s="5"/>
+      <c r="P437" s="5"/>
+      <c r="Q437" s="5"/>
+      <c r="R437" s="5"/>
+      <c r="S437" s="5"/>
+      <c r="T437" s="5"/>
+      <c r="U437" s="5"/>
+      <c r="V437" s="5"/>
+      <c r="W437" s="5"/>
+      <c r="X437" s="5"/>
+      <c r="Y437" s="5"/>
+      <c r="Z437" s="5"/>
+      <c r="AA437" s="5"/>
+      <c r="AB437" s="5"/>
+      <c r="AC437" s="5"/>
+      <c r="AD437" s="5"/>
+      <c r="AE437" s="5"/>
+      <c r="AF437" s="5"/>
+      <c r="AG437" s="5"/>
+      <c r="AH437" s="5"/>
+      <c r="AI437" s="5"/>
+      <c r="AJ437" s="5"/>
+      <c r="AK437" s="5"/>
+      <c r="AL437" s="5"/>
+      <c r="AM437" s="5"/>
+      <c r="AN437" s="5"/>
+      <c r="AO437" s="5"/>
+      <c r="AP437" s="5"/>
+    </row>
+    <row r="438" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A438" s="5"/>
+      <c r="B438" s="5"/>
+      <c r="C438" s="5"/>
+      <c r="D438" s="5"/>
+      <c r="E438" s="5"/>
+      <c r="F438" s="5"/>
+      <c r="G438" s="5"/>
+      <c r="H438" s="5"/>
+      <c r="I438" s="5"/>
+      <c r="J438" s="5"/>
+      <c r="K438" s="5"/>
+      <c r="L438" s="5"/>
+      <c r="M438" s="5"/>
+      <c r="N438" s="5"/>
+      <c r="O438" s="5"/>
+      <c r="P438" s="5"/>
+      <c r="Q438" s="5"/>
+      <c r="R438" s="5"/>
+      <c r="S438" s="5"/>
+      <c r="T438" s="5"/>
+      <c r="U438" s="5"/>
+      <c r="V438" s="5"/>
+      <c r="W438" s="5"/>
+      <c r="X438" s="5"/>
+      <c r="Y438" s="5"/>
+      <c r="Z438" s="5"/>
+      <c r="AA438" s="5"/>
+      <c r="AB438" s="5"/>
+      <c r="AC438" s="5"/>
+      <c r="AD438" s="5"/>
+      <c r="AE438" s="5"/>
+      <c r="AF438" s="5"/>
+      <c r="AG438" s="5"/>
+      <c r="AH438" s="5"/>
+      <c r="AI438" s="5"/>
+      <c r="AJ438" s="5"/>
+      <c r="AK438" s="5"/>
+      <c r="AL438" s="5"/>
+      <c r="AM438" s="5"/>
+      <c r="AN438" s="5"/>
+      <c r="AO438" s="5"/>
+      <c r="AP438" s="5"/>
+    </row>
+    <row r="439" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A439" s="5"/>
+      <c r="B439" s="5"/>
+      <c r="C439" s="5"/>
+      <c r="D439" s="5"/>
+      <c r="E439" s="5"/>
+      <c r="F439" s="5"/>
+      <c r="G439" s="5"/>
+      <c r="H439" s="5"/>
+      <c r="I439" s="5"/>
+      <c r="J439" s="5"/>
+      <c r="K439" s="5"/>
+      <c r="L439" s="5"/>
+      <c r="M439" s="5"/>
+      <c r="N439" s="5"/>
+      <c r="O439" s="5"/>
+      <c r="P439" s="5"/>
+      <c r="Q439" s="5"/>
+      <c r="R439" s="5"/>
+      <c r="S439" s="5"/>
+      <c r="T439" s="5"/>
+      <c r="U439" s="5"/>
+      <c r="V439" s="5"/>
+      <c r="W439" s="5"/>
+      <c r="X439" s="5"/>
+      <c r="Y439" s="5"/>
+      <c r="Z439" s="5"/>
+      <c r="AA439" s="5"/>
+      <c r="AB439" s="5"/>
+      <c r="AC439" s="5"/>
+      <c r="AD439" s="5"/>
+      <c r="AE439" s="5"/>
+      <c r="AF439" s="5"/>
+      <c r="AG439" s="5"/>
+      <c r="AH439" s="5"/>
+      <c r="AI439" s="5"/>
+      <c r="AJ439" s="5"/>
+      <c r="AK439" s="5"/>
+      <c r="AL439" s="5"/>
+      <c r="AM439" s="5"/>
+      <c r="AN439" s="5"/>
+      <c r="AO439" s="5"/>
+      <c r="AP439" s="5"/>
+    </row>
+    <row r="440" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A440" s="5"/>
+      <c r="B440" s="5"/>
+      <c r="C440" s="5"/>
+      <c r="D440" s="5"/>
+      <c r="E440" s="5"/>
+      <c r="F440" s="5"/>
+      <c r="G440" s="5"/>
+      <c r="H440" s="5"/>
+      <c r="I440" s="5"/>
+      <c r="J440" s="5"/>
+      <c r="K440" s="5"/>
+      <c r="L440" s="5"/>
+      <c r="M440" s="5"/>
+      <c r="N440" s="5"/>
+      <c r="O440" s="5"/>
+      <c r="P440" s="5"/>
+      <c r="Q440" s="5"/>
+      <c r="R440" s="5"/>
+      <c r="S440" s="5"/>
+      <c r="T440" s="5"/>
+      <c r="U440" s="5"/>
+      <c r="V440" s="5"/>
+      <c r="W440" s="5"/>
+      <c r="X440" s="5"/>
+      <c r="Y440" s="5"/>
+      <c r="Z440" s="5"/>
+      <c r="AA440" s="5"/>
+      <c r="AB440" s="5"/>
+      <c r="AC440" s="5"/>
+      <c r="AD440" s="5"/>
+      <c r="AE440" s="5"/>
+      <c r="AF440" s="5"/>
+      <c r="AG440" s="5"/>
+      <c r="AH440" s="5"/>
+      <c r="AI440" s="5"/>
+      <c r="AJ440" s="5"/>
+      <c r="AK440" s="5"/>
+      <c r="AL440" s="5"/>
+      <c r="AM440" s="5"/>
+      <c r="AN440" s="5"/>
+      <c r="AO440" s="5"/>
+      <c r="AP440" s="5"/>
+    </row>
+    <row r="441" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A441" s="5"/>
+      <c r="B441" s="5"/>
+      <c r="C441" s="5"/>
+      <c r="D441" s="5"/>
+      <c r="E441" s="5"/>
+      <c r="F441" s="5"/>
+      <c r="G441" s="5"/>
+      <c r="H441" s="5"/>
+      <c r="I441" s="5"/>
+      <c r="J441" s="5"/>
+      <c r="K441" s="5"/>
+      <c r="L441" s="5"/>
+      <c r="M441" s="5"/>
+      <c r="N441" s="5"/>
+      <c r="O441" s="5"/>
+      <c r="P441" s="5"/>
+      <c r="Q441" s="5"/>
+      <c r="R441" s="5"/>
+      <c r="S441" s="5"/>
+      <c r="T441" s="5"/>
+      <c r="U441" s="5"/>
+      <c r="V441" s="5"/>
+      <c r="W441" s="5"/>
+      <c r="X441" s="5"/>
+      <c r="Y441" s="5"/>
+      <c r="Z441" s="5"/>
+      <c r="AA441" s="5"/>
+      <c r="AB441" s="5"/>
+      <c r="AC441" s="5"/>
+      <c r="AD441" s="5"/>
+      <c r="AE441" s="5"/>
+      <c r="AF441" s="5"/>
+      <c r="AG441" s="5"/>
+      <c r="AH441" s="5"/>
+      <c r="AI441" s="5"/>
+      <c r="AJ441" s="5"/>
+      <c r="AK441" s="5"/>
+      <c r="AL441" s="5"/>
+      <c r="AM441" s="5"/>
+      <c r="AN441" s="5"/>
+      <c r="AO441" s="5"/>
+      <c r="AP441" s="5"/>
+    </row>
+    <row r="442" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A442" s="5"/>
+      <c r="B442" s="5"/>
+      <c r="C442" s="5"/>
+      <c r="D442" s="5"/>
+      <c r="E442" s="5"/>
+      <c r="F442" s="5"/>
+      <c r="G442" s="5"/>
+      <c r="H442" s="5"/>
+      <c r="I442" s="5"/>
+      <c r="J442" s="5"/>
+      <c r="K442" s="5"/>
+      <c r="L442" s="5"/>
+      <c r="M442" s="5"/>
+      <c r="N442" s="5"/>
+      <c r="O442" s="5"/>
+      <c r="P442" s="5"/>
+      <c r="Q442" s="5"/>
+      <c r="R442" s="5"/>
+      <c r="S442" s="5"/>
+      <c r="T442" s="5"/>
+      <c r="U442" s="5"/>
+      <c r="V442" s="5"/>
+      <c r="W442" s="5"/>
+      <c r="X442" s="5"/>
+      <c r="Y442" s="5"/>
+      <c r="Z442" s="5"/>
+      <c r="AA442" s="5"/>
+      <c r="AB442" s="5"/>
+      <c r="AC442" s="5"/>
+      <c r="AD442" s="5"/>
+      <c r="AE442" s="5"/>
+      <c r="AF442" s="5"/>
+      <c r="AG442" s="5"/>
+      <c r="AH442" s="5"/>
+      <c r="AI442" s="5"/>
+      <c r="AJ442" s="5"/>
+      <c r="AK442" s="5"/>
+      <c r="AL442" s="5"/>
+      <c r="AM442" s="5"/>
+      <c r="AN442" s="5"/>
+      <c r="AO442" s="5"/>
+      <c r="AP442" s="5"/>
+    </row>
+    <row r="443" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A443" s="5"/>
+      <c r="B443" s="5"/>
+      <c r="C443" s="5"/>
+      <c r="D443" s="5"/>
+      <c r="E443" s="5"/>
+      <c r="F443" s="5"/>
+      <c r="G443" s="5"/>
+      <c r="H443" s="5"/>
+      <c r="I443" s="5"/>
+      <c r="J443" s="5"/>
+      <c r="K443" s="5"/>
+      <c r="L443" s="5"/>
+      <c r="M443" s="5"/>
+      <c r="N443" s="5"/>
+      <c r="O443" s="5"/>
+      <c r="P443" s="5"/>
+      <c r="Q443" s="5"/>
+      <c r="R443" s="5"/>
+      <c r="S443" s="5"/>
+      <c r="T443" s="5"/>
+      <c r="U443" s="5"/>
+      <c r="V443" s="5"/>
+      <c r="W443" s="5"/>
+      <c r="X443" s="5"/>
+      <c r="Y443" s="5"/>
+      <c r="Z443" s="5"/>
+      <c r="AA443" s="5"/>
+      <c r="AB443" s="5"/>
+      <c r="AC443" s="5"/>
+      <c r="AD443" s="5"/>
+      <c r="AE443" s="5"/>
+      <c r="AF443" s="5"/>
+      <c r="AG443" s="5"/>
+      <c r="AH443" s="5"/>
+      <c r="AI443" s="5"/>
+      <c r="AJ443" s="5"/>
+      <c r="AK443" s="5"/>
+      <c r="AL443" s="5"/>
+      <c r="AM443" s="5"/>
+      <c r="AN443" s="5"/>
+      <c r="AO443" s="5"/>
+      <c r="AP443" s="5"/>
+    </row>
+    <row r="444" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A444" s="5"/>
+      <c r="B444" s="5"/>
+      <c r="C444" s="5"/>
+      <c r="D444" s="5"/>
+      <c r="E444" s="5"/>
+      <c r="F444" s="5"/>
+      <c r="G444" s="5"/>
+      <c r="H444" s="5"/>
+      <c r="I444" s="5"/>
+      <c r="J444" s="5"/>
+      <c r="K444" s="5"/>
+      <c r="L444" s="5"/>
+      <c r="M444" s="5"/>
+      <c r="N444" s="5"/>
+      <c r="O444" s="5"/>
+      <c r="P444" s="5"/>
+      <c r="Q444" s="5"/>
+      <c r="R444" s="5"/>
+      <c r="S444" s="5"/>
+      <c r="T444" s="5"/>
+      <c r="U444" s="5"/>
+      <c r="V444" s="5"/>
+      <c r="W444" s="5"/>
+      <c r="X444" s="5"/>
+      <c r="Y444" s="5"/>
+      <c r="Z444" s="5"/>
+      <c r="AA444" s="5"/>
+      <c r="AB444" s="5"/>
+      <c r="AC444" s="5"/>
+      <c r="AD444" s="5"/>
+      <c r="AE444" s="5"/>
+      <c r="AF444" s="5"/>
+      <c r="AG444" s="5"/>
+      <c r="AH444" s="5"/>
+      <c r="AI444" s="5"/>
+      <c r="AJ444" s="5"/>
+      <c r="AK444" s="5"/>
+      <c r="AL444" s="5"/>
+      <c r="AM444" s="5"/>
+      <c r="AN444" s="5"/>
+      <c r="AO444" s="5"/>
+      <c r="AP444" s="5"/>
+    </row>
+    <row r="445" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A445" s="5"/>
+      <c r="B445" s="5"/>
+      <c r="C445" s="5"/>
+      <c r="D445" s="5"/>
+      <c r="E445" s="5"/>
+      <c r="F445" s="5"/>
+      <c r="G445" s="5"/>
+      <c r="H445" s="5"/>
+      <c r="I445" s="5"/>
+      <c r="J445" s="5"/>
+      <c r="K445" s="5"/>
+      <c r="L445" s="5"/>
+      <c r="M445" s="5"/>
+      <c r="N445" s="5"/>
+      <c r="O445" s="5"/>
+      <c r="P445" s="5"/>
+      <c r="Q445" s="5"/>
+      <c r="R445" s="5"/>
+      <c r="S445" s="5"/>
+      <c r="T445" s="5"/>
+      <c r="U445" s="5"/>
+      <c r="V445" s="5"/>
+      <c r="W445" s="5"/>
+      <c r="X445" s="5"/>
+      <c r="Y445" s="5"/>
+      <c r="Z445" s="5"/>
+      <c r="AA445" s="5"/>
+      <c r="AB445" s="5"/>
+      <c r="AC445" s="5"/>
+      <c r="AD445" s="5"/>
+      <c r="AE445" s="5"/>
+      <c r="AF445" s="5"/>
+      <c r="AG445" s="5"/>
+      <c r="AH445" s="5"/>
+      <c r="AI445" s="5"/>
+      <c r="AJ445" s="5"/>
+      <c r="AK445" s="5"/>
+      <c r="AL445" s="5"/>
+      <c r="AM445" s="5"/>
+      <c r="AN445" s="5"/>
+      <c r="AO445" s="5"/>
+      <c r="AP445" s="5"/>
+    </row>
+    <row r="446" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A446" s="5"/>
+      <c r="B446" s="5"/>
+      <c r="C446" s="5"/>
+      <c r="D446" s="5"/>
+      <c r="E446" s="5"/>
+      <c r="F446" s="5"/>
+      <c r="G446" s="5"/>
+      <c r="H446" s="5"/>
+      <c r="I446" s="5"/>
+      <c r="J446" s="5"/>
+      <c r="K446" s="5"/>
+      <c r="L446" s="5"/>
+      <c r="M446" s="5"/>
+      <c r="N446" s="5"/>
+      <c r="O446" s="5"/>
+      <c r="P446" s="5"/>
+      <c r="Q446" s="5"/>
+      <c r="R446" s="5"/>
+      <c r="S446" s="5"/>
+      <c r="T446" s="5"/>
+      <c r="U446" s="5"/>
+      <c r="V446" s="5"/>
+      <c r="W446" s="5"/>
+      <c r="X446" s="5"/>
+      <c r="Y446" s="5"/>
+      <c r="Z446" s="5"/>
+      <c r="AA446" s="5"/>
+      <c r="AB446" s="5"/>
+      <c r="AC446" s="5"/>
+      <c r="AD446" s="5"/>
+      <c r="AE446" s="5"/>
+      <c r="AF446" s="5"/>
+      <c r="AG446" s="5"/>
+      <c r="AH446" s="5"/>
+      <c r="AI446" s="5"/>
+      <c r="AJ446" s="5"/>
+      <c r="AK446" s="5"/>
+      <c r="AL446" s="5"/>
+      <c r="AM446" s="5"/>
+      <c r="AN446" s="5"/>
+      <c r="AO446" s="5"/>
+      <c r="AP446" s="5"/>
+    </row>
+    <row r="447" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A447" s="5"/>
+      <c r="B447" s="5"/>
+      <c r="C447" s="5"/>
+      <c r="D447" s="5"/>
+      <c r="E447" s="5"/>
+      <c r="F447" s="5"/>
+      <c r="G447" s="5"/>
+      <c r="H447" s="5"/>
+      <c r="I447" s="5"/>
+      <c r="J447" s="5"/>
+      <c r="K447" s="5"/>
+      <c r="L447" s="5"/>
+      <c r="M447" s="5"/>
+      <c r="N447" s="5"/>
+      <c r="O447" s="5"/>
+      <c r="P447" s="5"/>
+      <c r="Q447" s="5"/>
+      <c r="R447" s="5"/>
+      <c r="S447" s="5"/>
+      <c r="T447" s="5"/>
+      <c r="U447" s="5"/>
+      <c r="V447" s="5"/>
+      <c r="W447" s="5"/>
+      <c r="X447" s="5"/>
+      <c r="Y447" s="5"/>
+      <c r="Z447" s="5"/>
+      <c r="AA447" s="5"/>
+      <c r="AB447" s="5"/>
+      <c r="AC447" s="5"/>
+      <c r="AD447" s="5"/>
+      <c r="AE447" s="5"/>
+      <c r="AF447" s="5"/>
+      <c r="AG447" s="5"/>
+      <c r="AH447" s="5"/>
+      <c r="AI447" s="5"/>
+      <c r="AJ447" s="5"/>
+      <c r="AK447" s="5"/>
+      <c r="AL447" s="5"/>
+      <c r="AM447" s="5"/>
+      <c r="AN447" s="5"/>
+      <c r="AO447" s="5"/>
+      <c r="AP447" s="5"/>
+    </row>
+    <row r="448" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A448" s="5"/>
+      <c r="B448" s="5"/>
+      <c r="C448" s="5"/>
+      <c r="D448" s="5"/>
+      <c r="E448" s="5"/>
+      <c r="F448" s="5"/>
+      <c r="G448" s="5"/>
+      <c r="H448" s="5"/>
+      <c r="I448" s="5"/>
+      <c r="J448" s="5"/>
+      <c r="K448" s="5"/>
+      <c r="L448" s="5"/>
+      <c r="M448" s="5"/>
+      <c r="N448" s="5"/>
+      <c r="O448" s="5"/>
+      <c r="P448" s="5"/>
+      <c r="Q448" s="5"/>
+      <c r="R448" s="5"/>
+      <c r="S448" s="5"/>
+      <c r="T448" s="5"/>
+      <c r="U448" s="5"/>
+      <c r="V448" s="5"/>
+      <c r="W448" s="5"/>
+      <c r="X448" s="5"/>
+      <c r="Y448" s="5"/>
+      <c r="Z448" s="5"/>
+      <c r="AA448" s="5"/>
+      <c r="AB448" s="5"/>
+      <c r="AC448" s="5"/>
+      <c r="AD448" s="5"/>
+      <c r="AE448" s="5"/>
+      <c r="AF448" s="5"/>
+      <c r="AG448" s="5"/>
+      <c r="AH448" s="5"/>
+      <c r="AI448" s="5"/>
+      <c r="AJ448" s="5"/>
+      <c r="AK448" s="5"/>
+      <c r="AL448" s="5"/>
+      <c r="AM448" s="5"/>
+      <c r="AN448" s="5"/>
+      <c r="AO448" s="5"/>
+      <c r="AP448" s="5"/>
+    </row>
+    <row r="449" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A449" s="5"/>
+      <c r="B449" s="5"/>
+      <c r="C449" s="5"/>
+      <c r="D449" s="5"/>
+      <c r="E449" s="5"/>
+      <c r="F449" s="5"/>
+      <c r="G449" s="5"/>
+      <c r="H449" s="5"/>
+      <c r="I449" s="5"/>
+      <c r="J449" s="5"/>
+      <c r="K449" s="5"/>
+      <c r="L449" s="5"/>
+      <c r="M449" s="5"/>
+      <c r="N449" s="5"/>
+      <c r="O449" s="5"/>
+      <c r="P449" s="5"/>
+      <c r="Q449" s="5"/>
+      <c r="R449" s="5"/>
+      <c r="S449" s="5"/>
+      <c r="T449" s="5"/>
+      <c r="U449" s="5"/>
+      <c r="V449" s="5"/>
+      <c r="W449" s="5"/>
+      <c r="X449" s="5"/>
+      <c r="Y449" s="5"/>
+      <c r="Z449" s="5"/>
+      <c r="AA449" s="5"/>
+      <c r="AB449" s="5"/>
+      <c r="AC449" s="5"/>
+      <c r="AD449" s="5"/>
+      <c r="AE449" s="5"/>
+      <c r="AF449" s="5"/>
+      <c r="AG449" s="5"/>
+      <c r="AH449" s="5"/>
+      <c r="AI449" s="5"/>
+      <c r="AJ449" s="5"/>
+      <c r="AK449" s="5"/>
+      <c r="AL449" s="5"/>
+      <c r="AM449" s="5"/>
+      <c r="AN449" s="5"/>
+      <c r="AO449" s="5"/>
+      <c r="AP449" s="5"/>
+    </row>
+    <row r="450" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A450" s="5"/>
+      <c r="B450" s="5"/>
+      <c r="C450" s="5"/>
+      <c r="D450" s="5"/>
+      <c r="E450" s="5"/>
+      <c r="F450" s="5"/>
+      <c r="G450" s="5"/>
+      <c r="H450" s="5"/>
+      <c r="I450" s="5"/>
+      <c r="J450" s="5"/>
+      <c r="K450" s="5"/>
+      <c r="L450" s="5"/>
+      <c r="M450" s="5"/>
+      <c r="N450" s="5"/>
+      <c r="O450" s="5"/>
+      <c r="P450" s="5"/>
+      <c r="Q450" s="5"/>
+      <c r="R450" s="5"/>
+      <c r="S450" s="5"/>
+      <c r="T450" s="5"/>
+      <c r="U450" s="5"/>
+      <c r="V450" s="5"/>
+      <c r="W450" s="5"/>
+      <c r="X450" s="5"/>
+      <c r="Y450" s="5"/>
+      <c r="Z450" s="5"/>
+      <c r="AA450" s="5"/>
+      <c r="AB450" s="5"/>
+      <c r="AC450" s="5"/>
+      <c r="AD450" s="5"/>
+      <c r="AE450" s="5"/>
+      <c r="AF450" s="5"/>
+      <c r="AG450" s="5"/>
+      <c r="AH450" s="5"/>
+      <c r="AI450" s="5"/>
+      <c r="AJ450" s="5"/>
+      <c r="AK450" s="5"/>
+      <c r="AL450" s="5"/>
+      <c r="AM450" s="5"/>
+      <c r="AN450" s="5"/>
+      <c r="AO450" s="5"/>
+      <c r="AP450" s="5"/>
+    </row>
+    <row r="451" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A451" s="5"/>
+      <c r="B451" s="5"/>
+      <c r="C451" s="5"/>
+      <c r="D451" s="5"/>
+      <c r="E451" s="5"/>
+      <c r="F451" s="5"/>
+      <c r="G451" s="5"/>
+      <c r="H451" s="5"/>
+      <c r="I451" s="5"/>
+      <c r="J451" s="5"/>
+      <c r="K451" s="5"/>
+      <c r="L451" s="5"/>
+      <c r="M451" s="5"/>
+      <c r="N451" s="5"/>
+      <c r="O451" s="5"/>
+      <c r="P451" s="5"/>
+      <c r="Q451" s="5"/>
+      <c r="R451" s="5"/>
+      <c r="S451" s="5"/>
+      <c r="T451" s="5"/>
+      <c r="U451" s="5"/>
+      <c r="V451" s="5"/>
+      <c r="W451" s="5"/>
+      <c r="X451" s="5"/>
+      <c r="Y451" s="5"/>
+      <c r="Z451" s="5"/>
+      <c r="AA451" s="5"/>
+      <c r="AB451" s="5"/>
+      <c r="AC451" s="5"/>
+      <c r="AD451" s="5"/>
+      <c r="AE451" s="5"/>
+      <c r="AF451" s="5"/>
+      <c r="AG451" s="5"/>
+      <c r="AH451" s="5"/>
+      <c r="AI451" s="5"/>
+      <c r="AJ451" s="5"/>
+      <c r="AK451" s="5"/>
+      <c r="AL451" s="5"/>
+      <c r="AM451" s="5"/>
+      <c r="AN451" s="5"/>
+      <c r="AO451" s="5"/>
+      <c r="AP451" s="5"/>
+    </row>
+    <row r="452" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A452" s="5"/>
+      <c r="B452" s="5"/>
+      <c r="C452" s="5"/>
+      <c r="D452" s="5"/>
+      <c r="E452" s="5"/>
+      <c r="F452" s="5"/>
+      <c r="G452" s="5"/>
+      <c r="H452" s="5"/>
+      <c r="I452" s="5"/>
+      <c r="J452" s="5"/>
+      <c r="K452" s="5"/>
+      <c r="L452" s="5"/>
+      <c r="M452" s="5"/>
+      <c r="N452" s="5"/>
+      <c r="O452" s="5"/>
+      <c r="P452" s="5"/>
+      <c r="Q452" s="5"/>
+      <c r="R452" s="5"/>
+      <c r="S452" s="5"/>
+      <c r="T452" s="5"/>
+      <c r="U452" s="5"/>
+      <c r="V452" s="5"/>
+      <c r="W452" s="5"/>
+      <c r="X452" s="5"/>
+      <c r="Y452" s="5"/>
+      <c r="Z452" s="5"/>
+      <c r="AA452" s="5"/>
+      <c r="AB452" s="5"/>
+      <c r="AC452" s="5"/>
+      <c r="AD452" s="5"/>
+      <c r="AE452" s="5"/>
+      <c r="AF452" s="5"/>
+      <c r="AG452" s="5"/>
+      <c r="AH452" s="5"/>
+      <c r="AI452" s="5"/>
+      <c r="AJ452" s="5"/>
+      <c r="AK452" s="5"/>
+      <c r="AL452" s="5"/>
+      <c r="AM452" s="5"/>
+      <c r="AN452" s="5"/>
+      <c r="AO452" s="5"/>
+      <c r="AP452" s="5"/>
+    </row>
+    <row r="453" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A453" s="5"/>
+      <c r="B453" s="5"/>
+      <c r="C453" s="5"/>
+      <c r="D453" s="5"/>
+      <c r="E453" s="5"/>
+      <c r="F453" s="5"/>
+      <c r="G453" s="5"/>
+      <c r="H453" s="5"/>
+      <c r="I453" s="5"/>
+      <c r="J453" s="5"/>
+      <c r="K453" s="5"/>
+      <c r="L453" s="5"/>
+      <c r="M453" s="5"/>
+      <c r="N453" s="5"/>
+      <c r="O453" s="5"/>
+      <c r="P453" s="5"/>
+      <c r="Q453" s="5"/>
+      <c r="R453" s="5"/>
+      <c r="S453" s="5"/>
+      <c r="T453" s="5"/>
+      <c r="U453" s="5"/>
+      <c r="V453" s="5"/>
+      <c r="W453" s="5"/>
+      <c r="X453" s="5"/>
+      <c r="Y453" s="5"/>
+      <c r="Z453" s="5"/>
+      <c r="AA453" s="5"/>
+      <c r="AB453" s="5"/>
+      <c r="AC453" s="5"/>
+      <c r="AD453" s="5"/>
+      <c r="AE453" s="5"/>
+      <c r="AF453" s="5"/>
+      <c r="AG453" s="5"/>
+      <c r="AH453" s="5"/>
+      <c r="AI453" s="5"/>
+      <c r="AJ453" s="5"/>
+      <c r="AK453" s="5"/>
+      <c r="AL453" s="5"/>
+      <c r="AM453" s="5"/>
+      <c r="AN453" s="5"/>
+      <c r="AO453" s="5"/>
+      <c r="AP453" s="5"/>
+    </row>
+    <row r="454" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A454" s="5"/>
+      <c r="B454" s="5"/>
+      <c r="C454" s="5"/>
+      <c r="D454" s="5"/>
+      <c r="E454" s="5"/>
+      <c r="F454" s="5"/>
+      <c r="G454" s="5"/>
+      <c r="H454" s="5"/>
+      <c r="I454" s="5"/>
+      <c r="J454" s="5"/>
+      <c r="K454" s="5"/>
+      <c r="L454" s="5"/>
+      <c r="M454" s="5"/>
+      <c r="N454" s="5"/>
+      <c r="O454" s="5"/>
+      <c r="P454" s="5"/>
+      <c r="Q454" s="5"/>
+      <c r="R454" s="5"/>
+      <c r="S454" s="5"/>
+      <c r="T454" s="5"/>
+      <c r="U454" s="5"/>
+      <c r="V454" s="5"/>
+      <c r="W454" s="5"/>
+      <c r="X454" s="5"/>
+      <c r="Y454" s="5"/>
+      <c r="Z454" s="5"/>
+      <c r="AA454" s="5"/>
+      <c r="AB454" s="5"/>
+      <c r="AC454" s="5"/>
+      <c r="AD454" s="5"/>
+      <c r="AE454" s="5"/>
+      <c r="AF454" s="5"/>
+      <c r="AG454" s="5"/>
+      <c r="AH454" s="5"/>
+      <c r="AI454" s="5"/>
+      <c r="AJ454" s="5"/>
+      <c r="AK454" s="5"/>
+      <c r="AL454" s="5"/>
+      <c r="AM454" s="5"/>
+      <c r="AN454" s="5"/>
+      <c r="AO454" s="5"/>
+      <c r="AP454" s="5"/>
+    </row>
+    <row r="455" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A455" s="5"/>
+      <c r="B455" s="5"/>
+      <c r="C455" s="5"/>
+      <c r="D455" s="5"/>
+      <c r="E455" s="5"/>
+      <c r="F455" s="5"/>
+      <c r="G455" s="5"/>
+      <c r="H455" s="5"/>
+      <c r="I455" s="5"/>
+      <c r="J455" s="5"/>
+      <c r="K455" s="5"/>
+      <c r="L455" s="5"/>
+      <c r="M455" s="5"/>
+      <c r="N455" s="5"/>
+      <c r="O455" s="5"/>
+      <c r="P455" s="5"/>
+      <c r="Q455" s="5"/>
+      <c r="R455" s="5"/>
+      <c r="S455" s="5"/>
+      <c r="T455" s="5"/>
+      <c r="U455" s="5"/>
+      <c r="V455" s="5"/>
+      <c r="W455" s="5"/>
+      <c r="X455" s="5"/>
+      <c r="Y455" s="5"/>
+      <c r="Z455" s="5"/>
+      <c r="AA455" s="5"/>
+      <c r="AB455" s="5"/>
+      <c r="AC455" s="5"/>
+      <c r="AD455" s="5"/>
+      <c r="AE455" s="5"/>
+      <c r="AF455" s="5"/>
+      <c r="AG455" s="5"/>
+      <c r="AH455" s="5"/>
+      <c r="AI455" s="5"/>
+      <c r="AJ455" s="5"/>
+      <c r="AK455" s="5"/>
+      <c r="AL455" s="5"/>
+      <c r="AM455" s="5"/>
+      <c r="AN455" s="5"/>
+      <c r="AO455" s="5"/>
+      <c r="AP455" s="5"/>
+    </row>
+    <row r="456" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A456" s="5"/>
+      <c r="B456" s="5"/>
+      <c r="C456" s="5"/>
+      <c r="D456" s="5"/>
+      <c r="E456" s="5"/>
+      <c r="F456" s="5"/>
+      <c r="G456" s="5"/>
+      <c r="H456" s="5"/>
+      <c r="I456" s="5"/>
+      <c r="J456" s="5"/>
+      <c r="K456" s="5"/>
+      <c r="L456" s="5"/>
+      <c r="M456" s="5"/>
+      <c r="N456" s="5"/>
+      <c r="O456" s="5"/>
+      <c r="P456" s="5"/>
+      <c r="Q456" s="5"/>
+      <c r="R456" s="5"/>
+      <c r="S456" s="5"/>
+      <c r="T456" s="5"/>
+      <c r="U456" s="5"/>
+      <c r="V456" s="5"/>
+      <c r="W456" s="5"/>
+      <c r="X456" s="5"/>
+      <c r="Y456" s="5"/>
+      <c r="Z456" s="5"/>
+      <c r="AA456" s="5"/>
+      <c r="AB456" s="5"/>
+      <c r="AC456" s="5"/>
+      <c r="AD456" s="5"/>
+      <c r="AE456" s="5"/>
+      <c r="AF456" s="5"/>
+      <c r="AG456" s="5"/>
+      <c r="AH456" s="5"/>
+      <c r="AI456" s="5"/>
+      <c r="AJ456" s="5"/>
+      <c r="AK456" s="5"/>
+      <c r="AL456" s="5"/>
+      <c r="AM456" s="5"/>
+      <c r="AN456" s="5"/>
+      <c r="AO456" s="5"/>
+      <c r="AP456" s="5"/>
+    </row>
+    <row r="457" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A457" s="5"/>
+      <c r="B457" s="5"/>
+      <c r="C457" s="5"/>
+      <c r="D457" s="5"/>
+      <c r="E457" s="5"/>
+      <c r="F457" s="5"/>
+      <c r="G457" s="5"/>
+      <c r="H457" s="5"/>
+      <c r="I457" s="5"/>
+      <c r="J457" s="5"/>
+      <c r="K457" s="5"/>
+      <c r="L457" s="5"/>
+      <c r="M457" s="5"/>
+      <c r="N457" s="5"/>
+      <c r="O457" s="5"/>
+      <c r="P457" s="5"/>
+      <c r="Q457" s="5"/>
+      <c r="R457" s="5"/>
+      <c r="S457" s="5"/>
+      <c r="T457" s="5"/>
+      <c r="U457" s="5"/>
+      <c r="V457" s="5"/>
+      <c r="W457" s="5"/>
+      <c r="X457" s="5"/>
+      <c r="Y457" s="5"/>
+      <c r="Z457" s="5"/>
+      <c r="AA457" s="5"/>
+      <c r="AB457" s="5"/>
+      <c r="AC457" s="5"/>
+      <c r="AD457" s="5"/>
+      <c r="AE457" s="5"/>
+      <c r="AF457" s="5"/>
+      <c r="AG457" s="5"/>
+      <c r="AH457" s="5"/>
+      <c r="AI457" s="5"/>
+      <c r="AJ457" s="5"/>
+      <c r="AK457" s="5"/>
+      <c r="AL457" s="5"/>
+      <c r="AM457" s="5"/>
+      <c r="AN457" s="5"/>
+      <c r="AO457" s="5"/>
+      <c r="AP457" s="5"/>
+    </row>
+    <row r="458" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A458" s="5"/>
+      <c r="B458" s="5"/>
+      <c r="C458" s="5"/>
+      <c r="D458" s="5"/>
+      <c r="E458" s="5"/>
+      <c r="F458" s="5"/>
+      <c r="G458" s="5"/>
+      <c r="H458" s="5"/>
+      <c r="I458" s="5"/>
+      <c r="J458" s="5"/>
+      <c r="K458" s="5"/>
+      <c r="L458" s="5"/>
+      <c r="M458" s="5"/>
+      <c r="N458" s="5"/>
+      <c r="O458" s="5"/>
+      <c r="P458" s="5"/>
+      <c r="Q458" s="5"/>
+      <c r="R458" s="5"/>
+      <c r="S458" s="5"/>
+      <c r="T458" s="5"/>
+      <c r="U458" s="5"/>
+      <c r="V458" s="5"/>
+      <c r="W458" s="5"/>
+      <c r="X458" s="5"/>
+      <c r="Y458" s="5"/>
+      <c r="Z458" s="5"/>
+      <c r="AA458" s="5"/>
+      <c r="AB458" s="5"/>
+      <c r="AC458" s="5"/>
+      <c r="AD458" s="5"/>
+      <c r="AE458" s="5"/>
+      <c r="AF458" s="5"/>
+      <c r="AG458" s="5"/>
+      <c r="AH458" s="5"/>
+      <c r="AI458" s="5"/>
+      <c r="AJ458" s="5"/>
+      <c r="AK458" s="5"/>
+      <c r="AL458" s="5"/>
+      <c r="AM458" s="5"/>
+      <c r="AN458" s="5"/>
+      <c r="AO458" s="5"/>
+      <c r="AP458" s="5"/>
+    </row>
+    <row r="459" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A459" s="5"/>
+      <c r="B459" s="5"/>
+      <c r="C459" s="5"/>
+      <c r="D459" s="5"/>
+      <c r="E459" s="5"/>
+      <c r="F459" s="5"/>
+      <c r="G459" s="5"/>
+      <c r="H459" s="5"/>
+      <c r="I459" s="5"/>
+      <c r="J459" s="5"/>
+      <c r="K459" s="5"/>
+      <c r="L459" s="5"/>
+      <c r="M459" s="5"/>
+      <c r="N459" s="5"/>
+      <c r="O459" s="5"/>
+      <c r="P459" s="5"/>
+      <c r="Q459" s="5"/>
+      <c r="R459" s="5"/>
+      <c r="S459" s="5"/>
+      <c r="T459" s="5"/>
+      <c r="U459" s="5"/>
+      <c r="V459" s="5"/>
+      <c r="W459" s="5"/>
+      <c r="X459" s="5"/>
+      <c r="Y459" s="5"/>
+      <c r="Z459" s="5"/>
+      <c r="AA459" s="5"/>
+      <c r="AB459" s="5"/>
+      <c r="AC459" s="5"/>
+      <c r="AD459" s="5"/>
+      <c r="AE459" s="5"/>
+      <c r="AF459" s="5"/>
+      <c r="AG459" s="5"/>
+      <c r="AH459" s="5"/>
+      <c r="AI459" s="5"/>
+      <c r="AJ459" s="5"/>
+      <c r="AK459" s="5"/>
+      <c r="AL459" s="5"/>
+      <c r="AM459" s="5"/>
+      <c r="AN459" s="5"/>
+      <c r="AO459" s="5"/>
+      <c r="AP459" s="5"/>
+    </row>
+    <row r="460" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A460" s="5"/>
+      <c r="B460" s="5"/>
+      <c r="C460" s="5"/>
+      <c r="D460" s="5"/>
+      <c r="E460" s="5"/>
+      <c r="F460" s="5"/>
+      <c r="G460" s="5"/>
+      <c r="H460" s="5"/>
+      <c r="I460" s="5"/>
+      <c r="J460" s="5"/>
+      <c r="K460" s="5"/>
+      <c r="L460" s="5"/>
+      <c r="M460" s="5"/>
+      <c r="N460" s="5"/>
+      <c r="O460" s="5"/>
+      <c r="P460" s="5"/>
+      <c r="Q460" s="5"/>
+      <c r="R460" s="5"/>
+      <c r="S460" s="5"/>
+      <c r="T460" s="5"/>
+      <c r="U460" s="5"/>
+      <c r="V460" s="5"/>
+      <c r="W460" s="5"/>
+      <c r="X460" s="5"/>
+      <c r="Y460" s="5"/>
+      <c r="Z460" s="5"/>
+      <c r="AA460" s="5"/>
+      <c r="AB460" s="5"/>
+      <c r="AC460" s="5"/>
+      <c r="AD460" s="5"/>
+      <c r="AE460" s="5"/>
+      <c r="AF460" s="5"/>
+      <c r="AG460" s="5"/>
+      <c r="AH460" s="5"/>
+      <c r="AI460" s="5"/>
+      <c r="AJ460" s="5"/>
+      <c r="AK460" s="5"/>
+      <c r="AL460" s="5"/>
+      <c r="AM460" s="5"/>
+      <c r="AN460" s="5"/>
+      <c r="AO460" s="5"/>
+      <c r="AP460" s="5"/>
+    </row>
+    <row r="461" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A461" s="5"/>
+      <c r="B461" s="5"/>
+      <c r="C461" s="5"/>
+      <c r="D461" s="5"/>
+      <c r="E461" s="5"/>
+      <c r="F461" s="5"/>
+      <c r="G461" s="5"/>
+      <c r="H461" s="5"/>
+      <c r="I461" s="5"/>
+      <c r="J461" s="5"/>
+      <c r="K461" s="5"/>
+      <c r="L461" s="5"/>
+      <c r="M461" s="5"/>
+      <c r="N461" s="5"/>
+      <c r="O461" s="5"/>
+      <c r="P461" s="5"/>
+      <c r="Q461" s="5"/>
+      <c r="R461" s="5"/>
+      <c r="S461" s="5"/>
+      <c r="T461" s="5"/>
+      <c r="U461" s="5"/>
+      <c r="V461" s="5"/>
+      <c r="W461" s="5"/>
+      <c r="X461" s="5"/>
+      <c r="Y461" s="5"/>
+      <c r="Z461" s="5"/>
+      <c r="AA461" s="5"/>
+      <c r="AB461" s="5"/>
+      <c r="AC461" s="5"/>
+      <c r="AD461" s="5"/>
+      <c r="AE461" s="5"/>
+      <c r="AF461" s="5"/>
+      <c r="AG461" s="5"/>
+      <c r="AH461" s="5"/>
+      <c r="AI461" s="5"/>
+      <c r="AJ461" s="5"/>
+      <c r="AK461" s="5"/>
+      <c r="AL461" s="5"/>
+      <c r="AM461" s="5"/>
+      <c r="AN461" s="5"/>
+      <c r="AO461" s="5"/>
+      <c r="AP461" s="5"/>
+    </row>
+    <row r="462" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A462" s="5"/>
+      <c r="B462" s="5"/>
+      <c r="C462" s="5"/>
+      <c r="D462" s="5"/>
+      <c r="E462" s="5"/>
+      <c r="F462" s="5"/>
+      <c r="G462" s="5"/>
+      <c r="H462" s="5"/>
+      <c r="I462" s="5"/>
+      <c r="J462" s="5"/>
+      <c r="K462" s="5"/>
+      <c r="L462" s="5"/>
+      <c r="M462" s="5"/>
+      <c r="N462" s="5"/>
+      <c r="O462" s="5"/>
+      <c r="P462" s="5"/>
+      <c r="Q462" s="5"/>
+      <c r="R462" s="5"/>
+      <c r="S462" s="5"/>
+      <c r="T462" s="5"/>
+      <c r="U462" s="5"/>
+      <c r="V462" s="5"/>
+      <c r="W462" s="5"/>
+      <c r="X462" s="5"/>
+      <c r="Y462" s="5"/>
+      <c r="Z462" s="5"/>
+      <c r="AA462" s="5"/>
+      <c r="AB462" s="5"/>
+      <c r="AC462" s="5"/>
+      <c r="AD462" s="5"/>
+      <c r="AE462" s="5"/>
+      <c r="AF462" s="5"/>
+      <c r="AG462" s="5"/>
+      <c r="AH462" s="5"/>
+      <c r="AI462" s="5"/>
+      <c r="AJ462" s="5"/>
+      <c r="AK462" s="5"/>
+      <c r="AL462" s="5"/>
+      <c r="AM462" s="5"/>
+      <c r="AN462" s="5"/>
+      <c r="AO462" s="5"/>
+      <c r="AP462" s="5"/>
+    </row>
+    <row r="463" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A463" s="5"/>
+      <c r="B463" s="5"/>
+      <c r="C463" s="5"/>
+      <c r="D463" s="5"/>
+      <c r="E463" s="5"/>
+      <c r="F463" s="5"/>
+      <c r="G463" s="5"/>
+      <c r="H463" s="5"/>
+      <c r="I463" s="5"/>
+      <c r="J463" s="5"/>
+      <c r="K463" s="5"/>
+      <c r="L463" s="5"/>
+      <c r="M463" s="5"/>
+      <c r="N463" s="5"/>
+      <c r="O463" s="5"/>
+      <c r="P463" s="5"/>
+      <c r="Q463" s="5"/>
+      <c r="R463" s="5"/>
+      <c r="S463" s="5"/>
+      <c r="T463" s="5"/>
+      <c r="U463" s="5"/>
+      <c r="V463" s="5"/>
+      <c r="W463" s="5"/>
+      <c r="X463" s="5"/>
+      <c r="Y463" s="5"/>
+      <c r="Z463" s="5"/>
+      <c r="AA463" s="5"/>
+      <c r="AB463" s="5"/>
+      <c r="AC463" s="5"/>
+      <c r="AD463" s="5"/>
+      <c r="AE463" s="5"/>
+      <c r="AF463" s="5"/>
+      <c r="AG463" s="5"/>
+      <c r="AH463" s="5"/>
+      <c r="AI463" s="5"/>
+      <c r="AJ463" s="5"/>
+      <c r="AK463" s="5"/>
+      <c r="AL463" s="5"/>
+      <c r="AM463" s="5"/>
+      <c r="AN463" s="5"/>
+      <c r="AO463" s="5"/>
+      <c r="AP463" s="5"/>
+    </row>
+    <row r="464" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A464" s="5"/>
+      <c r="B464" s="5"/>
+      <c r="C464" s="5"/>
+      <c r="D464" s="5"/>
+      <c r="E464" s="5"/>
+      <c r="F464" s="5"/>
+      <c r="G464" s="5"/>
+      <c r="H464" s="5"/>
+      <c r="I464" s="5"/>
+      <c r="J464" s="5"/>
+      <c r="K464" s="5"/>
+      <c r="L464" s="5"/>
+      <c r="M464" s="5"/>
+      <c r="N464" s="5"/>
+      <c r="O464" s="5"/>
+      <c r="P464" s="5"/>
+      <c r="Q464" s="5"/>
+      <c r="R464" s="5"/>
+      <c r="S464" s="5"/>
+      <c r="T464" s="5"/>
+      <c r="U464" s="5"/>
+      <c r="V464" s="5"/>
+      <c r="W464" s="5"/>
+      <c r="X464" s="5"/>
+      <c r="Y464" s="5"/>
+      <c r="Z464" s="5"/>
+      <c r="AA464" s="5"/>
+      <c r="AB464" s="5"/>
+      <c r="AC464" s="5"/>
+      <c r="AD464" s="5"/>
+      <c r="AE464" s="5"/>
+      <c r="AF464" s="5"/>
+      <c r="AG464" s="5"/>
+      <c r="AH464" s="5"/>
+      <c r="AI464" s="5"/>
+      <c r="AJ464" s="5"/>
+      <c r="AK464" s="5"/>
+      <c r="AL464" s="5"/>
+      <c r="AM464" s="5"/>
+      <c r="AN464" s="5"/>
+      <c r="AO464" s="5"/>
+      <c r="AP464" s="5"/>
+    </row>
+    <row r="465" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A465" s="5"/>
+      <c r="B465" s="5"/>
+      <c r="C465" s="5"/>
+      <c r="D465" s="5"/>
+      <c r="E465" s="5"/>
+      <c r="F465" s="5"/>
+      <c r="G465" s="5"/>
+      <c r="H465" s="5"/>
+      <c r="I465" s="5"/>
+      <c r="J465" s="5"/>
+      <c r="K465" s="5"/>
+      <c r="L465" s="5"/>
+      <c r="M465" s="5"/>
+      <c r="N465" s="5"/>
+      <c r="O465" s="5"/>
+      <c r="P465" s="5"/>
+      <c r="Q465" s="5"/>
+      <c r="R465" s="5"/>
+      <c r="S465" s="5"/>
+      <c r="T465" s="5"/>
+      <c r="U465" s="5"/>
+      <c r="V465" s="5"/>
+      <c r="W465" s="5"/>
+      <c r="X465" s="5"/>
+      <c r="Y465" s="5"/>
+      <c r="Z465" s="5"/>
+      <c r="AA465" s="5"/>
+      <c r="AB465" s="5"/>
+      <c r="AC465" s="5"/>
+      <c r="AD465" s="5"/>
+      <c r="AE465" s="5"/>
+      <c r="AF465" s="5"/>
+      <c r="AG465" s="5"/>
+      <c r="AH465" s="5"/>
+      <c r="AI465" s="5"/>
+      <c r="AJ465" s="5"/>
+      <c r="AK465" s="5"/>
+      <c r="AL465" s="5"/>
+      <c r="AM465" s="5"/>
+      <c r="AN465" s="5"/>
+      <c r="AO465" s="5"/>
+      <c r="AP465" s="5"/>
+    </row>
+    <row r="466" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A466" s="5"/>
+      <c r="B466" s="5"/>
+      <c r="C466" s="5"/>
+      <c r="D466" s="5"/>
+      <c r="E466" s="5"/>
+      <c r="F466" s="5"/>
+      <c r="G466" s="5"/>
+      <c r="H466" s="5"/>
+      <c r="I466" s="5"/>
+      <c r="J466" s="5"/>
+      <c r="K466" s="5"/>
+      <c r="L466" s="5"/>
+      <c r="M466" s="5"/>
+      <c r="N466" s="5"/>
+      <c r="O466" s="5"/>
+      <c r="P466" s="5"/>
+      <c r="Q466" s="5"/>
+      <c r="R466" s="5"/>
+      <c r="S466" s="5"/>
+      <c r="T466" s="5"/>
+      <c r="U466" s="5"/>
+      <c r="V466" s="5"/>
+      <c r="W466" s="5"/>
+      <c r="X466" s="5"/>
+      <c r="Y466" s="5"/>
+      <c r="Z466" s="5"/>
+      <c r="AA466" s="5"/>
+      <c r="AB466" s="5"/>
+      <c r="AC466" s="5"/>
+      <c r="AD466" s="5"/>
+      <c r="AE466" s="5"/>
+      <c r="AF466" s="5"/>
+      <c r="AG466" s="5"/>
+      <c r="AH466" s="5"/>
+      <c r="AI466" s="5"/>
+      <c r="AJ466" s="5"/>
+      <c r="AK466" s="5"/>
+      <c r="AL466" s="5"/>
+      <c r="AM466" s="5"/>
+      <c r="AN466" s="5"/>
+      <c r="AO466" s="5"/>
+      <c r="AP466" s="5"/>
+    </row>
+    <row r="467" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A467" s="5"/>
+      <c r="B467" s="5"/>
+      <c r="C467" s="5"/>
+      <c r="D467" s="5"/>
+      <c r="E467" s="5"/>
+      <c r="F467" s="5"/>
+      <c r="G467" s="5"/>
+      <c r="H467" s="5"/>
+      <c r="I467" s="5"/>
+      <c r="J467" s="5"/>
+      <c r="K467" s="5"/>
+      <c r="L467" s="5"/>
+      <c r="M467" s="5"/>
+      <c r="N467" s="5"/>
+      <c r="O467" s="5"/>
+      <c r="P467" s="5"/>
+      <c r="Q467" s="5"/>
+      <c r="R467" s="5"/>
+      <c r="S467" s="5"/>
+      <c r="T467" s="5"/>
+      <c r="U467" s="5"/>
+      <c r="V467" s="5"/>
+      <c r="W467" s="5"/>
+      <c r="X467" s="5"/>
+      <c r="Y467" s="5"/>
+      <c r="Z467" s="5"/>
+      <c r="AA467" s="5"/>
+      <c r="AB467" s="5"/>
+      <c r="AC467" s="5"/>
+      <c r="AD467" s="5"/>
+      <c r="AE467" s="5"/>
+      <c r="AF467" s="5"/>
+      <c r="AG467" s="5"/>
+      <c r="AH467" s="5"/>
+      <c r="AI467" s="5"/>
+      <c r="AJ467" s="5"/>
+      <c r="AK467" s="5"/>
+      <c r="AL467" s="5"/>
+      <c r="AM467" s="5"/>
+      <c r="AN467" s="5"/>
+      <c r="AO467" s="5"/>
+      <c r="AP467" s="5"/>
+    </row>
+    <row r="468" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A468" s="5"/>
+      <c r="B468" s="5"/>
+      <c r="C468" s="5"/>
+      <c r="D468" s="5"/>
+      <c r="E468" s="5"/>
+      <c r="F468" s="5"/>
+      <c r="G468" s="5"/>
+      <c r="H468" s="5"/>
+      <c r="I468" s="5"/>
+      <c r="J468" s="5"/>
+      <c r="K468" s="5"/>
+      <c r="L468" s="5"/>
+      <c r="M468" s="5"/>
+      <c r="N468" s="5"/>
+      <c r="O468" s="5"/>
+      <c r="P468" s="5"/>
+      <c r="Q468" s="5"/>
+      <c r="R468" s="5"/>
+      <c r="S468" s="5"/>
+      <c r="T468" s="5"/>
+      <c r="U468" s="5"/>
+      <c r="V468" s="5"/>
+      <c r="W468" s="5"/>
+      <c r="X468" s="5"/>
+      <c r="Y468" s="5"/>
+      <c r="Z468" s="5"/>
+      <c r="AA468" s="5"/>
+      <c r="AB468" s="5"/>
+      <c r="AC468" s="5"/>
+      <c r="AD468" s="5"/>
+      <c r="AE468" s="5"/>
+      <c r="AF468" s="5"/>
+      <c r="AG468" s="5"/>
+      <c r="AH468" s="5"/>
+      <c r="AI468" s="5"/>
+      <c r="AJ468" s="5"/>
+      <c r="AK468" s="5"/>
+      <c r="AL468" s="5"/>
+      <c r="AM468" s="5"/>
+      <c r="AN468" s="5"/>
+      <c r="AO468" s="5"/>
+      <c r="AP468" s="5"/>
+    </row>
+    <row r="469" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A469" s="5"/>
+      <c r="B469" s="5"/>
+      <c r="C469" s="5"/>
+      <c r="D469" s="5"/>
+      <c r="E469" s="5"/>
+      <c r="F469" s="5"/>
+      <c r="G469" s="5"/>
+      <c r="H469" s="5"/>
+      <c r="I469" s="5"/>
+      <c r="J469" s="5"/>
+      <c r="K469" s="5"/>
+      <c r="L469" s="5"/>
+      <c r="M469" s="5"/>
+      <c r="N469" s="5"/>
+      <c r="O469" s="5"/>
+      <c r="P469" s="5"/>
+      <c r="Q469" s="5"/>
+      <c r="R469" s="5"/>
+      <c r="S469" s="5"/>
+      <c r="T469" s="5"/>
+      <c r="U469" s="5"/>
+      <c r="V469" s="5"/>
+      <c r="W469" s="5"/>
+      <c r="X469" s="5"/>
+      <c r="Y469" s="5"/>
+      <c r="Z469" s="5"/>
+      <c r="AA469" s="5"/>
+      <c r="AB469" s="5"/>
+      <c r="AC469" s="5"/>
+      <c r="AD469" s="5"/>
+      <c r="AE469" s="5"/>
+      <c r="AF469" s="5"/>
+      <c r="AG469" s="5"/>
+      <c r="AH469" s="5"/>
+      <c r="AI469" s="5"/>
+      <c r="AJ469" s="5"/>
+      <c r="AK469" s="5"/>
+      <c r="AL469" s="5"/>
+      <c r="AM469" s="5"/>
+      <c r="AN469" s="5"/>
+      <c r="AO469" s="5"/>
+      <c r="AP469" s="5"/>
+    </row>
+    <row r="470" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A470" s="5"/>
+      <c r="B470" s="5"/>
+      <c r="C470" s="5"/>
+      <c r="D470" s="5"/>
+      <c r="E470" s="5"/>
+      <c r="F470" s="5"/>
+      <c r="G470" s="5"/>
+      <c r="H470" s="5"/>
+      <c r="I470" s="5"/>
+      <c r="J470" s="5"/>
+      <c r="K470" s="5"/>
+      <c r="L470" s="5"/>
+      <c r="M470" s="5"/>
+      <c r="N470" s="5"/>
+      <c r="O470" s="5"/>
+      <c r="P470" s="5"/>
+      <c r="Q470" s="5"/>
+      <c r="R470" s="5"/>
+      <c r="S470" s="5"/>
+      <c r="T470" s="5"/>
+      <c r="U470" s="5"/>
+      <c r="V470" s="5"/>
+      <c r="W470" s="5"/>
+      <c r="X470" s="5"/>
+      <c r="Y470" s="5"/>
+      <c r="Z470" s="5"/>
+      <c r="AA470" s="5"/>
+      <c r="AB470" s="5"/>
+      <c r="AC470" s="5"/>
+      <c r="AD470" s="5"/>
+      <c r="AE470" s="5"/>
+      <c r="AF470" s="5"/>
+      <c r="AG470" s="5"/>
+      <c r="AH470" s="5"/>
+      <c r="AI470" s="5"/>
+      <c r="AJ470" s="5"/>
+      <c r="AK470" s="5"/>
+      <c r="AL470" s="5"/>
+      <c r="AM470" s="5"/>
+      <c r="AN470" s="5"/>
+      <c r="AO470" s="5"/>
+      <c r="AP470" s="5"/>
+    </row>
+    <row r="471" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A471" s="5"/>
+      <c r="B471" s="5"/>
+      <c r="C471" s="5"/>
+      <c r="D471" s="5"/>
+      <c r="E471" s="5"/>
+      <c r="F471" s="5"/>
+      <c r="G471" s="5"/>
+      <c r="H471" s="5"/>
+      <c r="I471" s="5"/>
+      <c r="J471" s="5"/>
+      <c r="K471" s="5"/>
+      <c r="L471" s="5"/>
+      <c r="M471" s="5"/>
+      <c r="N471" s="5"/>
+      <c r="O471" s="5"/>
+      <c r="P471" s="5"/>
+      <c r="Q471" s="5"/>
+      <c r="R471" s="5"/>
+      <c r="S471" s="5"/>
+      <c r="T471" s="5"/>
+      <c r="U471" s="5"/>
+      <c r="V471" s="5"/>
+      <c r="W471" s="5"/>
+      <c r="X471" s="5"/>
+      <c r="Y471" s="5"/>
+      <c r="Z471" s="5"/>
+      <c r="AA471" s="5"/>
+      <c r="AB471" s="5"/>
+      <c r="AC471" s="5"/>
+      <c r="AD471" s="5"/>
+      <c r="AE471" s="5"/>
+      <c r="AF471" s="5"/>
+      <c r="AG471" s="5"/>
+      <c r="AH471" s="5"/>
+      <c r="AI471" s="5"/>
+      <c r="AJ471" s="5"/>
+      <c r="AK471" s="5"/>
+      <c r="AL471" s="5"/>
+      <c r="AM471" s="5"/>
+      <c r="AN471" s="5"/>
+      <c r="AO471" s="5"/>
+      <c r="AP471" s="5"/>
+    </row>
+    <row r="472" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A472" s="5"/>
+      <c r="B472" s="5"/>
+      <c r="C472" s="5"/>
+      <c r="D472" s="5"/>
+      <c r="E472" s="5"/>
+      <c r="F472" s="5"/>
+      <c r="G472" s="5"/>
+      <c r="H472" s="5"/>
+      <c r="I472" s="5"/>
+      <c r="J472" s="5"/>
+      <c r="K472" s="5"/>
+      <c r="L472" s="5"/>
+      <c r="M472" s="5"/>
+      <c r="N472" s="5"/>
+      <c r="O472" s="5"/>
+      <c r="P472" s="5"/>
+      <c r="Q472" s="5"/>
+      <c r="R472" s="5"/>
+      <c r="S472" s="5"/>
+      <c r="T472" s="5"/>
+      <c r="U472" s="5"/>
+      <c r="V472" s="5"/>
+      <c r="W472" s="5"/>
+      <c r="X472" s="5"/>
+      <c r="Y472" s="5"/>
+      <c r="Z472" s="5"/>
+      <c r="AA472" s="5"/>
+      <c r="AB472" s="5"/>
+      <c r="AC472" s="5"/>
+      <c r="AD472" s="5"/>
+      <c r="AE472" s="5"/>
+      <c r="AF472" s="5"/>
+      <c r="AG472" s="5"/>
+      <c r="AH472" s="5"/>
+      <c r="AI472" s="5"/>
+      <c r="AJ472" s="5"/>
+      <c r="AK472" s="5"/>
+      <c r="AL472" s="5"/>
+      <c r="AM472" s="5"/>
+      <c r="AN472" s="5"/>
+      <c r="AO472" s="5"/>
+      <c r="AP472" s="5"/>
+    </row>
+    <row r="473" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A473" s="5"/>
+      <c r="B473" s="5"/>
+      <c r="C473" s="5"/>
+      <c r="D473" s="5"/>
+      <c r="E473" s="5"/>
+      <c r="F473" s="5"/>
+      <c r="G473" s="5"/>
+      <c r="H473" s="5"/>
+      <c r="I473" s="5"/>
+      <c r="J473" s="5"/>
+      <c r="K473" s="5"/>
+      <c r="L473" s="5"/>
+      <c r="M473" s="5"/>
+      <c r="N473" s="5"/>
+      <c r="O473" s="5"/>
+      <c r="P473" s="5"/>
+      <c r="Q473" s="5"/>
+      <c r="R473" s="5"/>
+      <c r="S473" s="5"/>
+      <c r="T473" s="5"/>
+      <c r="U473" s="5"/>
+      <c r="V473" s="5"/>
+      <c r="W473" s="5"/>
+      <c r="X473" s="5"/>
+      <c r="Y473" s="5"/>
+      <c r="Z473" s="5"/>
+      <c r="AA473" s="5"/>
+      <c r="AB473" s="5"/>
+      <c r="AC473" s="5"/>
+      <c r="AD473" s="5"/>
+      <c r="AE473" s="5"/>
+      <c r="AF473" s="5"/>
+      <c r="AG473" s="5"/>
+      <c r="AH473" s="5"/>
+      <c r="AI473" s="5"/>
+      <c r="AJ473" s="5"/>
+      <c r="AK473" s="5"/>
+      <c r="AL473" s="5"/>
+      <c r="AM473" s="5"/>
+      <c r="AN473" s="5"/>
+      <c r="AO473" s="5"/>
+      <c r="AP473" s="5"/>
+    </row>
+    <row r="474" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A474" s="5"/>
+      <c r="B474" s="5"/>
+      <c r="C474" s="5"/>
+      <c r="D474" s="5"/>
+      <c r="E474" s="5"/>
+      <c r="F474" s="5"/>
+      <c r="G474" s="5"/>
+      <c r="H474" s="5"/>
+      <c r="I474" s="5"/>
+      <c r="J474" s="5"/>
+      <c r="K474" s="5"/>
+      <c r="L474" s="5"/>
+      <c r="M474" s="5"/>
+      <c r="N474" s="5"/>
+      <c r="O474" s="5"/>
+      <c r="P474" s="5"/>
+      <c r="Q474" s="5"/>
+      <c r="R474" s="5"/>
+      <c r="S474" s="5"/>
+      <c r="T474" s="5"/>
+      <c r="U474" s="5"/>
+      <c r="V474" s="5"/>
+      <c r="W474" s="5"/>
+      <c r="X474" s="5"/>
+      <c r="Y474" s="5"/>
+      <c r="Z474" s="5"/>
+      <c r="AA474" s="5"/>
+      <c r="AB474" s="5"/>
+      <c r="AC474" s="5"/>
+      <c r="AD474" s="5"/>
+      <c r="AE474" s="5"/>
+      <c r="AF474" s="5"/>
+      <c r="AG474" s="5"/>
+      <c r="AH474" s="5"/>
+      <c r="AI474" s="5"/>
+      <c r="AJ474" s="5"/>
+      <c r="AK474" s="5"/>
+      <c r="AL474" s="5"/>
+      <c r="AM474" s="5"/>
+      <c r="AN474" s="5"/>
+      <c r="AO474" s="5"/>
+      <c r="AP474" s="5"/>
+    </row>
+    <row r="475" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A475" s="5"/>
+      <c r="B475" s="5"/>
+      <c r="C475" s="5"/>
+      <c r="D475" s="5"/>
+      <c r="E475" s="5"/>
+      <c r="F475" s="5"/>
+      <c r="G475" s="5"/>
+      <c r="H475" s="5"/>
+      <c r="I475" s="5"/>
+      <c r="J475" s="5"/>
+      <c r="K475" s="5"/>
+      <c r="L475" s="5"/>
+      <c r="M475" s="5"/>
+      <c r="N475" s="5"/>
+      <c r="O475" s="5"/>
+      <c r="P475" s="5"/>
+      <c r="Q475" s="5"/>
+      <c r="R475" s="5"/>
+      <c r="S475" s="5"/>
+      <c r="T475" s="5"/>
+      <c r="U475" s="5"/>
+      <c r="V475" s="5"/>
+      <c r="W475" s="5"/>
+      <c r="X475" s="5"/>
+      <c r="Y475" s="5"/>
+      <c r="Z475" s="5"/>
+      <c r="AA475" s="5"/>
+      <c r="AB475" s="5"/>
+      <c r="AC475" s="5"/>
+      <c r="AD475" s="5"/>
+      <c r="AE475" s="5"/>
+      <c r="AF475" s="5"/>
+      <c r="AG475" s="5"/>
+      <c r="AH475" s="5"/>
+      <c r="AI475" s="5"/>
+      <c r="AJ475" s="5"/>
+      <c r="AK475" s="5"/>
+      <c r="AL475" s="5"/>
+      <c r="AM475" s="5"/>
+      <c r="AN475" s="5"/>
+      <c r="AO475" s="5"/>
+      <c r="AP475" s="5"/>
+    </row>
+    <row r="476" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A476" s="5"/>
+      <c r="B476" s="5"/>
+      <c r="C476" s="5"/>
+      <c r="D476" s="5"/>
+      <c r="E476" s="5"/>
+      <c r="F476" s="5"/>
+      <c r="G476" s="5"/>
+      <c r="H476" s="5"/>
+      <c r="I476" s="5"/>
+      <c r="J476" s="5"/>
+      <c r="K476" s="5"/>
+      <c r="L476" s="5"/>
+      <c r="M476" s="5"/>
+      <c r="N476" s="5"/>
+      <c r="O476" s="5"/>
+      <c r="P476" s="5"/>
+      <c r="Q476" s="5"/>
+      <c r="R476" s="5"/>
+      <c r="S476" s="5"/>
+      <c r="T476" s="5"/>
+      <c r="U476" s="5"/>
+      <c r="V476" s="5"/>
+      <c r="W476" s="5"/>
+      <c r="X476" s="5"/>
+      <c r="Y476" s="5"/>
+      <c r="Z476" s="5"/>
+      <c r="AA476" s="5"/>
+      <c r="AB476" s="5"/>
+      <c r="AC476" s="5"/>
+      <c r="AD476" s="5"/>
+      <c r="AE476" s="5"/>
+      <c r="AF476" s="5"/>
+      <c r="AG476" s="5"/>
+      <c r="AH476" s="5"/>
+      <c r="AI476" s="5"/>
+      <c r="AJ476" s="5"/>
+      <c r="AK476" s="5"/>
+      <c r="AL476" s="5"/>
+      <c r="AM476" s="5"/>
+      <c r="AN476" s="5"/>
+      <c r="AO476" s="5"/>
+      <c r="AP476" s="5"/>
+    </row>
+    <row r="477" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A477" s="5"/>
+      <c r="B477" s="5"/>
+      <c r="C477" s="5"/>
+      <c r="D477" s="5"/>
+      <c r="E477" s="5"/>
+      <c r="F477" s="5"/>
+      <c r="G477" s="5"/>
+      <c r="H477" s="5"/>
+      <c r="I477" s="5"/>
+      <c r="J477" s="5"/>
+      <c r="K477" s="5"/>
+      <c r="L477" s="5"/>
+      <c r="M477" s="5"/>
+      <c r="N477" s="5"/>
+      <c r="O477" s="5"/>
+      <c r="P477" s="5"/>
+      <c r="Q477" s="5"/>
+      <c r="R477" s="5"/>
+      <c r="S477" s="5"/>
+      <c r="T477" s="5"/>
+      <c r="U477" s="5"/>
+      <c r="V477" s="5"/>
+      <c r="W477" s="5"/>
+      <c r="X477" s="5"/>
+      <c r="Y477" s="5"/>
+      <c r="Z477" s="5"/>
+      <c r="AA477" s="5"/>
+      <c r="AB477" s="5"/>
+      <c r="AC477" s="5"/>
+      <c r="AD477" s="5"/>
+      <c r="AE477" s="5"/>
+      <c r="AF477" s="5"/>
+      <c r="AG477" s="5"/>
+      <c r="AH477" s="5"/>
+      <c r="AI477" s="5"/>
+      <c r="AJ477" s="5"/>
+      <c r="AK477" s="5"/>
+      <c r="AL477" s="5"/>
+      <c r="AM477" s="5"/>
+      <c r="AN477" s="5"/>
+      <c r="AO477" s="5"/>
+      <c r="AP477" s="5"/>
+    </row>
+    <row r="478" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A478" s="5"/>
+      <c r="B478" s="5"/>
+      <c r="C478" s="5"/>
+      <c r="D478" s="5"/>
+      <c r="E478" s="5"/>
+      <c r="F478" s="5"/>
+      <c r="G478" s="5"/>
+      <c r="H478" s="5"/>
+      <c r="I478" s="5"/>
+      <c r="J478" s="5"/>
+      <c r="K478" s="5"/>
+      <c r="L478" s="5"/>
+      <c r="M478" s="5"/>
+      <c r="N478" s="5"/>
+      <c r="O478" s="5"/>
+      <c r="P478" s="5"/>
+      <c r="Q478" s="5"/>
+      <c r="R478" s="5"/>
+      <c r="S478" s="5"/>
+      <c r="T478" s="5"/>
+      <c r="U478" s="5"/>
+      <c r="V478" s="5"/>
+      <c r="W478" s="5"/>
+      <c r="X478" s="5"/>
+      <c r="Y478" s="5"/>
+      <c r="Z478" s="5"/>
+      <c r="AA478" s="5"/>
+      <c r="AB478" s="5"/>
+      <c r="AC478" s="5"/>
+      <c r="AD478" s="5"/>
+      <c r="AE478" s="5"/>
+      <c r="AF478" s="5"/>
+      <c r="AG478" s="5"/>
+      <c r="AH478" s="5"/>
+      <c r="AI478" s="5"/>
+      <c r="AJ478" s="5"/>
+      <c r="AK478" s="5"/>
+      <c r="AL478" s="5"/>
+      <c r="AM478" s="5"/>
+      <c r="AN478" s="5"/>
+      <c r="AO478" s="5"/>
+      <c r="AP478" s="5"/>
+    </row>
+    <row r="479" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A479" s="5"/>
+      <c r="B479" s="5"/>
+      <c r="C479" s="5"/>
+      <c r="D479" s="5"/>
+      <c r="E479" s="5"/>
+      <c r="F479" s="5"/>
+      <c r="G479" s="5"/>
+      <c r="H479" s="5"/>
+      <c r="I479" s="5"/>
+      <c r="J479" s="5"/>
+      <c r="K479" s="5"/>
+      <c r="L479" s="5"/>
+      <c r="M479" s="5"/>
+      <c r="N479" s="5"/>
+      <c r="O479" s="5"/>
+      <c r="P479" s="5"/>
+      <c r="Q479" s="5"/>
+      <c r="R479" s="5"/>
+      <c r="S479" s="5"/>
+      <c r="T479" s="5"/>
+      <c r="U479" s="5"/>
+      <c r="V479" s="5"/>
+      <c r="W479" s="5"/>
+      <c r="X479" s="5"/>
+      <c r="Y479" s="5"/>
+      <c r="Z479" s="5"/>
+      <c r="AA479" s="5"/>
+      <c r="AB479" s="5"/>
+      <c r="AC479" s="5"/>
+      <c r="AD479" s="5"/>
+      <c r="AE479" s="5"/>
+      <c r="AF479" s="5"/>
+      <c r="AG479" s="5"/>
+      <c r="AH479" s="5"/>
+      <c r="AI479" s="5"/>
+      <c r="AJ479" s="5"/>
+      <c r="AK479" s="5"/>
+      <c r="AL479" s="5"/>
+      <c r="AM479" s="5"/>
+      <c r="AN479" s="5"/>
+      <c r="AO479" s="5"/>
+      <c r="AP479" s="5"/>
+    </row>
+    <row r="480" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A480" s="5"/>
+      <c r="B480" s="5"/>
+      <c r="C480" s="5"/>
+      <c r="D480" s="5"/>
+      <c r="E480" s="5"/>
+      <c r="F480" s="5"/>
+      <c r="G480" s="5"/>
+      <c r="H480" s="5"/>
+      <c r="I480" s="5"/>
+      <c r="J480" s="5"/>
+      <c r="K480" s="5"/>
+      <c r="L480" s="5"/>
+      <c r="M480" s="5"/>
+      <c r="N480" s="5"/>
+      <c r="O480" s="5"/>
+      <c r="P480" s="5"/>
+      <c r="Q480" s="5"/>
+      <c r="R480" s="5"/>
+      <c r="S480" s="5"/>
+      <c r="T480" s="5"/>
+      <c r="U480" s="5"/>
+      <c r="V480" s="5"/>
+      <c r="W480" s="5"/>
+      <c r="X480" s="5"/>
+      <c r="Y480" s="5"/>
+      <c r="Z480" s="5"/>
+      <c r="AA480" s="5"/>
+      <c r="AB480" s="5"/>
+      <c r="AC480" s="5"/>
+      <c r="AD480" s="5"/>
+      <c r="AE480" s="5"/>
+      <c r="AF480" s="5"/>
+      <c r="AG480" s="5"/>
+      <c r="AH480" s="5"/>
+      <c r="AI480" s="5"/>
+      <c r="AJ480" s="5"/>
+      <c r="AK480" s="5"/>
+      <c r="AL480" s="5"/>
+      <c r="AM480" s="5"/>
+      <c r="AN480" s="5"/>
+      <c r="AO480" s="5"/>
+      <c r="AP480" s="5"/>
+    </row>
+    <row r="481" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A481" s="5"/>
+      <c r="B481" s="5"/>
+      <c r="C481" s="5"/>
+      <c r="D481" s="5"/>
+      <c r="E481" s="5"/>
+      <c r="F481" s="5"/>
+      <c r="G481" s="5"/>
+      <c r="H481" s="5"/>
+      <c r="I481" s="5"/>
+      <c r="J481" s="5"/>
+      <c r="K481" s="5"/>
+      <c r="L481" s="5"/>
+      <c r="M481" s="5"/>
+      <c r="N481" s="5"/>
+      <c r="O481" s="5"/>
+      <c r="P481" s="5"/>
+      <c r="Q481" s="5"/>
+      <c r="R481" s="5"/>
+      <c r="S481" s="5"/>
+      <c r="T481" s="5"/>
+      <c r="U481" s="5"/>
+      <c r="V481" s="5"/>
+      <c r="W481" s="5"/>
+      <c r="X481" s="5"/>
+      <c r="Y481" s="5"/>
+      <c r="Z481" s="5"/>
+      <c r="AA481" s="5"/>
+      <c r="AB481" s="5"/>
+      <c r="AC481" s="5"/>
+      <c r="AD481" s="5"/>
+      <c r="AE481" s="5"/>
+      <c r="AF481" s="5"/>
+      <c r="AG481" s="5"/>
+      <c r="AH481" s="5"/>
+      <c r="AI481" s="5"/>
+      <c r="AJ481" s="5"/>
+      <c r="AK481" s="5"/>
+      <c r="AL481" s="5"/>
+      <c r="AM481" s="5"/>
+      <c r="AN481" s="5"/>
+      <c r="AO481" s="5"/>
+      <c r="AP481" s="5"/>
+    </row>
+    <row r="482" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A482" s="5"/>
+      <c r="B482" s="5"/>
+      <c r="C482" s="5"/>
+      <c r="D482" s="5"/>
+      <c r="E482" s="5"/>
+      <c r="F482" s="5"/>
+      <c r="G482" s="5"/>
+      <c r="H482" s="5"/>
+      <c r="I482" s="5"/>
+      <c r="J482" s="5"/>
+      <c r="K482" s="5"/>
+      <c r="L482" s="5"/>
+      <c r="M482" s="5"/>
+      <c r="N482" s="5"/>
+      <c r="O482" s="5"/>
+      <c r="P482" s="5"/>
+      <c r="Q482" s="5"/>
+      <c r="R482" s="5"/>
+      <c r="S482" s="5"/>
+      <c r="T482" s="5"/>
+      <c r="U482" s="5"/>
+      <c r="V482" s="5"/>
+      <c r="W482" s="5"/>
+      <c r="X482" s="5"/>
+      <c r="Y482" s="5"/>
+      <c r="Z482" s="5"/>
+      <c r="AA482" s="5"/>
+      <c r="AB482" s="5"/>
+      <c r="AC482" s="5"/>
+      <c r="AD482" s="5"/>
+      <c r="AE482" s="5"/>
+      <c r="AF482" s="5"/>
+      <c r="AG482" s="5"/>
+      <c r="AH482" s="5"/>
+      <c r="AI482" s="5"/>
+      <c r="AJ482" s="5"/>
+      <c r="AK482" s="5"/>
+      <c r="AL482" s="5"/>
+      <c r="AM482" s="5"/>
+      <c r="AN482" s="5"/>
+      <c r="AO482" s="5"/>
+      <c r="AP482" s="5"/>
+    </row>
+    <row r="483" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A483" s="5"/>
+      <c r="B483" s="5"/>
+      <c r="C483" s="5"/>
+      <c r="D483" s="5"/>
+      <c r="E483" s="5"/>
+      <c r="F483" s="5"/>
+      <c r="G483" s="5"/>
+      <c r="H483" s="5"/>
+      <c r="I483" s="5"/>
+      <c r="J483" s="5"/>
+      <c r="K483" s="5"/>
+      <c r="L483" s="5"/>
+      <c r="M483" s="5"/>
+      <c r="N483" s="5"/>
+      <c r="O483" s="5"/>
+      <c r="P483" s="5"/>
+      <c r="Q483" s="5"/>
+      <c r="R483" s="5"/>
+      <c r="S483" s="5"/>
+      <c r="T483" s="5"/>
+      <c r="U483" s="5"/>
+      <c r="V483" s="5"/>
+      <c r="W483" s="5"/>
+      <c r="X483" s="5"/>
+      <c r="Y483" s="5"/>
+      <c r="Z483" s="5"/>
+      <c r="AA483" s="5"/>
+      <c r="AB483" s="5"/>
+      <c r="AC483" s="5"/>
+      <c r="AD483" s="5"/>
+      <c r="AE483" s="5"/>
+      <c r="AF483" s="5"/>
+      <c r="AG483" s="5"/>
+      <c r="AH483" s="5"/>
+      <c r="AI483" s="5"/>
+      <c r="AJ483" s="5"/>
+      <c r="AK483" s="5"/>
+      <c r="AL483" s="5"/>
+      <c r="AM483" s="5"/>
+      <c r="AN483" s="5"/>
+      <c r="AO483" s="5"/>
+      <c r="AP483" s="5"/>
+    </row>
+    <row r="484" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A484" s="5"/>
+      <c r="B484" s="5"/>
+      <c r="C484" s="5"/>
+      <c r="D484" s="5"/>
+      <c r="E484" s="5"/>
+      <c r="F484" s="5"/>
+      <c r="G484" s="5"/>
+      <c r="H484" s="5"/>
+      <c r="I484" s="5"/>
+      <c r="J484" s="5"/>
+      <c r="K484" s="5"/>
+      <c r="L484" s="5"/>
+      <c r="M484" s="5"/>
+      <c r="N484" s="5"/>
+      <c r="O484" s="5"/>
+      <c r="P484" s="5"/>
+      <c r="Q484" s="5"/>
+      <c r="R484" s="5"/>
+      <c r="S484" s="5"/>
+      <c r="T484" s="5"/>
+      <c r="U484" s="5"/>
+      <c r="V484" s="5"/>
+      <c r="W484" s="5"/>
+      <c r="X484" s="5"/>
+      <c r="Y484" s="5"/>
+      <c r="Z484" s="5"/>
+      <c r="AA484" s="5"/>
+      <c r="AB484" s="5"/>
+      <c r="AC484" s="5"/>
+      <c r="AD484" s="5"/>
+      <c r="AE484" s="5"/>
+      <c r="AF484" s="5"/>
+      <c r="AG484" s="5"/>
+      <c r="AH484" s="5"/>
+      <c r="AI484" s="5"/>
+      <c r="AJ484" s="5"/>
+      <c r="AK484" s="5"/>
+      <c r="AL484" s="5"/>
+      <c r="AM484" s="5"/>
+      <c r="AN484" s="5"/>
+      <c r="AO484" s="5"/>
+      <c r="AP484" s="5"/>
+    </row>
+    <row r="485" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A485" s="5"/>
+      <c r="B485" s="5"/>
+      <c r="C485" s="5"/>
+      <c r="D485" s="5"/>
+      <c r="E485" s="5"/>
+      <c r="F485" s="5"/>
+      <c r="G485" s="5"/>
+      <c r="H485" s="5"/>
+      <c r="I485" s="5"/>
+      <c r="J485" s="5"/>
+      <c r="K485" s="5"/>
+      <c r="L485" s="5"/>
+      <c r="M485" s="5"/>
+      <c r="N485" s="5"/>
+      <c r="O485" s="5"/>
+      <c r="P485" s="5"/>
+      <c r="Q485" s="5"/>
+      <c r="R485" s="5"/>
+      <c r="S485" s="5"/>
+      <c r="T485" s="5"/>
+      <c r="U485" s="5"/>
+      <c r="V485" s="5"/>
+      <c r="W485" s="5"/>
+      <c r="X485" s="5"/>
+      <c r="Y485" s="5"/>
+      <c r="Z485" s="5"/>
+      <c r="AA485" s="5"/>
+      <c r="AB485" s="5"/>
+      <c r="AC485" s="5"/>
+      <c r="AD485" s="5"/>
+      <c r="AE485" s="5"/>
+      <c r="AF485" s="5"/>
+      <c r="AG485" s="5"/>
+      <c r="AH485" s="5"/>
+      <c r="AI485" s="5"/>
+      <c r="AJ485" s="5"/>
+      <c r="AK485" s="5"/>
+      <c r="AL485" s="5"/>
+      <c r="AM485" s="5"/>
+      <c r="AN485" s="5"/>
+      <c r="AO485" s="5"/>
+      <c r="AP485" s="5"/>
+    </row>
+    <row r="486" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A486" s="5"/>
+      <c r="B486" s="5"/>
+      <c r="C486" s="5"/>
+      <c r="D486" s="5"/>
+      <c r="E486" s="5"/>
+      <c r="F486" s="5"/>
+      <c r="G486" s="5"/>
+      <c r="H486" s="5"/>
+      <c r="I486" s="5"/>
+      <c r="J486" s="5"/>
+      <c r="K486" s="5"/>
+      <c r="L486" s="5"/>
+      <c r="M486" s="5"/>
+      <c r="N486" s="5"/>
+      <c r="O486" s="5"/>
+      <c r="P486" s="5"/>
+      <c r="Q486" s="5"/>
+      <c r="R486" s="5"/>
+      <c r="S486" s="5"/>
+      <c r="T486" s="5"/>
+      <c r="U486" s="5"/>
+      <c r="V486" s="5"/>
+      <c r="W486" s="5"/>
+      <c r="X486" s="5"/>
+      <c r="Y486" s="5"/>
+      <c r="Z486" s="5"/>
+      <c r="AA486" s="5"/>
+      <c r="AB486" s="5"/>
+      <c r="AC486" s="5"/>
+      <c r="AD486" s="5"/>
+      <c r="AE486" s="5"/>
+      <c r="AF486" s="5"/>
+      <c r="AG486" s="5"/>
+      <c r="AH486" s="5"/>
+      <c r="AI486" s="5"/>
+      <c r="AJ486" s="5"/>
+      <c r="AK486" s="5"/>
+      <c r="AL486" s="5"/>
+      <c r="AM486" s="5"/>
+      <c r="AN486" s="5"/>
+      <c r="AO486" s="5"/>
+      <c r="AP486" s="5"/>
+    </row>
+    <row r="487" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A487" s="5"/>
+      <c r="B487" s="5"/>
+      <c r="C487" s="5"/>
+      <c r="D487" s="5"/>
+      <c r="E487" s="5"/>
+      <c r="F487" s="5"/>
+      <c r="G487" s="5"/>
+      <c r="H487" s="5"/>
+      <c r="I487" s="5"/>
+      <c r="J487" s="5"/>
+      <c r="K487" s="5"/>
+      <c r="L487" s="5"/>
+      <c r="M487" s="5"/>
+      <c r="N487" s="5"/>
+      <c r="O487" s="5"/>
+      <c r="P487" s="5"/>
+      <c r="Q487" s="5"/>
+      <c r="R487" s="5"/>
+      <c r="S487" s="5"/>
+      <c r="T487" s="5"/>
+      <c r="U487" s="5"/>
+      <c r="V487" s="5"/>
+      <c r="W487" s="5"/>
+      <c r="X487" s="5"/>
+      <c r="Y487" s="5"/>
+      <c r="Z487" s="5"/>
+      <c r="AA487" s="5"/>
+      <c r="AB487" s="5"/>
+      <c r="AC487" s="5"/>
+      <c r="AD487" s="5"/>
+      <c r="AE487" s="5"/>
+      <c r="AF487" s="5"/>
+      <c r="AG487" s="5"/>
+      <c r="AH487" s="5"/>
+      <c r="AI487" s="5"/>
+      <c r="AJ487" s="5"/>
+      <c r="AK487" s="5"/>
+      <c r="AL487" s="5"/>
+      <c r="AM487" s="5"/>
+      <c r="AN487" s="5"/>
+      <c r="AO487" s="5"/>
+      <c r="AP487" s="5"/>
+    </row>
+    <row r="488" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A488" s="5"/>
+      <c r="B488" s="5"/>
+      <c r="C488" s="5"/>
+      <c r="D488" s="5"/>
+      <c r="E488" s="5"/>
+      <c r="F488" s="5"/>
+      <c r="G488" s="5"/>
+      <c r="H488" s="5"/>
+      <c r="I488" s="5"/>
+      <c r="J488" s="5"/>
+      <c r="K488" s="5"/>
+      <c r="L488" s="5"/>
+      <c r="M488" s="5"/>
+      <c r="N488" s="5"/>
+      <c r="O488" s="5"/>
+      <c r="P488" s="5"/>
+      <c r="Q488" s="5"/>
+      <c r="R488" s="5"/>
+      <c r="S488" s="5"/>
+      <c r="T488" s="5"/>
+      <c r="U488" s="5"/>
+      <c r="V488" s="5"/>
+      <c r="W488" s="5"/>
+      <c r="X488" s="5"/>
+      <c r="Y488" s="5"/>
+      <c r="Z488" s="5"/>
+      <c r="AA488" s="5"/>
+      <c r="AB488" s="5"/>
+      <c r="AC488" s="5"/>
+      <c r="AD488" s="5"/>
+      <c r="AE488" s="5"/>
+      <c r="AF488" s="5"/>
+      <c r="AG488" s="5"/>
+      <c r="AH488" s="5"/>
+      <c r="AI488" s="5"/>
+      <c r="AJ488" s="5"/>
+      <c r="AK488" s="5"/>
+      <c r="AL488" s="5"/>
+      <c r="AM488" s="5"/>
+      <c r="AN488" s="5"/>
+      <c r="AO488" s="5"/>
+      <c r="AP488" s="5"/>
+    </row>
+    <row r="489" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A489" s="5"/>
+      <c r="B489" s="5"/>
+      <c r="C489" s="5"/>
+      <c r="D489" s="5"/>
+      <c r="E489" s="5"/>
+      <c r="F489" s="5"/>
+      <c r="G489" s="5"/>
+      <c r="H489" s="5"/>
+      <c r="I489" s="5"/>
+      <c r="J489" s="5"/>
+      <c r="K489" s="5"/>
+      <c r="L489" s="5"/>
+      <c r="M489" s="5"/>
+      <c r="N489" s="5"/>
+      <c r="O489" s="5"/>
+      <c r="P489" s="5"/>
+      <c r="Q489" s="5"/>
+      <c r="R489" s="5"/>
+      <c r="S489" s="5"/>
+      <c r="T489" s="5"/>
+      <c r="U489" s="5"/>
+      <c r="V489" s="5"/>
+      <c r="W489" s="5"/>
+      <c r="X489" s="5"/>
+      <c r="Y489" s="5"/>
+      <c r="Z489" s="5"/>
+      <c r="AA489" s="5"/>
+      <c r="AB489" s="5"/>
+      <c r="AC489" s="5"/>
+      <c r="AD489" s="5"/>
+      <c r="AE489" s="5"/>
+      <c r="AF489" s="5"/>
+      <c r="AG489" s="5"/>
+      <c r="AH489" s="5"/>
+      <c r="AI489" s="5"/>
+      <c r="AJ489" s="5"/>
+      <c r="AK489" s="5"/>
+      <c r="AL489" s="5"/>
+      <c r="AM489" s="5"/>
+      <c r="AN489" s="5"/>
+      <c r="AO489" s="5"/>
+      <c r="AP489" s="5"/>
+    </row>
+    <row r="490" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A490" s="5"/>
+      <c r="B490" s="5"/>
+      <c r="C490" s="5"/>
+      <c r="D490" s="5"/>
+      <c r="E490" s="5"/>
+      <c r="F490" s="5"/>
+      <c r="G490" s="5"/>
+      <c r="H490" s="5"/>
+      <c r="I490" s="5"/>
+      <c r="J490" s="5"/>
+      <c r="K490" s="5"/>
+      <c r="L490" s="5"/>
+      <c r="M490" s="5"/>
+      <c r="N490" s="5"/>
+      <c r="O490" s="5"/>
+      <c r="P490" s="5"/>
+      <c r="Q490" s="5"/>
+      <c r="R490" s="5"/>
+      <c r="S490" s="5"/>
+      <c r="T490" s="5"/>
+      <c r="U490" s="5"/>
+      <c r="V490" s="5"/>
+      <c r="W490" s="5"/>
+      <c r="X490" s="5"/>
+      <c r="Y490" s="5"/>
+      <c r="Z490" s="5"/>
+      <c r="AA490" s="5"/>
+      <c r="AB490" s="5"/>
+      <c r="AC490" s="5"/>
+      <c r="AD490" s="5"/>
+      <c r="AE490" s="5"/>
+      <c r="AF490" s="5"/>
+      <c r="AG490" s="5"/>
+      <c r="AH490" s="5"/>
+      <c r="AI490" s="5"/>
+      <c r="AJ490" s="5"/>
+      <c r="AK490" s="5"/>
+      <c r="AL490" s="5"/>
+      <c r="AM490" s="5"/>
+      <c r="AN490" s="5"/>
+      <c r="AO490" s="5"/>
+      <c r="AP490" s="5"/>
+    </row>
+    <row r="491" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A491" s="5"/>
+      <c r="B491" s="5"/>
+      <c r="C491" s="5"/>
+      <c r="D491" s="5"/>
+      <c r="E491" s="5"/>
+      <c r="F491" s="5"/>
+      <c r="G491" s="5"/>
+      <c r="H491" s="5"/>
+      <c r="I491" s="5"/>
+      <c r="J491" s="5"/>
+      <c r="K491" s="5"/>
+      <c r="L491" s="5"/>
+      <c r="M491" s="5"/>
+      <c r="N491" s="5"/>
+      <c r="O491" s="5"/>
+      <c r="P491" s="5"/>
+      <c r="Q491" s="5"/>
+      <c r="R491" s="5"/>
+      <c r="S491" s="5"/>
+      <c r="T491" s="5"/>
+      <c r="U491" s="5"/>
+      <c r="V491" s="5"/>
+      <c r="W491" s="5"/>
+      <c r="X491" s="5"/>
+      <c r="Y491" s="5"/>
+      <c r="Z491" s="5"/>
+      <c r="AA491" s="5"/>
+      <c r="AB491" s="5"/>
+      <c r="AC491" s="5"/>
+      <c r="AD491" s="5"/>
+      <c r="AE491" s="5"/>
+      <c r="AF491" s="5"/>
+      <c r="AG491" s="5"/>
+      <c r="AH491" s="5"/>
+      <c r="AI491" s="5"/>
+      <c r="AJ491" s="5"/>
+      <c r="AK491" s="5"/>
+      <c r="AL491" s="5"/>
+      <c r="AM491" s="5"/>
+      <c r="AN491" s="5"/>
+      <c r="AO491" s="5"/>
+      <c r="AP491" s="5"/>
+    </row>
+    <row r="492" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A492" s="5"/>
+    </row>
+    <row r="493" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A493" s="5"/>
+    </row>
+    <row r="494" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A494" s="5"/>
+    </row>
+    <row r="495" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A495" s="5"/>
+    </row>
+    <row r="496" spans="1:42" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A496" s="5"/>
+    </row>
+    <row r="497" spans="1:1" ht="16" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A497" s="5"/>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2"/>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>